--- a/Code/Results/Cases/Case_5_23/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_5_23/res_line/pl_mw.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:M25"/>
+  <dimension ref="A1:O25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:13">
+    <row r="1" spans="1:15">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -409,988 +409,1138 @@
       <c r="M1" s="1">
         <v>11</v>
       </c>
-    </row>
-    <row r="2" spans="1:13">
+      <c r="N1" s="1">
+        <v>12</v>
+      </c>
+      <c r="O1" s="1">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>2.407236980070991</v>
+        <v>1.917379146905773</v>
       </c>
       <c r="C2">
-        <v>1.036422438665085</v>
+        <v>0.2327773200204604</v>
       </c>
       <c r="D2">
-        <v>0.01542372030073214</v>
+        <v>0.1392143454713874</v>
       </c>
       <c r="E2">
-        <v>0.4445997369659906</v>
+        <v>0.01900422516821232</v>
       </c>
       <c r="F2">
-        <v>2.64147387470112</v>
+        <v>7.509493017961688</v>
       </c>
       <c r="G2">
         <v>0</v>
       </c>
       <c r="H2">
-        <v>0.006153527182078733</v>
+        <v>0</v>
       </c>
       <c r="I2">
-        <v>1.288303381119718</v>
+        <v>0</v>
       </c>
       <c r="J2">
-        <v>0.317764979607027</v>
+        <v>0.1417169389954083</v>
       </c>
       <c r="K2">
-        <v>0.7957071599044667</v>
+        <v>0.4393510672776415</v>
       </c>
       <c r="L2">
-        <v>0</v>
+        <v>0.07781379832504598</v>
       </c>
       <c r="M2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:13">
+        <v>0.2972086732695445</v>
+      </c>
+      <c r="N2">
+        <v>0</v>
+      </c>
+      <c r="O2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>2.072235394169525</v>
+        <v>1.70855310444918</v>
       </c>
       <c r="C3">
-        <v>0.8897306795874442</v>
+        <v>0.1985410599259154</v>
       </c>
       <c r="D3">
-        <v>0.0158343857043155</v>
+        <v>0.1217361404480783</v>
       </c>
       <c r="E3">
-        <v>0.3809754545675403</v>
+        <v>0.01871752309556873</v>
       </c>
       <c r="F3">
-        <v>2.343730344101857</v>
+        <v>6.857189204339221</v>
       </c>
       <c r="G3">
         <v>0</v>
       </c>
       <c r="H3">
-        <v>0.006153527182078733</v>
+        <v>0</v>
       </c>
       <c r="I3">
-        <v>1.167935829583612</v>
+        <v>0</v>
       </c>
       <c r="J3">
-        <v>0.2726523040208875</v>
+        <v>0.135668494679269</v>
       </c>
       <c r="K3">
-        <v>0.6843845245881539</v>
+        <v>0.3862648267243713</v>
       </c>
       <c r="L3">
-        <v>0</v>
+        <v>0.07488860091490324</v>
       </c>
       <c r="M3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:13">
+        <v>0.2683267235519402</v>
+      </c>
+      <c r="N3">
+        <v>0</v>
+      </c>
+      <c r="O3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.869865973633125</v>
+        <v>1.585013689999641</v>
       </c>
       <c r="C4">
-        <v>0.8014698571179508</v>
+        <v>0.1780737257173399</v>
       </c>
       <c r="D4">
-        <v>0.01607695749426608</v>
+        <v>0.111184526795995</v>
       </c>
       <c r="E4">
-        <v>0.3428488089703663</v>
+        <v>0.01854740263131704</v>
       </c>
       <c r="F4">
-        <v>2.167284387986797</v>
+        <v>6.465379410988817</v>
       </c>
       <c r="G4">
         <v>0</v>
       </c>
       <c r="H4">
-        <v>0.006153527182078733</v>
+        <v>0</v>
       </c>
       <c r="I4">
-        <v>1.097189209218755</v>
+        <v>0</v>
       </c>
       <c r="J4">
-        <v>0.2457068645348883</v>
+        <v>0.1320203061181395</v>
       </c>
       <c r="K4">
-        <v>0.6172202521587309</v>
+        <v>0.3547798864017437</v>
       </c>
       <c r="L4">
-        <v>0</v>
+        <v>0.07330273480825156</v>
       </c>
       <c r="M4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:13">
+        <v>0.2513476411689197</v>
+      </c>
+      <c r="N4">
+        <v>0</v>
+      </c>
+      <c r="O4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.788100243061223</v>
+        <v>1.535731721558193</v>
       </c>
       <c r="C5">
-        <v>0.765885752411549</v>
+        <v>0.1698524243745254</v>
       </c>
       <c r="D5">
-        <v>0.0161735599186521</v>
+        <v>0.1069221900251023</v>
       </c>
       <c r="E5">
-        <v>0.3275117741921676</v>
+        <v>0.01847934404539764</v>
       </c>
       <c r="F5">
-        <v>2.096790007070055</v>
+        <v>6.307620062347013</v>
       </c>
       <c r="G5">
         <v>0</v>
       </c>
       <c r="H5">
-        <v>0.006153527182078733</v>
+        <v>0</v>
       </c>
       <c r="I5">
-        <v>1.069064054280688</v>
+        <v>0</v>
       </c>
       <c r="J5">
-        <v>0.234888035972709</v>
+        <v>0.1305471274304253</v>
       </c>
       <c r="K5">
-        <v>0.5901014009183427</v>
+        <v>0.3421990116238547</v>
       </c>
       <c r="L5">
-        <v>0</v>
+        <v>0.07270628319666983</v>
       </c>
       <c r="M5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:13">
+        <v>0.2446012068458288</v>
+      </c>
+      <c r="N5">
+        <v>0</v>
+      </c>
+      <c r="O5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.774561805509052</v>
+        <v>1.527609416815352</v>
       </c>
       <c r="C6">
-        <v>0.759998202776444</v>
+        <v>0.1684939423132619</v>
       </c>
       <c r="D6">
-        <v>0.01618946950538014</v>
+        <v>0.1062164854634062</v>
       </c>
       <c r="E6">
-        <v>0.3249761563515037</v>
+        <v>0.01846811349194466</v>
       </c>
       <c r="F6">
-        <v>2.08516426985895</v>
+        <v>6.281531577747245</v>
       </c>
       <c r="G6">
         <v>0</v>
       </c>
       <c r="H6">
-        <v>0.006153527182078733</v>
+        <v>0</v>
       </c>
       <c r="I6">
-        <v>1.064433991581566</v>
+        <v>0</v>
       </c>
       <c r="J6">
-        <v>0.2331005800816541</v>
+        <v>0.1303032392133687</v>
       </c>
       <c r="K6">
-        <v>0.5856122017546639</v>
+        <v>0.3401242214534292</v>
       </c>
       <c r="L6">
-        <v>0</v>
+        <v>0.07261016692162769</v>
       </c>
       <c r="M6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:13">
+        <v>0.2434909278327559</v>
+      </c>
+      <c r="N6">
+        <v>0</v>
+      </c>
+      <c r="O6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.86876057971233</v>
+        <v>1.584344903666107</v>
       </c>
       <c r="C7">
-        <v>0.8009884967436847</v>
+        <v>0.1779623922884355</v>
       </c>
       <c r="D7">
-        <v>0.01607826920110789</v>
+        <v>0.1111269012124438</v>
       </c>
       <c r="E7">
-        <v>0.3426412041522227</v>
+        <v>0.01854647991388614</v>
       </c>
       <c r="F7">
-        <v>2.166328213351619</v>
+        <v>6.463244450560381</v>
       </c>
       <c r="G7">
         <v>0</v>
       </c>
       <c r="H7">
-        <v>0.006153527182078733</v>
+        <v>0</v>
       </c>
       <c r="I7">
-        <v>1.096807162779484</v>
+        <v>0</v>
       </c>
       <c r="J7">
-        <v>0.245560338273485</v>
+        <v>0.1320003874747719</v>
       </c>
       <c r="K7">
-        <v>0.6168535605094334</v>
+        <v>0.3546092433048926</v>
       </c>
       <c r="L7">
-        <v>0</v>
+        <v>0.07329449303501789</v>
       </c>
       <c r="M7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:13">
+        <v>0.2512559785914767</v>
+      </c>
+      <c r="N7">
+        <v>0</v>
+      </c>
+      <c r="O7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8">
-        <v>2.290953541045951</v>
+        <v>1.844331247177479</v>
       </c>
       <c r="C8">
-        <v>0.9854220604416923</v>
+        <v>0.2208450338354027</v>
       </c>
       <c r="D8">
-        <v>0.01556740507432863</v>
+        <v>0.1331455936277592</v>
       </c>
       <c r="E8">
-        <v>0.4224441538480619</v>
+        <v>0.0189040016131794</v>
       </c>
       <c r="F8">
-        <v>2.537367481532385</v>
+        <v>7.282592587240771</v>
       </c>
       <c r="G8">
         <v>0</v>
       </c>
       <c r="H8">
-        <v>0.006153527182078733</v>
+        <v>0</v>
       </c>
       <c r="I8">
-        <v>1.2460879484413</v>
+        <v>0</v>
       </c>
       <c r="J8">
-        <v>0.302035875491022</v>
+        <v>0.1396159263929597</v>
       </c>
       <c r="K8">
-        <v>0.7570461932762456</v>
+        <v>0.4207977030990264</v>
       </c>
       <c r="L8">
-        <v>0</v>
+        <v>0.07675962086751298</v>
       </c>
       <c r="M8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:13">
+        <v>0.287082767284069</v>
+      </c>
+      <c r="N8">
+        <v>0</v>
+      </c>
+      <c r="O8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9">
-        <v>3.152132909129364</v>
+        <v>2.397189342439106</v>
       </c>
       <c r="C9">
-        <v>1.365146516845925</v>
+        <v>0.310353620138045</v>
       </c>
       <c r="D9">
-        <v>0.01448189203263617</v>
+        <v>0.1781446742490971</v>
       </c>
       <c r="E9">
-        <v>0.5882577873699759</v>
+        <v>0.0196634989287201</v>
       </c>
       <c r="F9">
-        <v>3.325383560662232</v>
+        <v>8.97275066689383</v>
       </c>
       <c r="G9">
         <v>0</v>
       </c>
       <c r="H9">
-        <v>0.006153527182078733</v>
+        <v>0</v>
       </c>
       <c r="I9">
-        <v>1.568483392446439</v>
+        <v>0</v>
       </c>
       <c r="J9">
-        <v>0.4202079492653041</v>
+        <v>0.1552224700852705</v>
       </c>
       <c r="K9">
-        <v>1.043843515874684</v>
+        <v>0.5609147113702377</v>
       </c>
       <c r="L9">
-        <v>0</v>
+        <v>0.08537875888604418</v>
       </c>
       <c r="M9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:13">
+        <v>0.36419470773086</v>
+      </c>
+      <c r="N9">
+        <v>0</v>
+      </c>
+      <c r="O9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10">
-        <v>3.816271099393589</v>
+        <v>2.839015291027295</v>
       </c>
       <c r="C10">
-        <v>1.661141262813146</v>
+        <v>0.3810592513731024</v>
       </c>
       <c r="D10">
-        <v>0.01362180329076246</v>
+        <v>0.2129365661425595</v>
       </c>
       <c r="E10">
-        <v>0.7188115477848527</v>
+        <v>0.02027587519909613</v>
       </c>
       <c r="F10">
-        <v>3.95706826936447</v>
+        <v>10.28810745791122</v>
       </c>
       <c r="G10">
         <v>0</v>
       </c>
       <c r="H10">
-        <v>0.006153527182078733</v>
+        <v>0</v>
       </c>
       <c r="I10">
-        <v>1.830807736361081</v>
+        <v>0</v>
       </c>
       <c r="J10">
-        <v>0.513904269136809</v>
+        <v>0.1673406649199549</v>
       </c>
       <c r="K10">
-        <v>1.265765880418073</v>
+        <v>0.6725720407721667</v>
       </c>
       <c r="L10">
-        <v>0</v>
+        <v>0.09307322454426981</v>
       </c>
       <c r="M10">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:13">
+        <v>0.426417392347318</v>
+      </c>
+      <c r="N10">
+        <v>0</v>
+      </c>
+      <c r="O10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11">
-        <v>4.128247444584815</v>
+        <v>3.050258455356982</v>
       </c>
       <c r="C11">
-        <v>1.801126370493307</v>
+        <v>0.4147397320029711</v>
       </c>
       <c r="D11">
-        <v>0.01321412752047735</v>
+        <v>0.2293039546979969</v>
       </c>
       <c r="E11">
-        <v>0.7809355334677406</v>
+        <v>0.02057144265691369</v>
       </c>
       <c r="F11">
-        <v>4.26018430777836</v>
+        <v>10.90847289782005</v>
       </c>
       <c r="G11">
         <v>0</v>
       </c>
       <c r="H11">
-        <v>0.006153527182078733</v>
+        <v>0</v>
       </c>
       <c r="I11">
-        <v>1.957666361465442</v>
+        <v>0</v>
       </c>
       <c r="J11">
-        <v>0.5586665875500501</v>
+        <v>0.1730592890113485</v>
       </c>
       <c r="K11">
-        <v>1.370235231647811</v>
+        <v>0.725905785101908</v>
       </c>
       <c r="L11">
-        <v>0</v>
+        <v>0.09693614396993411</v>
       </c>
       <c r="M11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:13">
+        <v>0.4563032670362688</v>
+      </c>
+      <c r="N11">
+        <v>0</v>
+      </c>
+      <c r="O11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:15">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12">
-        <v>4.248105961533383</v>
+        <v>3.13197394880342</v>
       </c>
       <c r="C12">
-        <v>1.855068130412064</v>
+        <v>0.4277558287517138</v>
       </c>
       <c r="D12">
-        <v>0.01305713086957638</v>
+        <v>0.2355956824054033</v>
       </c>
       <c r="E12">
-        <v>0.804938816994337</v>
+        <v>0.02068633985706247</v>
       </c>
       <c r="F12">
-        <v>4.37766592640142</v>
+        <v>11.14714253244563</v>
       </c>
       <c r="G12">
         <v>0</v>
       </c>
       <c r="H12">
-        <v>0.006153527182078733</v>
+        <v>0</v>
       </c>
       <c r="I12">
-        <v>2.006987433458107</v>
+        <v>0</v>
       </c>
       <c r="J12">
-        <v>0.575990398095982</v>
+        <v>0.1752607512071123</v>
       </c>
       <c r="K12">
-        <v>1.410409237418094</v>
+        <v>0.7465313842885593</v>
       </c>
       <c r="L12">
-        <v>0</v>
+        <v>0.09845772507333095</v>
       </c>
       <c r="M12">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:13">
+        <v>0.4678842635447609</v>
+      </c>
+      <c r="N12">
+        <v>0</v>
+      </c>
+      <c r="O12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13">
-        <v>4.222210406813076</v>
+        <v>3.114294083356583</v>
       </c>
       <c r="C13">
-        <v>1.84340638542534</v>
+        <v>0.4249401454865449</v>
       </c>
       <c r="D13">
-        <v>0.01309106377491798</v>
+        <v>0.2342361944060087</v>
       </c>
       <c r="E13">
-        <v>0.7997464833778309</v>
+        <v>0.02066145302758615</v>
       </c>
       <c r="F13">
-        <v>4.352236462161642</v>
+        <v>11.09556362989963</v>
       </c>
       <c r="G13">
         <v>0</v>
       </c>
       <c r="H13">
-        <v>0.006153527182078733</v>
+        <v>0</v>
       </c>
       <c r="I13">
-        <v>1.996304654708013</v>
+        <v>0</v>
       </c>
       <c r="J13">
-        <v>0.5722416257880028</v>
+        <v>0.1747849169264128</v>
       </c>
       <c r="K13">
-        <v>1.401727821938621</v>
+        <v>0.7420690703471848</v>
       </c>
       <c r="L13">
-        <v>0</v>
+        <v>0.09812729420578847</v>
       </c>
       <c r="M13">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:13">
+        <v>0.4653777073506902</v>
+      </c>
+      <c r="N13">
+        <v>0</v>
+      </c>
+      <c r="O13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14">
-        <v>4.138071887199942</v>
+        <v>3.056945160404041</v>
       </c>
       <c r="C14">
-        <v>1.805544451837306</v>
+        <v>0.4158050443353432</v>
       </c>
       <c r="D14">
-        <v>0.01320126536841393</v>
+        <v>0.229819599241651</v>
       </c>
       <c r="E14">
-        <v>0.7829001689211879</v>
+        <v>0.02058083237482977</v>
       </c>
       <c r="F14">
-        <v>4.269792772250213</v>
+        <v>10.92802954090575</v>
       </c>
       <c r="G14">
         <v>0</v>
       </c>
       <c r="H14">
-        <v>0.006153527182078733</v>
+        <v>0</v>
       </c>
       <c r="I14">
-        <v>1.961697061708847</v>
+        <v>0</v>
       </c>
       <c r="J14">
-        <v>0.5600839268658646</v>
+        <v>0.1732396445054931</v>
       </c>
       <c r="K14">
-        <v>1.373527383458921</v>
+        <v>0.7275936590270788</v>
       </c>
       <c r="L14">
-        <v>0</v>
+        <v>0.09706010561793477</v>
       </c>
       <c r="M14">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:13">
+        <v>0.4572505238230065</v>
+      </c>
+      <c r="N14">
+        <v>0</v>
+      </c>
+      <c r="O14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15">
-        <v>4.08676846311846</v>
+        <v>3.022049607244014</v>
       </c>
       <c r="C15">
-        <v>1.782479761326272</v>
+        <v>0.4102450858980546</v>
       </c>
       <c r="D15">
-        <v>0.01326841787895461</v>
+        <v>0.2271270347346501</v>
       </c>
       <c r="E15">
-        <v>0.7726463934831003</v>
+        <v>0.02053185430977233</v>
       </c>
       <c r="F15">
-        <v>4.219659111552687</v>
+        <v>10.82591746536616</v>
       </c>
       <c r="G15">
         <v>0</v>
       </c>
       <c r="H15">
-        <v>0.006153527182078733</v>
+        <v>0</v>
       </c>
       <c r="I15">
-        <v>1.940672460727868</v>
+        <v>0</v>
       </c>
       <c r="J15">
-        <v>0.5526877543622462</v>
+        <v>0.1722980059379395</v>
       </c>
       <c r="K15">
-        <v>1.356337260363091</v>
+        <v>0.7187850291388074</v>
       </c>
       <c r="L15">
-        <v>0</v>
+        <v>0.09641429108333455</v>
       </c>
       <c r="M15">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:13">
+        <v>0.4523079376824413</v>
+      </c>
+      <c r="N15">
+        <v>0</v>
+      </c>
+      <c r="O15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:15">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16">
-        <v>3.796105747940089</v>
+        <v>2.825436701154217</v>
       </c>
       <c r="C16">
-        <v>1.652113742042104</v>
+        <v>0.378892261983907</v>
       </c>
       <c r="D16">
-        <v>0.01364809405970568</v>
+        <v>0.211879109983542</v>
       </c>
       <c r="E16">
-        <v>0.7148135490114811</v>
+        <v>0.0202569441686391</v>
       </c>
       <c r="F16">
-        <v>3.937611313252347</v>
+        <v>10.24805604611055</v>
       </c>
       <c r="G16">
         <v>0</v>
       </c>
       <c r="H16">
-        <v>0.006153527182078733</v>
+        <v>0</v>
       </c>
       <c r="I16">
-        <v>1.822685020537421</v>
+        <v>0</v>
       </c>
       <c r="J16">
-        <v>0.5110273408497292</v>
+        <v>0.1669716029861519</v>
       </c>
       <c r="K16">
-        <v>1.259018136433582</v>
+        <v>0.6691429136292939</v>
       </c>
       <c r="L16">
-        <v>0</v>
+        <v>0.09282861443432466</v>
       </c>
       <c r="M16">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="1:13">
+        <v>0.4244990824700352</v>
+      </c>
+      <c r="N16">
+        <v>0</v>
+      </c>
+      <c r="O16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:15">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17">
-        <v>3.620517629549852</v>
+        <v>2.707611877094678</v>
       </c>
       <c r="C17">
-        <v>1.573613721925597</v>
+        <v>0.3600757668949655</v>
       </c>
       <c r="D17">
-        <v>0.01387663292325225</v>
+        <v>0.2026740870550157</v>
       </c>
       <c r="E17">
-        <v>0.6800911825404938</v>
+        <v>0.02009299536919062</v>
       </c>
       <c r="F17">
-        <v>3.768905470110184</v>
+        <v>9.899582880112405</v>
       </c>
       <c r="G17">
         <v>0</v>
       </c>
       <c r="H17">
-        <v>0.006153527182078733</v>
+        <v>0</v>
       </c>
       <c r="I17">
-        <v>1.752363263410857</v>
+        <v>0</v>
       </c>
       <c r="J17">
-        <v>0.4860610758893031</v>
+        <v>0.1637609884266098</v>
       </c>
       <c r="K17">
-        <v>1.200287779792774</v>
+        <v>0.6393821495614276</v>
       </c>
       <c r="L17">
-        <v>0</v>
+        <v>0.09072620255178521</v>
       </c>
       <c r="M17">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="1:13">
+        <v>0.4078683365679865</v>
+      </c>
+      <c r="N17">
+        <v>0</v>
+      </c>
+      <c r="O17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:15">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18">
-        <v>3.52043088872432</v>
+        <v>2.640790427205275</v>
       </c>
       <c r="C18">
-        <v>1.528953379504287</v>
+        <v>0.3493927034516275</v>
       </c>
       <c r="D18">
-        <v>0.01400655405947138</v>
+        <v>0.1974293740305768</v>
       </c>
       <c r="E18">
-        <v>0.6603712693386115</v>
+        <v>0.02000025925357196</v>
       </c>
       <c r="F18">
-        <v>3.673323930473885</v>
+        <v>9.701181499499654</v>
       </c>
       <c r="G18">
         <v>0</v>
       </c>
       <c r="H18">
-        <v>0.006153527182078733</v>
+        <v>0</v>
       </c>
       <c r="I18">
-        <v>1.712610639696166</v>
+        <v>0</v>
       </c>
       <c r="J18">
-        <v>0.4718979536776047</v>
+        <v>0.1619332864335661</v>
       </c>
       <c r="K18">
-        <v>1.166831089310278</v>
+        <v>0.6224992743928013</v>
       </c>
       <c r="L18">
-        <v>0</v>
+        <v>0.0895506341569714</v>
       </c>
       <c r="M18">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="1:13">
+        <v>0.398449033424825</v>
+      </c>
+      <c r="N18">
+        <v>0</v>
+      </c>
+      <c r="O18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:15">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19">
-        <v>3.486690598390851</v>
+        <v>2.618321765577775</v>
       </c>
       <c r="C19">
-        <v>1.513911873928123</v>
+        <v>0.345798365808804</v>
       </c>
       <c r="D19">
-        <v>0.0140502880601403</v>
+        <v>0.1956617022344886</v>
       </c>
       <c r="E19">
-        <v>0.6537352874340172</v>
+        <v>0.01996911423531023</v>
       </c>
       <c r="F19">
-        <v>3.641199323909973</v>
+        <v>9.634338576191141</v>
       </c>
       <c r="G19">
         <v>0</v>
       </c>
       <c r="H19">
-        <v>0.006153527182078733</v>
+        <v>0</v>
       </c>
       <c r="I19">
-        <v>1.699264817855408</v>
+        <v>0</v>
       </c>
       <c r="J19">
-        <v>0.4671345543293768</v>
+        <v>0.1613175369476849</v>
       </c>
       <c r="K19">
-        <v>1.155555781513314</v>
+        <v>0.6168215486680353</v>
       </c>
       <c r="L19">
-        <v>0</v>
+        <v>0.08915820668725871</v>
       </c>
       <c r="M19">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" spans="1:13">
+        <v>0.3952839156827892</v>
+      </c>
+      <c r="N19">
+        <v>0</v>
+      </c>
+      <c r="O19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:15">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20">
-        <v>3.639113394999697</v>
+        <v>2.72005471577927</v>
       </c>
       <c r="C20">
-        <v>1.581918282522395</v>
+        <v>0.3620640616655919</v>
       </c>
       <c r="D20">
-        <v>0.01385246453621836</v>
+        <v>0.2036487175548558</v>
       </c>
       <c r="E20">
-        <v>0.683760843374003</v>
+        <v>0.02011028271746884</v>
       </c>
       <c r="F20">
-        <v>3.78671115606096</v>
+        <v>9.93646425286687</v>
       </c>
       <c r="G20">
         <v>0</v>
       </c>
       <c r="H20">
-        <v>0.006153527182078733</v>
+        <v>0</v>
       </c>
       <c r="I20">
-        <v>1.759775903607064</v>
+        <v>0</v>
       </c>
       <c r="J20">
-        <v>0.4886979699175598</v>
+        <v>0.1641007589680186</v>
       </c>
       <c r="K20">
-        <v>1.206505524997141</v>
+        <v>0.642525508501933</v>
       </c>
       <c r="L20">
-        <v>0</v>
+        <v>0.09094647707971149</v>
       </c>
       <c r="M20">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="1:13">
+        <v>0.4096233232592326</v>
+      </c>
+      <c r="N20">
+        <v>0</v>
+      </c>
+      <c r="O20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:15">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21">
-        <v>4.162736059844974</v>
+        <v>3.073741015098562</v>
       </c>
       <c r="C21">
-        <v>1.816638649017648</v>
+        <v>0.4184807462524418</v>
       </c>
       <c r="D21">
-        <v>0.01316896975049264</v>
+        <v>0.2311141756910047</v>
       </c>
       <c r="E21">
-        <v>0.7878346028212633</v>
+        <v>0.02060442725114653</v>
       </c>
       <c r="F21">
-        <v>4.293931436635262</v>
+        <v>10.97713144734263</v>
       </c>
       <c r="G21">
         <v>0</v>
       </c>
       <c r="H21">
-        <v>0.006153527182078733</v>
+        <v>0</v>
       </c>
       <c r="I21">
-        <v>1.97182557541008</v>
+        <v>0</v>
       </c>
       <c r="J21">
-        <v>0.5636442226547658</v>
+        <v>0.1736924976397205</v>
       </c>
       <c r="K21">
-        <v>1.381792922244188</v>
+        <v>0.7318332266742544</v>
       </c>
       <c r="L21">
-        <v>0</v>
+        <v>0.09737191145994473</v>
       </c>
       <c r="M21">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22" spans="1:13">
+        <v>0.4596301926121242</v>
+      </c>
+      <c r="N21">
+        <v>0</v>
+      </c>
+      <c r="O21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:15">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22">
-        <v>4.515159248464613</v>
+        <v>3.315079448429856</v>
       </c>
       <c r="C22">
-        <v>1.975576420974846</v>
+        <v>0.4569056506654192</v>
       </c>
       <c r="D22">
-        <v>0.01270686236953544</v>
+        <v>0.2496202312725728</v>
       </c>
       <c r="E22">
-        <v>0.8586922360045008</v>
+        <v>0.02094502386798291</v>
       </c>
       <c r="F22">
-        <v>4.641414560471247</v>
+        <v>11.6794703012626</v>
       </c>
       <c r="G22">
         <v>0</v>
       </c>
       <c r="H22">
-        <v>0.006153527182078733</v>
+        <v>0</v>
       </c>
       <c r="I22">
-        <v>2.11800718146425</v>
+        <v>0</v>
       </c>
       <c r="J22">
-        <v>0.6148416358473696</v>
+        <v>0.180174451801598</v>
       </c>
       <c r="K22">
-        <v>1.499995506102053</v>
+        <v>0.7927406508154746</v>
       </c>
       <c r="L22">
-        <v>0</v>
+        <v>0.1019177903771435</v>
       </c>
       <c r="M22">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="1:13">
+        <v>0.4938720210961378</v>
+      </c>
+      <c r="N22">
+        <v>0</v>
+      </c>
+      <c r="O22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:15">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23">
-        <v>4.32601618230342</v>
+        <v>3.185248130754587</v>
       </c>
       <c r="C23">
-        <v>1.890179243784473</v>
+        <v>0.4362388861172519</v>
       </c>
       <c r="D23">
-        <v>0.01295499983564774</v>
+        <v>0.2396863735462915</v>
       </c>
       <c r="E23">
-        <v>0.8205819460912096</v>
+        <v>0.02076142527498037</v>
       </c>
       <c r="F23">
-        <v>4.454330268968732</v>
+        <v>11.30236903091168</v>
       </c>
       <c r="G23">
         <v>0</v>
       </c>
       <c r="H23">
-        <v>0.006153527182078733</v>
+        <v>0</v>
       </c>
       <c r="I23">
-        <v>2.039216687767166</v>
+        <v>0</v>
       </c>
       <c r="J23">
-        <v>0.5872888417295101</v>
+        <v>0.1766930437903085</v>
       </c>
       <c r="K23">
-        <v>1.436534354752823</v>
+        <v>0.7599768851287081</v>
       </c>
       <c r="L23">
-        <v>0</v>
+        <v>0.09945738694902673</v>
       </c>
       <c r="M23">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="1:13">
+        <v>0.475440140585647</v>
+      </c>
+      <c r="N23">
+        <v>0</v>
+      </c>
+      <c r="O23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:15">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="B24">
-        <v>3.630703589088341</v>
+        <v>2.714426468449631</v>
       </c>
       <c r="C24">
-        <v>1.578162337652827</v>
+        <v>0.3611647369830848</v>
       </c>
       <c r="D24">
-        <v>0.01386339562032468</v>
+        <v>0.2032079407143925</v>
       </c>
       <c r="E24">
-        <v>0.6821010407661277</v>
+        <v>0.02010246241051528</v>
       </c>
       <c r="F24">
-        <v>3.778656846161141</v>
+        <v>9.919784183216819</v>
       </c>
       <c r="G24">
         <v>0</v>
       </c>
       <c r="H24">
-        <v>0.006153527182078733</v>
+        <v>0</v>
       </c>
       <c r="I24">
-        <v>1.756422557139302</v>
+        <v>0</v>
       </c>
       <c r="J24">
-        <v>0.4875052421162778</v>
+        <v>0.1639470927203845</v>
       </c>
       <c r="K24">
-        <v>1.203693530401807</v>
+        <v>0.6411036936151007</v>
       </c>
       <c r="L24">
-        <v>0</v>
+        <v>0.09084678824053327</v>
       </c>
       <c r="M24">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="25" spans="1:13">
+        <v>0.4088294543703199</v>
+      </c>
+      <c r="N24">
+        <v>0</v>
+      </c>
+      <c r="O24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:15">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="B25">
-        <v>2.914544993862933</v>
+        <v>2.242124452254075</v>
       </c>
       <c r="C25">
-        <v>1.259921566131993</v>
+        <v>0.285403629691956</v>
       </c>
       <c r="D25">
-        <v>0.01478565165997825</v>
+        <v>0.1657169436679311</v>
       </c>
       <c r="E25">
-        <v>0.5421160643135465</v>
+        <v>0.01945002109327998</v>
       </c>
       <c r="F25">
-        <v>3.104231328617118</v>
+        <v>8.504413296360724</v>
       </c>
       <c r="G25">
         <v>0</v>
       </c>
       <c r="H25">
-        <v>0.006153527182078733</v>
+        <v>0</v>
       </c>
       <c r="I25">
-        <v>1.477392709263754</v>
+        <v>0</v>
       </c>
       <c r="J25">
-        <v>0.3872233945337911</v>
+        <v>0.1509053963192173</v>
       </c>
       <c r="K25">
-        <v>0.9646100668614395</v>
+        <v>0.5216740590650986</v>
       </c>
       <c r="L25">
-        <v>0</v>
+        <v>0.08282801250912541</v>
       </c>
       <c r="M25">
+        <v>0.3424677188305196</v>
+      </c>
+      <c r="N25">
+        <v>0</v>
+      </c>
+      <c r="O25">
         <v>0</v>
       </c>
     </row>

--- a/Code/Results/Cases/Case_5_23/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_5_23/res_line/pl_mw.xlsx
@@ -421,46 +421,46 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.917379146905773</v>
+        <v>0.9174924697400968</v>
       </c>
       <c r="C2">
-        <v>0.2327773200204604</v>
+        <v>0.09071664865077622</v>
       </c>
       <c r="D2">
-        <v>0.1392143454713874</v>
+        <v>0.07415538032097402</v>
       </c>
       <c r="E2">
-        <v>0.01900422516821232</v>
+        <v>0.04804642995490838</v>
       </c>
       <c r="F2">
-        <v>7.509493017961688</v>
+        <v>0.8179633793005294</v>
       </c>
       <c r="G2">
         <v>0</v>
       </c>
       <c r="H2">
-        <v>0</v>
+        <v>0.0267246236506935</v>
       </c>
       <c r="I2">
-        <v>0</v>
+        <v>0.4885029752873216</v>
       </c>
       <c r="J2">
-        <v>0.1417169389954083</v>
+        <v>0.06192652712408719</v>
       </c>
       <c r="K2">
-        <v>0.4393510672776415</v>
+        <v>0.8164142621665178</v>
       </c>
       <c r="L2">
-        <v>0.07781379832504598</v>
+        <v>0.1601880625840337</v>
       </c>
       <c r="M2">
-        <v>0.2972086732695445</v>
+        <v>0.2011891537576425</v>
       </c>
       <c r="N2">
-        <v>0</v>
+        <v>1.09279832645973</v>
       </c>
       <c r="O2">
-        <v>0</v>
+        <v>2.108774301822251</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -468,46 +468,46 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.70855310444918</v>
+        <v>0.801166344855659</v>
       </c>
       <c r="C3">
-        <v>0.1985410599259154</v>
+        <v>0.08417222191691565</v>
       </c>
       <c r="D3">
-        <v>0.1217361404480783</v>
+        <v>0.06762229279427601</v>
       </c>
       <c r="E3">
-        <v>0.01871752309556873</v>
+        <v>0.04749471699340191</v>
       </c>
       <c r="F3">
-        <v>6.857189204339221</v>
+        <v>0.8067832502319163</v>
       </c>
       <c r="G3">
         <v>0</v>
       </c>
       <c r="H3">
-        <v>0</v>
+        <v>0.0267246236506935</v>
       </c>
       <c r="I3">
-        <v>0</v>
+        <v>0.4934469799214014</v>
       </c>
       <c r="J3">
-        <v>0.135668494679269</v>
+        <v>0.06329260819262217</v>
       </c>
       <c r="K3">
-        <v>0.3862648267243713</v>
+        <v>0.7097721218262905</v>
       </c>
       <c r="L3">
-        <v>0.07488860091490324</v>
+        <v>0.1485235826415732</v>
       </c>
       <c r="M3">
-        <v>0.2683267235519402</v>
+        <v>0.1780163568140978</v>
       </c>
       <c r="N3">
-        <v>0</v>
+        <v>1.136630714396357</v>
       </c>
       <c r="O3">
-        <v>0</v>
+        <v>2.10028398947486</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -515,46 +515,46 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.585013689999641</v>
+        <v>0.7299715288815491</v>
       </c>
       <c r="C4">
-        <v>0.1780737257173399</v>
+        <v>0.08014149194340803</v>
       </c>
       <c r="D4">
-        <v>0.111184526795995</v>
+        <v>0.06365438729681472</v>
       </c>
       <c r="E4">
-        <v>0.01854740263131704</v>
+        <v>0.04719647172891683</v>
       </c>
       <c r="F4">
-        <v>6.465379410988817</v>
+        <v>0.801054610240989</v>
       </c>
       <c r="G4">
         <v>0</v>
       </c>
       <c r="H4">
-        <v>0</v>
+        <v>0.0267246236506935</v>
       </c>
       <c r="I4">
-        <v>0</v>
+        <v>0.4971717668510252</v>
       </c>
       <c r="J4">
-        <v>0.1320203061181395</v>
+        <v>0.06417454056503136</v>
       </c>
       <c r="K4">
-        <v>0.3547798864017437</v>
+        <v>0.6443961332209085</v>
       </c>
       <c r="L4">
-        <v>0.07330273480825156</v>
+        <v>0.1414885864070499</v>
       </c>
       <c r="M4">
-        <v>0.2513476411689197</v>
+        <v>0.1638772985921229</v>
       </c>
       <c r="N4">
-        <v>0</v>
+        <v>1.16463900878223</v>
       </c>
       <c r="O4">
-        <v>0</v>
+        <v>2.098198674736551</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -562,46 +562,46 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.535731721558193</v>
+        <v>0.7010086059906371</v>
       </c>
       <c r="C5">
-        <v>0.1698524243745254</v>
+        <v>0.07849530002956584</v>
       </c>
       <c r="D5">
-        <v>0.1069221900251023</v>
+        <v>0.06204786883689195</v>
       </c>
       <c r="E5">
-        <v>0.01847934404539764</v>
+        <v>0.04708493517164847</v>
       </c>
       <c r="F5">
-        <v>6.307620062347013</v>
+        <v>0.7989967239624178</v>
       </c>
       <c r="G5">
         <v>0</v>
       </c>
       <c r="H5">
-        <v>0</v>
+        <v>0.0267246236506935</v>
       </c>
       <c r="I5">
-        <v>0</v>
+        <v>0.498858281244825</v>
       </c>
       <c r="J5">
-        <v>0.1305471274304253</v>
+        <v>0.06454469874470448</v>
       </c>
       <c r="K5">
-        <v>0.3421990116238547</v>
+        <v>0.6177732104916913</v>
       </c>
       <c r="L5">
-        <v>0.07270628319666983</v>
+        <v>0.1386523328555995</v>
       </c>
       <c r="M5">
-        <v>0.2446012068458288</v>
+        <v>0.1581360451690692</v>
       </c>
       <c r="N5">
-        <v>0</v>
+        <v>1.176323277669296</v>
       </c>
       <c r="O5">
-        <v>0</v>
+        <v>2.098110503312995</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -609,46 +609,46 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.527609416815352</v>
+        <v>0.6962020933922872</v>
       </c>
       <c r="C6">
-        <v>0.1684939423132619</v>
+        <v>0.07822171705770842</v>
       </c>
       <c r="D6">
-        <v>0.1062164854634062</v>
+        <v>0.0617817241240175</v>
       </c>
       <c r="E6">
-        <v>0.01846811349194466</v>
+        <v>0.04706701335891417</v>
       </c>
       <c r="F6">
-        <v>6.281531577747245</v>
+        <v>0.7986714601634475</v>
       </c>
       <c r="G6">
         <v>0</v>
       </c>
       <c r="H6">
-        <v>0</v>
+        <v>0.0267246236506935</v>
       </c>
       <c r="I6">
-        <v>0</v>
+        <v>0.4991483781481776</v>
       </c>
       <c r="J6">
-        <v>0.1303032392133687</v>
+        <v>0.06460681082286612</v>
       </c>
       <c r="K6">
-        <v>0.3401242214534292</v>
+        <v>0.6133533891858747</v>
       </c>
       <c r="L6">
-        <v>0.07261016692162769</v>
+        <v>0.1381831819643011</v>
       </c>
       <c r="M6">
-        <v>0.2434909278327559</v>
+        <v>0.1571839008796516</v>
       </c>
       <c r="N6">
-        <v>0</v>
+        <v>1.178279655450033</v>
       </c>
       <c r="O6">
-        <v>0</v>
+        <v>2.098141154174996</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -656,46 +656,46 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.584344903666107</v>
+        <v>0.7295807348007202</v>
       </c>
       <c r="C7">
-        <v>0.1779623922884355</v>
+        <v>0.08011930620442342</v>
       </c>
       <c r="D7">
-        <v>0.1111269012124438</v>
+        <v>0.06363267960256991</v>
       </c>
       <c r="E7">
-        <v>0.01854647991388614</v>
+        <v>0.04719492725429753</v>
       </c>
       <c r="F7">
-        <v>6.463244450560381</v>
+        <v>0.801025748714487</v>
       </c>
       <c r="G7">
         <v>0</v>
       </c>
       <c r="H7">
-        <v>0</v>
+        <v>0.0267246236506935</v>
       </c>
       <c r="I7">
-        <v>0</v>
+        <v>0.4971938349965619</v>
       </c>
       <c r="J7">
-        <v>0.1320003874747719</v>
+        <v>0.06417948917944027</v>
       </c>
       <c r="K7">
-        <v>0.3546092433048926</v>
+        <v>0.6440370226248433</v>
       </c>
       <c r="L7">
-        <v>0.07329449303501789</v>
+        <v>0.1414502137243119</v>
       </c>
       <c r="M7">
-        <v>0.2512559785914767</v>
+        <v>0.1637997893503638</v>
       </c>
       <c r="N7">
-        <v>0</v>
+        <v>1.16479549706879</v>
       </c>
       <c r="O7">
-        <v>0</v>
+        <v>2.098194434005023</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -703,46 +703,46 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.844331247177479</v>
+        <v>0.8773303680248432</v>
       </c>
       <c r="C8">
-        <v>0.2208450338354027</v>
+        <v>0.08846238993054811</v>
       </c>
       <c r="D8">
-        <v>0.1331455936277592</v>
+        <v>0.07189345422146687</v>
       </c>
       <c r="E8">
-        <v>0.0189040016131794</v>
+        <v>0.0478476774803962</v>
       </c>
       <c r="F8">
-        <v>7.282592587240771</v>
+        <v>0.8138671062198028</v>
       </c>
       <c r="G8">
         <v>0</v>
       </c>
       <c r="H8">
-        <v>0</v>
+        <v>0.0267246236506935</v>
       </c>
       <c r="I8">
-        <v>0</v>
+        <v>0.4900617717152009</v>
       </c>
       <c r="J8">
-        <v>0.1396159263929597</v>
+        <v>0.06238854190919962</v>
       </c>
       <c r="K8">
-        <v>0.4207977030990264</v>
+        <v>0.7796180652757698</v>
       </c>
       <c r="L8">
-        <v>0.07675962086751298</v>
+        <v>0.1561389279704031</v>
       </c>
       <c r="M8">
-        <v>0.287082767284069</v>
+        <v>0.1931795035387545</v>
       </c>
       <c r="N8">
-        <v>0</v>
+        <v>1.107681582649732</v>
       </c>
       <c r="O8">
-        <v>0</v>
+        <v>2.105182353313438</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -750,46 +750,46 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>2.397189342439106</v>
+        <v>1.169298564971797</v>
       </c>
       <c r="C9">
-        <v>0.310353620138045</v>
+        <v>0.1047498936250193</v>
       </c>
       <c r="D9">
-        <v>0.1781446742490971</v>
+        <v>0.08846137194178993</v>
       </c>
       <c r="E9">
-        <v>0.0196634989287201</v>
+        <v>0.04945800122271216</v>
       </c>
       <c r="F9">
-        <v>8.97275066689383</v>
+        <v>0.8484932065464719</v>
       </c>
       <c r="G9">
         <v>0</v>
       </c>
       <c r="H9">
-        <v>0</v>
+        <v>0.0267246236506935</v>
       </c>
       <c r="I9">
-        <v>0</v>
+        <v>0.4817636150117046</v>
       </c>
       <c r="J9">
-        <v>0.1552224700852705</v>
+        <v>0.05922293170872361</v>
       </c>
       <c r="K9">
-        <v>0.5609147113702377</v>
+        <v>1.04667736458353</v>
       </c>
       <c r="L9">
-        <v>0.08537875888604418</v>
+        <v>0.1860183880530641</v>
       </c>
       <c r="M9">
-        <v>0.36419470773086</v>
+        <v>0.2515926869769345</v>
       </c>
       <c r="N9">
-        <v>0</v>
+        <v>1.004587775813381</v>
       </c>
       <c r="O9">
-        <v>0</v>
+        <v>2.14488204103651</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -797,46 +797,46 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>2.839015291027295</v>
+        <v>1.385786135403208</v>
       </c>
       <c r="C10">
-        <v>0.3810592513731024</v>
+        <v>0.1167102875674573</v>
       </c>
       <c r="D10">
-        <v>0.2129365661425595</v>
+        <v>0.1008945970687023</v>
       </c>
       <c r="E10">
-        <v>0.02027587519909613</v>
+        <v>0.05085551896129914</v>
       </c>
       <c r="F10">
-        <v>10.28810745791122</v>
+        <v>0.8803211849329742</v>
       </c>
       <c r="G10">
         <v>0</v>
       </c>
       <c r="H10">
-        <v>0</v>
+        <v>0.0267246236506935</v>
       </c>
       <c r="I10">
-        <v>0</v>
+        <v>0.4794545295528039</v>
       </c>
       <c r="J10">
-        <v>0.1673406649199549</v>
+        <v>0.0571140840076545</v>
       </c>
       <c r="K10">
-        <v>0.6725720407721667</v>
+        <v>1.244170565375839</v>
       </c>
       <c r="L10">
-        <v>0.09307322454426981</v>
+        <v>0.2087260677730569</v>
       </c>
       <c r="M10">
-        <v>0.426417392347318</v>
+        <v>0.2951358196961635</v>
       </c>
       <c r="N10">
-        <v>0</v>
+        <v>0.9345867672063766</v>
       </c>
       <c r="O10">
-        <v>0</v>
+        <v>2.191622401759361</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -844,46 +844,46 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>3.050258455356982</v>
+        <v>1.484848298217912</v>
       </c>
       <c r="C11">
-        <v>0.4147397320029711</v>
+        <v>0.1221593718163234</v>
       </c>
       <c r="D11">
-        <v>0.2293039546979969</v>
+        <v>0.1066159147920587</v>
       </c>
       <c r="E11">
-        <v>0.02057144265691369</v>
+        <v>0.05154089509969673</v>
       </c>
       <c r="F11">
-        <v>10.90847289782005</v>
+        <v>0.8963355130253206</v>
       </c>
       <c r="G11">
         <v>0</v>
       </c>
       <c r="H11">
-        <v>0</v>
+        <v>0.0267246236506935</v>
       </c>
       <c r="I11">
-        <v>0</v>
+        <v>0.4793014285263482</v>
       </c>
       <c r="J11">
-        <v>0.1730592890113485</v>
+        <v>0.05620314941180826</v>
       </c>
       <c r="K11">
-        <v>0.725905785101908</v>
+        <v>1.334428000237551</v>
       </c>
       <c r="L11">
-        <v>0.09693614396993411</v>
+        <v>0.2192439161029966</v>
       </c>
       <c r="M11">
-        <v>0.4563032670362688</v>
+        <v>0.3151138860600042</v>
       </c>
       <c r="N11">
-        <v>0</v>
+        <v>0.9040613860981501</v>
       </c>
       <c r="O11">
-        <v>0</v>
+        <v>2.21710633557251</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -891,46 +891,46 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>3.13197394880342</v>
+        <v>1.522456669875595</v>
       </c>
       <c r="C12">
-        <v>0.4277558287517138</v>
+        <v>0.1242247974911379</v>
       </c>
       <c r="D12">
-        <v>0.2355956824054033</v>
+        <v>0.108792552147591</v>
       </c>
       <c r="E12">
-        <v>0.02068633985706247</v>
+        <v>0.05180783176726678</v>
       </c>
       <c r="F12">
-        <v>11.14714253244563</v>
+        <v>0.9026335610630127</v>
       </c>
       <c r="G12">
         <v>0</v>
       </c>
       <c r="H12">
-        <v>0</v>
+        <v>0.0267246236506935</v>
       </c>
       <c r="I12">
-        <v>0</v>
+        <v>0.4793791220187131</v>
       </c>
       <c r="J12">
-        <v>0.1752607512071123</v>
+        <v>0.055865281752145</v>
       </c>
       <c r="K12">
-        <v>0.7465313842885593</v>
+        <v>1.368677559984121</v>
       </c>
       <c r="L12">
-        <v>0.09845772507333095</v>
+        <v>0.2232558217783094</v>
       </c>
       <c r="M12">
-        <v>0.4678842635447609</v>
+        <v>0.3227063545466891</v>
       </c>
       <c r="N12">
-        <v>0</v>
+        <v>0.8926984334166166</v>
       </c>
       <c r="O12">
-        <v>0</v>
+        <v>2.22739927682548</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -938,46 +938,46 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>3.114294083356583</v>
+        <v>1.51435257666526</v>
       </c>
       <c r="C13">
-        <v>0.4249401454865449</v>
+        <v>0.1237798700017834</v>
       </c>
       <c r="D13">
-        <v>0.2342361944060087</v>
+        <v>0.1083233136756121</v>
       </c>
       <c r="E13">
-        <v>0.02066145302758615</v>
+        <v>0.05175000875807889</v>
       </c>
       <c r="F13">
-        <v>11.09556362989963</v>
+        <v>0.9012665522716219</v>
       </c>
       <c r="G13">
         <v>0</v>
       </c>
       <c r="H13">
-        <v>0</v>
+        <v>0.02672462365057982</v>
       </c>
       <c r="I13">
-        <v>0</v>
+        <v>0.4793562455052225</v>
       </c>
       <c r="J13">
-        <v>0.1747849169264128</v>
+        <v>0.05593773049583461</v>
       </c>
       <c r="K13">
-        <v>0.7420690703471848</v>
+        <v>1.361297960832275</v>
       </c>
       <c r="L13">
-        <v>0.09812729420578847</v>
+        <v>0.2223904622391046</v>
       </c>
       <c r="M13">
-        <v>0.4653777073506902</v>
+        <v>0.3210699248003692</v>
       </c>
       <c r="N13">
-        <v>0</v>
+        <v>0.895136804189796</v>
       </c>
       <c r="O13">
-        <v>0</v>
+        <v>2.225153330835269</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -985,46 +985,46 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>3.056945160404041</v>
+        <v>1.487940371557784</v>
       </c>
       <c r="C14">
-        <v>0.4158050443353432</v>
+        <v>0.1223292512869278</v>
       </c>
       <c r="D14">
-        <v>0.229819599241651</v>
+        <v>0.1067947815297572</v>
       </c>
       <c r="E14">
-        <v>0.02058083237482977</v>
+        <v>0.05156270629025883</v>
       </c>
       <c r="F14">
-        <v>10.92802954090575</v>
+        <v>0.8968488952033624</v>
       </c>
       <c r="G14">
         <v>0</v>
       </c>
       <c r="H14">
-        <v>0</v>
+        <v>0.02672462365057982</v>
       </c>
       <c r="I14">
-        <v>0</v>
+        <v>0.4793050619806181</v>
       </c>
       <c r="J14">
-        <v>0.1732396445054931</v>
+        <v>0.05617521013247107</v>
       </c>
       <c r="K14">
-        <v>0.7275936590270788</v>
+        <v>1.337244242413192</v>
       </c>
       <c r="L14">
-        <v>0.09706010561793477</v>
+        <v>0.2195733844678216</v>
       </c>
       <c r="M14">
-        <v>0.4572505238230065</v>
+        <v>0.3157379613240607</v>
       </c>
       <c r="N14">
-        <v>0</v>
+        <v>0.9031225739488796</v>
       </c>
       <c r="O14">
-        <v>0</v>
+        <v>2.217940048694885</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1032,46 +1032,46 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>3.022049607244014</v>
+        <v>1.471774967969537</v>
       </c>
       <c r="C15">
-        <v>0.4102450858980546</v>
+        <v>0.1214409872399642</v>
       </c>
       <c r="D15">
-        <v>0.2271270347346501</v>
+        <v>0.1058598479628046</v>
       </c>
       <c r="E15">
-        <v>0.02053185430977233</v>
+        <v>0.05144894978080572</v>
       </c>
       <c r="F15">
-        <v>10.82591746536616</v>
+        <v>0.8941737939093386</v>
       </c>
       <c r="G15">
         <v>0</v>
       </c>
       <c r="H15">
-        <v>0</v>
+        <v>0.02672462365057982</v>
       </c>
       <c r="I15">
-        <v>0</v>
+        <v>0.4792915824450859</v>
       </c>
       <c r="J15">
-        <v>0.1722980059379395</v>
+        <v>0.05632159957121985</v>
       </c>
       <c r="K15">
-        <v>0.7187850291388074</v>
+        <v>1.322520237278496</v>
       </c>
       <c r="L15">
-        <v>0.09641429108333455</v>
+        <v>0.2178516839938567</v>
       </c>
       <c r="M15">
-        <v>0.4523079376824413</v>
+        <v>0.3124756077466557</v>
       </c>
       <c r="N15">
-        <v>0</v>
+        <v>0.9080398659337428</v>
       </c>
       <c r="O15">
-        <v>0</v>
+        <v>2.213606503273922</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1079,46 +1079,46 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>2.825436701154217</v>
+        <v>1.379324899556565</v>
       </c>
       <c r="C16">
-        <v>0.378892261983907</v>
+        <v>0.1163544091491673</v>
       </c>
       <c r="D16">
-        <v>0.211879109983542</v>
+        <v>0.1005220697654323</v>
       </c>
       <c r="E16">
-        <v>0.0202569441686391</v>
+        <v>0.05081174890912621</v>
       </c>
       <c r="F16">
-        <v>10.24805604611055</v>
+        <v>0.8793066010640942</v>
       </c>
       <c r="G16">
         <v>0</v>
       </c>
       <c r="H16">
-        <v>0</v>
+        <v>0.02672462365057982</v>
       </c>
       <c r="I16">
-        <v>0</v>
+        <v>0.4794831498240093</v>
       </c>
       <c r="J16">
-        <v>0.1669716029861519</v>
+        <v>0.05717460000418129</v>
       </c>
       <c r="K16">
-        <v>0.6691429136292939</v>
+        <v>1.238281348159376</v>
       </c>
       <c r="L16">
-        <v>0.09282861443432466</v>
+        <v>0.2080426521825274</v>
       </c>
       <c r="M16">
-        <v>0.4244990824700352</v>
+        <v>0.2938338596734056</v>
       </c>
       <c r="N16">
-        <v>0</v>
+        <v>0.9366087716681236</v>
       </c>
       <c r="O16">
-        <v>0</v>
+        <v>2.190044915664288</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1126,46 +1126,46 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>2.707611877094678</v>
+        <v>1.322766952341567</v>
       </c>
       <c r="C17">
-        <v>0.3600757668949655</v>
+        <v>0.1132366127848456</v>
       </c>
       <c r="D17">
-        <v>0.2026740870550157</v>
+        <v>0.09726474434623356</v>
       </c>
       <c r="E17">
-        <v>0.02009299536919062</v>
+        <v>0.05043374205029316</v>
       </c>
       <c r="F17">
-        <v>9.899582880112405</v>
+        <v>0.8705883434537327</v>
       </c>
       <c r="G17">
         <v>0</v>
       </c>
       <c r="H17">
-        <v>0</v>
+        <v>0.02672462365057982</v>
       </c>
       <c r="I17">
-        <v>0</v>
+        <v>0.479835094743386</v>
       </c>
       <c r="J17">
-        <v>0.1637609884266098</v>
+        <v>0.05771036902960436</v>
       </c>
       <c r="K17">
-        <v>0.6393821495614276</v>
+        <v>1.18671793043751</v>
       </c>
       <c r="L17">
-        <v>0.09072620255178521</v>
+        <v>0.2020746603403509</v>
       </c>
       <c r="M17">
-        <v>0.4078683365679865</v>
+        <v>0.2824432147031999</v>
       </c>
       <c r="N17">
-        <v>0</v>
+        <v>0.9544772381152886</v>
       </c>
       <c r="O17">
-        <v>0</v>
+        <v>2.176696592585643</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1173,46 +1173,46 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>2.640790427205275</v>
+        <v>1.290290218701983</v>
       </c>
       <c r="C18">
-        <v>0.3493927034516275</v>
+        <v>0.1114440636443703</v>
       </c>
       <c r="D18">
-        <v>0.1974293740305768</v>
+        <v>0.09539732679974833</v>
       </c>
       <c r="E18">
-        <v>0.02000025925357196</v>
+        <v>0.05022097819289506</v>
       </c>
       <c r="F18">
-        <v>9.701181499499654</v>
+        <v>0.8657175526581398</v>
       </c>
       <c r="G18">
         <v>0</v>
       </c>
       <c r="H18">
-        <v>0</v>
+        <v>0.02672462365057982</v>
       </c>
       <c r="I18">
-        <v>0</v>
+        <v>0.4801215637710499</v>
       </c>
       <c r="J18">
-        <v>0.1619332864335661</v>
+        <v>0.0580230761099445</v>
       </c>
       <c r="K18">
-        <v>0.6224992743928013</v>
+        <v>1.157098539126395</v>
       </c>
       <c r="L18">
-        <v>0.0895506341569714</v>
+        <v>0.198659599636315</v>
       </c>
       <c r="M18">
-        <v>0.398449033424825</v>
+        <v>0.2759074504903296</v>
       </c>
       <c r="N18">
-        <v>0</v>
+        <v>0.9648783770089376</v>
       </c>
       <c r="O18">
-        <v>0</v>
+        <v>2.169414078605655</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1220,46 +1220,46 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>2.618321765577775</v>
+        <v>1.279303054990464</v>
       </c>
       <c r="C19">
-        <v>0.345798365808804</v>
+        <v>0.1108372386831462</v>
       </c>
       <c r="D19">
-        <v>0.1956617022344886</v>
+        <v>0.094766080118319</v>
       </c>
       <c r="E19">
-        <v>0.01996911423531023</v>
+        <v>0.0501497318860018</v>
       </c>
       <c r="F19">
-        <v>9.634338576191141</v>
+        <v>0.8640926885370561</v>
       </c>
       <c r="G19">
         <v>0</v>
       </c>
       <c r="H19">
-        <v>0</v>
+        <v>0.02672462365057982</v>
       </c>
       <c r="I19">
-        <v>0</v>
+        <v>0.4802327952014629</v>
       </c>
       <c r="J19">
-        <v>0.1613175369476849</v>
+        <v>0.05812973058925941</v>
       </c>
       <c r="K19">
-        <v>0.6168215486680353</v>
+        <v>1.147076212395888</v>
       </c>
       <c r="L19">
-        <v>0.08915820668725871</v>
+        <v>0.1975062778426064</v>
       </c>
       <c r="M19">
-        <v>0.3952839156827892</v>
+        <v>0.2736971914502853</v>
       </c>
       <c r="N19">
-        <v>0</v>
+        <v>0.9684210646716472</v>
       </c>
       <c r="O19">
-        <v>0</v>
+        <v>2.167015148807877</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1267,46 +1267,46 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>2.72005471577927</v>
+        <v>1.328781978253801</v>
       </c>
       <c r="C20">
-        <v>0.3620640616655919</v>
+        <v>0.113568426972904</v>
       </c>
       <c r="D20">
-        <v>0.2036487175548558</v>
+        <v>0.09761085493161659</v>
       </c>
       <c r="E20">
-        <v>0.02011028271746884</v>
+        <v>0.05047349782987709</v>
       </c>
       <c r="F20">
-        <v>9.93646425286687</v>
+        <v>0.871501450981313</v>
       </c>
       <c r="G20">
         <v>0</v>
       </c>
       <c r="H20">
-        <v>0</v>
+        <v>0.02672462365057982</v>
       </c>
       <c r="I20">
-        <v>0</v>
+        <v>0.4797888849838188</v>
       </c>
       <c r="J20">
-        <v>0.1641007589680186</v>
+        <v>0.05765286403043302</v>
       </c>
       <c r="K20">
-        <v>0.642525508501933</v>
+        <v>1.192202879300311</v>
       </c>
       <c r="L20">
-        <v>0.09094647707971149</v>
+        <v>0.2027081307721872</v>
       </c>
       <c r="M20">
-        <v>0.4096233232592326</v>
+        <v>0.2836541102243757</v>
       </c>
       <c r="N20">
-        <v>0</v>
+        <v>0.9525622623100747</v>
       </c>
       <c r="O20">
-        <v>0</v>
+        <v>2.178076402572628</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1314,46 +1314,46 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>3.073741015098562</v>
+        <v>1.495695578883073</v>
       </c>
       <c r="C21">
-        <v>0.4184807462524418</v>
+        <v>0.1227552729422996</v>
       </c>
       <c r="D21">
-        <v>0.2311141756910047</v>
+        <v>0.1072434686438015</v>
       </c>
       <c r="E21">
-        <v>0.02060442725114653</v>
+        <v>0.05161751858463326</v>
       </c>
       <c r="F21">
-        <v>10.97713144734263</v>
+        <v>0.898140016680621</v>
       </c>
       <c r="G21">
         <v>0</v>
       </c>
       <c r="H21">
-        <v>0</v>
+        <v>0.02672462365057982</v>
       </c>
       <c r="I21">
-        <v>0</v>
+        <v>0.4793163589441747</v>
       </c>
       <c r="J21">
-        <v>0.1736924976397205</v>
+        <v>0.05610526333324994</v>
       </c>
       <c r="K21">
-        <v>0.7318332266742544</v>
+        <v>1.344307382772627</v>
       </c>
       <c r="L21">
-        <v>0.09737191145994473</v>
+        <v>0.2204000243113882</v>
       </c>
       <c r="M21">
-        <v>0.4596301926121242</v>
+        <v>0.3173033270098387</v>
       </c>
       <c r="N21">
-        <v>0</v>
+        <v>0.9007715751850647</v>
       </c>
       <c r="O21">
-        <v>0</v>
+        <v>2.220041025899775</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1361,46 +1361,46 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>3.315079448429856</v>
+        <v>1.605347187601694</v>
       </c>
       <c r="C22">
-        <v>0.4569056506654192</v>
+        <v>0.1287713354904838</v>
       </c>
       <c r="D22">
-        <v>0.2496202312725728</v>
+        <v>0.1135981538483861</v>
       </c>
       <c r="E22">
-        <v>0.02094502386798291</v>
+        <v>0.05240846484166184</v>
       </c>
       <c r="F22">
-        <v>11.6794703012626</v>
+        <v>0.9169190226960495</v>
       </c>
       <c r="G22">
         <v>0</v>
       </c>
       <c r="H22">
-        <v>0</v>
+        <v>0.02672462365057982</v>
       </c>
       <c r="I22">
-        <v>0</v>
+        <v>0.4798016888180001</v>
       </c>
       <c r="J22">
-        <v>0.180174451801598</v>
+        <v>0.05513516775650906</v>
       </c>
       <c r="K22">
-        <v>0.7927406508154746</v>
+        <v>1.444136167822933</v>
       </c>
       <c r="L22">
-        <v>0.1019177903771435</v>
+        <v>0.2321328905217968</v>
       </c>
       <c r="M22">
-        <v>0.4938720210961378</v>
+        <v>0.3394550325584476</v>
       </c>
       <c r="N22">
-        <v>0</v>
+        <v>0.8680712491844234</v>
       </c>
       <c r="O22">
-        <v>0</v>
+        <v>2.251231791502278</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1408,46 +1408,46 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>3.185248130754587</v>
+        <v>1.546768235620561</v>
       </c>
       <c r="C23">
-        <v>0.4362388861172519</v>
+        <v>0.1255590809336411</v>
       </c>
       <c r="D23">
-        <v>0.2396863735462915</v>
+        <v>0.1102008794172207</v>
       </c>
       <c r="E23">
-        <v>0.02076142527498037</v>
+        <v>0.05198227311383263</v>
       </c>
       <c r="F23">
-        <v>11.30236903091168</v>
+        <v>0.9067665519217911</v>
       </c>
       <c r="G23">
         <v>0</v>
       </c>
       <c r="H23">
-        <v>0</v>
+        <v>0.02672462365057982</v>
       </c>
       <c r="I23">
-        <v>0</v>
+        <v>0.4794676973478502</v>
       </c>
       <c r="J23">
-        <v>0.1766930437903085</v>
+        <v>0.05564909935312912</v>
       </c>
       <c r="K23">
-        <v>0.7599768851287081</v>
+        <v>1.390813401066879</v>
       </c>
       <c r="L23">
-        <v>0.09945738694902673</v>
+        <v>0.225854576985796</v>
       </c>
       <c r="M23">
-        <v>0.475440140585647</v>
+        <v>0.3276166547518073</v>
       </c>
       <c r="N23">
-        <v>0</v>
+        <v>0.8854166604444518</v>
       </c>
       <c r="O23">
-        <v>0</v>
+        <v>2.234227882033991</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1455,46 +1455,46 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>2.714426468449631</v>
+        <v>1.326062463899689</v>
       </c>
       <c r="C24">
-        <v>0.3611647369830848</v>
+        <v>0.1134184141065617</v>
       </c>
       <c r="D24">
-        <v>0.2032079407143925</v>
+        <v>0.09745436199747104</v>
       </c>
       <c r="E24">
-        <v>0.02010246241051528</v>
+        <v>0.05045551006651472</v>
       </c>
       <c r="F24">
-        <v>9.919784183216819</v>
+        <v>0.8710881954481025</v>
       </c>
       <c r="G24">
         <v>0</v>
       </c>
       <c r="H24">
-        <v>0</v>
+        <v>0.02672462365057982</v>
       </c>
       <c r="I24">
-        <v>0</v>
+        <v>0.479809514863625</v>
       </c>
       <c r="J24">
-        <v>0.1639470927203845</v>
+        <v>0.05767884745294793</v>
       </c>
       <c r="K24">
-        <v>0.6411036936151007</v>
+        <v>1.189723056554584</v>
       </c>
       <c r="L24">
-        <v>0.09084678824053327</v>
+        <v>0.2024216890484993</v>
       </c>
       <c r="M24">
-        <v>0.4088294543703199</v>
+        <v>0.2831066244801335</v>
       </c>
       <c r="N24">
-        <v>0</v>
+        <v>0.9534276236917479</v>
       </c>
       <c r="O24">
-        <v>0</v>
+        <v>2.177451373358167</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1502,46 +1502,46 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>2.242124452254075</v>
+        <v>1.090012910935201</v>
       </c>
       <c r="C25">
-        <v>0.285403629691956</v>
+        <v>0.1003477080798021</v>
       </c>
       <c r="D25">
-        <v>0.1657169436679311</v>
+        <v>0.0839362441361402</v>
       </c>
       <c r="E25">
-        <v>0.01945002109327998</v>
+        <v>0.04898569837190614</v>
       </c>
       <c r="F25">
-        <v>8.504413296360724</v>
+        <v>0.83805181385938</v>
       </c>
       <c r="G25">
         <v>0</v>
       </c>
       <c r="H25">
-        <v>0</v>
+        <v>0.02672462365057982</v>
       </c>
       <c r="I25">
-        <v>0</v>
+        <v>0.4833675660220287</v>
       </c>
       <c r="J25">
-        <v>0.1509053963192173</v>
+        <v>0.06004165165794806</v>
       </c>
       <c r="K25">
-        <v>0.5216740590650986</v>
+        <v>0.9742478592195027</v>
       </c>
       <c r="L25">
-        <v>0.08282801250912541</v>
+        <v>0.1778101403262156</v>
       </c>
       <c r="M25">
-        <v>0.3424677188305196</v>
+        <v>0.2356908510158036</v>
       </c>
       <c r="N25">
-        <v>0</v>
+        <v>1.031492709248492</v>
       </c>
       <c r="O25">
-        <v>0</v>
+        <v>2.131186827663782</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_5_23/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_5_23/res_line/pl_mw.xlsx
@@ -421,46 +421,46 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0.9174924697400968</v>
+        <v>0.6316186220049929</v>
       </c>
       <c r="C2">
-        <v>0.09071664865077622</v>
+        <v>0.07125170108997736</v>
       </c>
       <c r="D2">
-        <v>0.07415538032097402</v>
+        <v>0.1207110662168631</v>
       </c>
       <c r="E2">
-        <v>0.04804642995490838</v>
+        <v>0.126474482963232</v>
       </c>
       <c r="F2">
-        <v>0.8179633793005294</v>
+        <v>1.839229413046695</v>
       </c>
       <c r="G2">
         <v>0</v>
       </c>
       <c r="H2">
-        <v>0.0267246236506935</v>
+        <v>0.07973214163530429</v>
       </c>
       <c r="I2">
-        <v>0.4885029752873216</v>
+        <v>1.180964694729706</v>
       </c>
       <c r="J2">
-        <v>0.06192652712408719</v>
+        <v>0.1669240167400421</v>
       </c>
       <c r="K2">
-        <v>0.8164142621665178</v>
+        <v>0.3784816122293364</v>
       </c>
       <c r="L2">
-        <v>0.1601880625840337</v>
+        <v>0.2919783802867784</v>
       </c>
       <c r="M2">
-        <v>0.2011891537576425</v>
+        <v>0.2055474092354643</v>
       </c>
       <c r="N2">
-        <v>1.09279832645973</v>
+        <v>2.323046336851908</v>
       </c>
       <c r="O2">
-        <v>2.108774301822251</v>
+        <v>4.835883696441641</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -468,46 +468,46 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0.801166344855659</v>
+        <v>0.6002206158742638</v>
       </c>
       <c r="C3">
-        <v>0.08417222191691565</v>
+        <v>0.06899834983576625</v>
       </c>
       <c r="D3">
-        <v>0.06762229279427601</v>
+        <v>0.1194363074786935</v>
       </c>
       <c r="E3">
-        <v>0.04749471699340191</v>
+        <v>0.1268470240155963</v>
       </c>
       <c r="F3">
-        <v>0.8067832502319163</v>
+        <v>1.846758462271922</v>
       </c>
       <c r="G3">
         <v>0</v>
       </c>
       <c r="H3">
-        <v>0.0267246236506935</v>
+        <v>0.07973214163530429</v>
       </c>
       <c r="I3">
-        <v>0.4934469799214014</v>
+        <v>1.188678852143486</v>
       </c>
       <c r="J3">
-        <v>0.06329260819262217</v>
+        <v>0.1678133097196044</v>
       </c>
       <c r="K3">
-        <v>0.7097721218262905</v>
+        <v>0.3479371721943352</v>
       </c>
       <c r="L3">
-        <v>0.1485235826415732</v>
+        <v>0.2901956071357077</v>
       </c>
       <c r="M3">
-        <v>0.1780163568140978</v>
+        <v>0.1998869737122604</v>
       </c>
       <c r="N3">
-        <v>1.136630714396357</v>
+        <v>2.342554194110359</v>
       </c>
       <c r="O3">
-        <v>2.10028398947486</v>
+        <v>4.861596536175256</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -515,46 +515,46 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>0.7299715288815491</v>
+        <v>0.581146483914722</v>
       </c>
       <c r="C4">
-        <v>0.08014149194340803</v>
+        <v>0.06759724066579054</v>
       </c>
       <c r="D4">
-        <v>0.06365438729681472</v>
+        <v>0.1186936240847416</v>
       </c>
       <c r="E4">
-        <v>0.04719647172891683</v>
+        <v>0.1271085485914139</v>
       </c>
       <c r="F4">
-        <v>0.801054610240989</v>
+        <v>1.852102712463235</v>
       </c>
       <c r="G4">
         <v>0</v>
       </c>
       <c r="H4">
-        <v>0.0267246236506935</v>
+        <v>0.07973214163530429</v>
       </c>
       <c r="I4">
-        <v>0.4971717668510252</v>
+        <v>1.193846659057357</v>
       </c>
       <c r="J4">
-        <v>0.06417454056503136</v>
+        <v>0.1683917031469653</v>
       </c>
       <c r="K4">
-        <v>0.6443961332209085</v>
+        <v>0.3292647271921112</v>
       </c>
       <c r="L4">
-        <v>0.1414885864070499</v>
+        <v>0.2892018913792498</v>
       </c>
       <c r="M4">
-        <v>0.1638772985921229</v>
+        <v>0.1964861394992923</v>
       </c>
       <c r="N4">
-        <v>1.16463900878223</v>
+        <v>2.355144546112327</v>
       </c>
       <c r="O4">
-        <v>2.098198674736551</v>
+        <v>4.87930451342956</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -562,46 +562,46 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0.7010086059906371</v>
+        <v>0.5734256933622248</v>
       </c>
       <c r="C5">
-        <v>0.07849530002956584</v>
+        <v>0.06702188112253538</v>
       </c>
       <c r="D5">
-        <v>0.06204786883689195</v>
+        <v>0.1184010980518977</v>
       </c>
       <c r="E5">
-        <v>0.04708493517164847</v>
+        <v>0.1272233885843317</v>
       </c>
       <c r="F5">
-        <v>0.7989967239624178</v>
+        <v>1.854462212088556</v>
       </c>
       <c r="G5">
         <v>0</v>
       </c>
       <c r="H5">
-        <v>0.0267246236506935</v>
+        <v>0.07973214163530429</v>
       </c>
       <c r="I5">
-        <v>0.498858281244825</v>
+        <v>1.196061156507586</v>
       </c>
       <c r="J5">
-        <v>0.06454469874470448</v>
+        <v>0.1686355561187085</v>
       </c>
       <c r="K5">
-        <v>0.6177732104916913</v>
+        <v>0.321676708198396</v>
       </c>
       <c r="L5">
-        <v>0.1386523328555995</v>
+        <v>0.2888224254798075</v>
       </c>
       <c r="M5">
-        <v>0.1581360451690692</v>
+        <v>0.1951192053120749</v>
       </c>
       <c r="N5">
-        <v>1.176323277669296</v>
+        <v>2.360429313905255</v>
       </c>
       <c r="O5">
-        <v>2.098110503312995</v>
+        <v>4.887004079672764</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -609,46 +609,46 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.6962020933922872</v>
+        <v>0.5721468271310641</v>
       </c>
       <c r="C6">
-        <v>0.07822171705770842</v>
+        <v>0.0669260780317984</v>
       </c>
       <c r="D6">
-        <v>0.0617817241240175</v>
+        <v>0.118353137501046</v>
       </c>
       <c r="E6">
-        <v>0.04706701335891417</v>
+        <v>0.1272429576391207</v>
       </c>
       <c r="F6">
-        <v>0.7986714601634475</v>
+        <v>1.854864986015897</v>
       </c>
       <c r="G6">
         <v>0</v>
       </c>
       <c r="H6">
-        <v>0.0267246236506935</v>
+        <v>0.07973214163530429</v>
       </c>
       <c r="I6">
-        <v>0.4991483781481776</v>
+        <v>1.196435433400502</v>
       </c>
       <c r="J6">
-        <v>0.06460681082286612</v>
+        <v>0.1686765405724113</v>
       </c>
       <c r="K6">
-        <v>0.6133533891858747</v>
+        <v>0.3204180170515087</v>
       </c>
       <c r="L6">
-        <v>0.1381831819643011</v>
+        <v>0.2887609575732242</v>
       </c>
       <c r="M6">
-        <v>0.1571839008796516</v>
+        <v>0.1948933748841739</v>
       </c>
       <c r="N6">
-        <v>1.178279655450033</v>
+        <v>2.361316155393588</v>
       </c>
       <c r="O6">
-        <v>2.098141154174996</v>
+        <v>4.88831180117063</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -656,46 +656,46 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.7295807348007202</v>
+        <v>0.5810421468861762</v>
       </c>
       <c r="C7">
-        <v>0.08011930620442342</v>
+        <v>0.06758949894513933</v>
       </c>
       <c r="D7">
-        <v>0.06363267960256991</v>
+        <v>0.1186896379076359</v>
       </c>
       <c r="E7">
-        <v>0.04719492725429753</v>
+        <v>0.1271100638618794</v>
       </c>
       <c r="F7">
-        <v>0.801025748714487</v>
+        <v>1.852133797540631</v>
       </c>
       <c r="G7">
         <v>0</v>
       </c>
       <c r="H7">
-        <v>0.0267246236506935</v>
+        <v>0.07973214163530429</v>
       </c>
       <c r="I7">
-        <v>0.4971938349965619</v>
+        <v>1.193876084766188</v>
       </c>
       <c r="J7">
-        <v>0.06417948917944027</v>
+        <v>0.1683949588029039</v>
       </c>
       <c r="K7">
-        <v>0.6440370226248433</v>
+        <v>0.3291623061429476</v>
       </c>
       <c r="L7">
-        <v>0.1414502137243119</v>
+        <v>0.2891966704556168</v>
       </c>
       <c r="M7">
-        <v>0.1637997893503638</v>
+        <v>0.1964676276867507</v>
       </c>
       <c r="N7">
-        <v>1.16479549706879</v>
+        <v>2.355215194282719</v>
       </c>
       <c r="O7">
-        <v>2.098194434005023</v>
+        <v>4.87940639435385</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -703,46 +703,46 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0.8773303680248432</v>
+        <v>0.6207505710850398</v>
       </c>
       <c r="C8">
-        <v>0.08846238993054811</v>
+        <v>0.07047839492115315</v>
       </c>
       <c r="D8">
-        <v>0.07189345422146687</v>
+        <v>0.1202632574123541</v>
       </c>
       <c r="E8">
-        <v>0.0478476774803962</v>
+        <v>0.1265961448055979</v>
       </c>
       <c r="F8">
-        <v>0.8138671062198028</v>
+        <v>1.841675870316315</v>
       </c>
       <c r="G8">
         <v>0</v>
       </c>
       <c r="H8">
-        <v>0.0267246236506935</v>
+        <v>0.07973214163530429</v>
       </c>
       <c r="I8">
-        <v>0.4900617717152009</v>
+        <v>1.183535098029957</v>
       </c>
       <c r="J8">
-        <v>0.06238854190919962</v>
+        <v>0.1672239367570372</v>
       </c>
       <c r="K8">
-        <v>0.7796180652757698</v>
+        <v>0.3679331938076018</v>
       </c>
       <c r="L8">
-        <v>0.1561389279704031</v>
+        <v>0.2913427976558793</v>
       </c>
       <c r="M8">
-        <v>0.1931795035387545</v>
+        <v>0.2035802760184247</v>
       </c>
       <c r="N8">
-        <v>1.107681582649732</v>
+        <v>2.329645589313513</v>
       </c>
       <c r="O8">
-        <v>2.105182353313438</v>
+        <v>4.844351290028541</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -750,46 +750,46 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.169298564971797</v>
+        <v>0.7002144827137897</v>
       </c>
       <c r="C9">
-        <v>0.1047498936250193</v>
+        <v>0.07600389197333612</v>
       </c>
       <c r="D9">
-        <v>0.08846137194178993</v>
+        <v>0.1236643287268606</v>
       </c>
       <c r="E9">
-        <v>0.04945800122271216</v>
+        <v>0.1258474839351305</v>
       </c>
       <c r="F9">
-        <v>0.8484932065464719</v>
+        <v>1.82688038258312</v>
       </c>
       <c r="G9">
         <v>0</v>
       </c>
       <c r="H9">
-        <v>0.0267246236506935</v>
+        <v>0.07973214163530429</v>
       </c>
       <c r="I9">
-        <v>0.4817636150117046</v>
+        <v>1.166673106655679</v>
       </c>
       <c r="J9">
-        <v>0.05922293170872361</v>
+        <v>0.165183679160994</v>
       </c>
       <c r="K9">
-        <v>1.04667736458353</v>
+        <v>0.4445930977456101</v>
       </c>
       <c r="L9">
-        <v>0.1860183880530641</v>
+        <v>0.2963478534619668</v>
       </c>
       <c r="M9">
-        <v>0.2515926869769345</v>
+        <v>0.2181150711380937</v>
       </c>
       <c r="N9">
-        <v>1.004587775813381</v>
+        <v>2.284358322285065</v>
       </c>
       <c r="O9">
-        <v>2.14488204103651</v>
+        <v>4.790820363375047</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -797,46 +797,46 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.385786135403208</v>
+        <v>0.7595410115415007</v>
       </c>
       <c r="C10">
-        <v>0.1167102875674573</v>
+        <v>0.07997812401680449</v>
       </c>
       <c r="D10">
-        <v>0.1008945970687023</v>
+        <v>0.1263524347637386</v>
       </c>
       <c r="E10">
-        <v>0.05085551896129914</v>
+        <v>0.1254541373508911</v>
       </c>
       <c r="F10">
-        <v>0.8803211849329742</v>
+        <v>1.819478455324429</v>
       </c>
       <c r="G10">
         <v>0</v>
       </c>
       <c r="H10">
-        <v>0.0267246236506935</v>
+        <v>0.07973214163530429</v>
       </c>
       <c r="I10">
-        <v>0.4794545295528039</v>
+        <v>1.156360370999302</v>
       </c>
       <c r="J10">
-        <v>0.0571140840076545</v>
+        <v>0.1638398746551131</v>
       </c>
       <c r="K10">
-        <v>1.244170565375839</v>
+        <v>0.5012780835378123</v>
       </c>
       <c r="L10">
-        <v>0.2087260677730569</v>
+        <v>0.3005056398035606</v>
       </c>
       <c r="M10">
-        <v>0.2951358196961635</v>
+        <v>0.2291450729885511</v>
       </c>
       <c r="N10">
-        <v>0.9345867672063766</v>
+        <v>2.254037554788644</v>
       </c>
       <c r="O10">
-        <v>2.191622401759361</v>
+        <v>4.760734928500682</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -844,46 +844,46 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.484848298217912</v>
+        <v>0.7867295770146825</v>
       </c>
       <c r="C11">
-        <v>0.1221593718163234</v>
+        <v>0.08176754092502847</v>
       </c>
       <c r="D11">
-        <v>0.1066159147920587</v>
+        <v>0.1276158601978352</v>
       </c>
       <c r="E11">
-        <v>0.05154089509969673</v>
+        <v>0.1253089511117711</v>
       </c>
       <c r="F11">
-        <v>0.8963355130253206</v>
+        <v>1.816861326948427</v>
       </c>
       <c r="G11">
         <v>0</v>
       </c>
       <c r="H11">
-        <v>0.0267246236506935</v>
+        <v>0.07973214163530429</v>
       </c>
       <c r="I11">
-        <v>0.4793014285263482</v>
+        <v>1.152118092069266</v>
       </c>
       <c r="J11">
-        <v>0.05620314941180826</v>
+        <v>0.1632620331809322</v>
       </c>
       <c r="K11">
-        <v>1.334428000237551</v>
+        <v>0.5271401691034328</v>
       </c>
       <c r="L11">
-        <v>0.2192439161029966</v>
+        <v>0.3025004559038109</v>
       </c>
       <c r="M11">
-        <v>0.3151138860600042</v>
+        <v>0.2342378776180638</v>
       </c>
       <c r="N11">
-        <v>0.9040613860981501</v>
+        <v>2.240883152461894</v>
       </c>
       <c r="O11">
-        <v>2.21710633557251</v>
+        <v>4.749049328326549</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -891,46 +891,46 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.522456669875595</v>
+        <v>0.7970534132010982</v>
       </c>
       <c r="C12">
-        <v>0.1242247974911379</v>
+        <v>0.08244247783001413</v>
       </c>
       <c r="D12">
-        <v>0.108792552147591</v>
+        <v>0.1281000680322819</v>
       </c>
       <c r="E12">
-        <v>0.05180783176726678</v>
+        <v>0.1252588033827919</v>
       </c>
       <c r="F12">
-        <v>0.9026335610630127</v>
+        <v>1.815977888375556</v>
       </c>
       <c r="G12">
         <v>0</v>
       </c>
       <c r="H12">
-        <v>0.0267246236506935</v>
+        <v>0.07973214163530429</v>
       </c>
       <c r="I12">
-        <v>0.4793791220187131</v>
+        <v>1.150576104904786</v>
       </c>
       <c r="J12">
-        <v>0.055865281752145</v>
+        <v>0.1630480163861652</v>
       </c>
       <c r="K12">
-        <v>1.368677559984121</v>
+        <v>0.5369438851503787</v>
       </c>
       <c r="L12">
-        <v>0.2232558217783094</v>
+        <v>0.3032706138177872</v>
       </c>
       <c r="M12">
-        <v>0.3227063545466891</v>
+        <v>0.2361770669647143</v>
       </c>
       <c r="N12">
-        <v>0.8926984334166166</v>
+        <v>2.235993672111328</v>
       </c>
       <c r="O12">
-        <v>2.22739927682548</v>
+        <v>4.744911429292102</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -938,46 +938,46 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.51435257666526</v>
+        <v>0.7948287515604875</v>
       </c>
       <c r="C13">
-        <v>0.1237798700017834</v>
+        <v>0.08229723742719841</v>
       </c>
       <c r="D13">
-        <v>0.1083233136756121</v>
+        <v>0.1279955292935426</v>
       </c>
       <c r="E13">
-        <v>0.05175000875807889</v>
+        <v>0.1252693890754486</v>
       </c>
       <c r="F13">
-        <v>0.9012665522716219</v>
+        <v>1.816163370535833</v>
       </c>
       <c r="G13">
         <v>0</v>
       </c>
       <c r="H13">
-        <v>0.02672462365057982</v>
+        <v>0.07973214163530429</v>
       </c>
       <c r="I13">
-        <v>0.4793562455052225</v>
+        <v>1.150905333603184</v>
       </c>
       <c r="J13">
-        <v>0.05593773049583461</v>
+        <v>0.1630938954839749</v>
       </c>
       <c r="K13">
-        <v>1.361297960832275</v>
+        <v>0.5348320306218568</v>
       </c>
       <c r="L13">
-        <v>0.2223904622391046</v>
+        <v>0.3031040915871301</v>
       </c>
       <c r="M13">
-        <v>0.3210699248003692</v>
+        <v>0.2357589565033322</v>
       </c>
       <c r="N13">
-        <v>0.895136804189796</v>
+        <v>2.237042626578954</v>
       </c>
       <c r="O13">
-        <v>2.225153330835269</v>
+        <v>4.745789834818112</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -985,46 +985,46 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.487940371557784</v>
+        <v>0.7875783659398508</v>
       </c>
       <c r="C14">
-        <v>0.1223292512869278</v>
+        <v>0.08182312213891407</v>
       </c>
       <c r="D14">
-        <v>0.1067947815297572</v>
+        <v>0.1276555808575068</v>
       </c>
       <c r="E14">
-        <v>0.05156270629025883</v>
+        <v>0.1253047287299065</v>
       </c>
       <c r="F14">
-        <v>0.8968488952033624</v>
+        <v>1.816786490637391</v>
       </c>
       <c r="G14">
         <v>0</v>
       </c>
       <c r="H14">
-        <v>0.02672462365057982</v>
+        <v>0.07973214163530429</v>
       </c>
       <c r="I14">
-        <v>0.4793050619806181</v>
+        <v>1.151989940312291</v>
       </c>
       <c r="J14">
-        <v>0.05617521013247107</v>
+        <v>0.1632443297783457</v>
       </c>
       <c r="K14">
-        <v>1.337244242413192</v>
+        <v>0.5279465235930161</v>
       </c>
       <c r="L14">
-        <v>0.2195733844678216</v>
+        <v>0.3025635219721607</v>
       </c>
       <c r="M14">
-        <v>0.3157379613240607</v>
+        <v>0.2343972032670294</v>
       </c>
       <c r="N14">
-        <v>0.9031225739488796</v>
+        <v>2.240479052216134</v>
       </c>
       <c r="O14">
-        <v>2.217940048694885</v>
+        <v>4.74870314799108</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1032,46 +1032,46 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.471774967969537</v>
+        <v>0.783140935210497</v>
       </c>
       <c r="C15">
-        <v>0.1214409872399642</v>
+        <v>0.08153236372183414</v>
       </c>
       <c r="D15">
-        <v>0.1058598479628046</v>
+        <v>0.1274481030224592</v>
       </c>
       <c r="E15">
-        <v>0.05144894978080572</v>
+        <v>0.1253270037971088</v>
       </c>
       <c r="F15">
-        <v>0.8941737939093386</v>
+        <v>1.817182176586769</v>
       </c>
       <c r="G15">
         <v>0</v>
       </c>
       <c r="H15">
-        <v>0.02672462365057982</v>
+        <v>0.07973214163530429</v>
       </c>
       <c r="I15">
-        <v>0.4792915824450859</v>
+        <v>1.152662686437026</v>
       </c>
       <c r="J15">
-        <v>0.05632159957121985</v>
+        <v>0.1633370997581478</v>
       </c>
       <c r="K15">
-        <v>1.322520237278496</v>
+        <v>0.5237302761484557</v>
       </c>
       <c r="L15">
-        <v>0.2178516839938567</v>
+        <v>0.3022343270512806</v>
       </c>
       <c r="M15">
-        <v>0.3124756077466557</v>
+        <v>0.2335644729310005</v>
       </c>
       <c r="N15">
-        <v>0.9080398659337428</v>
+        <v>2.242595917096359</v>
       </c>
       <c r="O15">
-        <v>2.213606503273922</v>
+        <v>4.750525022257392</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1079,46 +1079,46 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.379324899556565</v>
+        <v>0.7577681493108912</v>
       </c>
       <c r="C16">
-        <v>0.1163544091491673</v>
+        <v>0.07986080791199868</v>
       </c>
       <c r="D16">
-        <v>0.1005220697654323</v>
+        <v>0.1262706785416867</v>
       </c>
       <c r="E16">
-        <v>0.05081174890912621</v>
+        <v>0.1254643028549953</v>
       </c>
       <c r="F16">
-        <v>0.8793066010640942</v>
+        <v>1.819664562747796</v>
       </c>
       <c r="G16">
         <v>0</v>
       </c>
       <c r="H16">
-        <v>0.02672462365057982</v>
+        <v>0.07973214163530429</v>
       </c>
       <c r="I16">
-        <v>0.4794831498240093</v>
+        <v>1.156646641183379</v>
       </c>
       <c r="J16">
-        <v>0.05717460000418129</v>
+        <v>0.1638783102185712</v>
       </c>
       <c r="K16">
-        <v>1.238281348159376</v>
+        <v>0.4995894099236295</v>
       </c>
       <c r="L16">
-        <v>0.2080426521825274</v>
+        <v>0.3003773457661438</v>
       </c>
       <c r="M16">
-        <v>0.2938338596734056</v>
+        <v>0.2288137458742057</v>
       </c>
       <c r="N16">
-        <v>0.9366087716681236</v>
+        <v>2.254910074629576</v>
       </c>
       <c r="O16">
-        <v>2.190044915664288</v>
+        <v>4.761538822953952</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1126,46 +1126,46 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.322766952341567</v>
+        <v>0.7422536311017609</v>
       </c>
       <c r="C17">
-        <v>0.1132366127848456</v>
+        <v>0.07883061568803384</v>
       </c>
       <c r="D17">
-        <v>0.09726474434623356</v>
+        <v>0.1255587199870831</v>
       </c>
       <c r="E17">
-        <v>0.05043374205029316</v>
+        <v>0.1255571597087073</v>
       </c>
       <c r="F17">
-        <v>0.8705883434537327</v>
+        <v>1.821379356873287</v>
       </c>
       <c r="G17">
         <v>0</v>
       </c>
       <c r="H17">
-        <v>0.02672462365057982</v>
+        <v>0.07973214163530429</v>
       </c>
       <c r="I17">
-        <v>0.479835094743386</v>
+        <v>1.159205606711698</v>
       </c>
       <c r="J17">
-        <v>0.05771036902960436</v>
+        <v>0.1642188867429235</v>
       </c>
       <c r="K17">
-        <v>1.18671793043751</v>
+        <v>0.4847987620539982</v>
       </c>
       <c r="L17">
-        <v>0.2020746603403509</v>
+        <v>0.2992645595991661</v>
       </c>
       <c r="M17">
-        <v>0.2824432147031999</v>
+        <v>0.2259184764044235</v>
       </c>
       <c r="N17">
-        <v>0.9544772381152886</v>
+        <v>2.26262796487593</v>
       </c>
       <c r="O17">
-        <v>2.176696592585643</v>
+        <v>4.768807450292201</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1173,46 +1173,46 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.290290218701983</v>
+        <v>0.7333490186989877</v>
       </c>
       <c r="C18">
-        <v>0.1114440636443703</v>
+        <v>0.07823633796434137</v>
       </c>
       <c r="D18">
-        <v>0.09539732679974833</v>
+        <v>0.1251530446690339</v>
       </c>
       <c r="E18">
-        <v>0.05022097819289506</v>
+        <v>0.125613746447133</v>
       </c>
       <c r="F18">
-        <v>0.8657175526581398</v>
+        <v>1.822436273530542</v>
       </c>
       <c r="G18">
         <v>0</v>
       </c>
       <c r="H18">
-        <v>0.02672462365057982</v>
+        <v>0.07973214163530429</v>
       </c>
       <c r="I18">
-        <v>0.4801215637710499</v>
+        <v>1.160719727313037</v>
       </c>
       <c r="J18">
-        <v>0.0580230761099445</v>
+        <v>0.1644179276915745</v>
       </c>
       <c r="K18">
-        <v>1.157098539126395</v>
+        <v>0.4762987429475629</v>
       </c>
       <c r="L18">
-        <v>0.198659599636315</v>
+        <v>0.2986342550409518</v>
       </c>
       <c r="M18">
-        <v>0.2759074504903296</v>
+        <v>0.2242602818161288</v>
       </c>
       <c r="N18">
-        <v>0.9648783770089376</v>
+        <v>2.267127207378846</v>
       </c>
       <c r="O18">
-        <v>2.169414078605655</v>
+        <v>4.773176489236391</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1220,46 +1220,46 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.279303054990464</v>
+        <v>0.7303373432213505</v>
       </c>
       <c r="C19">
-        <v>0.1108372386831462</v>
+        <v>0.07803482774075121</v>
       </c>
       <c r="D19">
-        <v>0.094766080118319</v>
+        <v>0.1250163486859392</v>
       </c>
       <c r="E19">
-        <v>0.0501497318860018</v>
+        <v>0.1256334522264151</v>
       </c>
       <c r="F19">
-        <v>0.8640926885370561</v>
+        <v>1.822806262556981</v>
       </c>
       <c r="G19">
         <v>0</v>
       </c>
       <c r="H19">
-        <v>0.02672462365057982</v>
+        <v>0.07973214163530429</v>
       </c>
       <c r="I19">
-        <v>0.4802327952014629</v>
+        <v>1.16123964569735</v>
       </c>
       <c r="J19">
-        <v>0.05812973058925941</v>
+        <v>0.1644858609952289</v>
       </c>
       <c r="K19">
-        <v>1.147076212395888</v>
+        <v>0.4734220321506939</v>
       </c>
       <c r="L19">
-        <v>0.1975062778426064</v>
+        <v>0.2984225209706324</v>
       </c>
       <c r="M19">
-        <v>0.2736971914502853</v>
+        <v>0.2237000678098937</v>
       </c>
       <c r="N19">
-        <v>0.9684210646716472</v>
+        <v>2.268660899648725</v>
       </c>
       <c r="O19">
-        <v>2.167015148807877</v>
+        <v>4.774688128771032</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1267,46 +1267,46 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.328781978253801</v>
+        <v>0.7439032243748613</v>
       </c>
       <c r="C20">
-        <v>0.113568426972904</v>
+        <v>0.07894046146294897</v>
       </c>
       <c r="D20">
-        <v>0.09761085493161659</v>
+        <v>0.1256341138214125</v>
       </c>
       <c r="E20">
-        <v>0.05047349782987709</v>
+        <v>0.1255469461933387</v>
       </c>
       <c r="F20">
-        <v>0.871501450981313</v>
+        <v>1.821189507761112</v>
       </c>
       <c r="G20">
         <v>0</v>
       </c>
       <c r="H20">
-        <v>0.02672462365057982</v>
+        <v>0.07973214163530429</v>
       </c>
       <c r="I20">
-        <v>0.4797888849838188</v>
+        <v>1.158928826259213</v>
       </c>
       <c r="J20">
-        <v>0.05765286403043302</v>
+        <v>0.16418230583362</v>
       </c>
       <c r="K20">
-        <v>1.192202879300311</v>
+        <v>0.4863725139702808</v>
       </c>
       <c r="L20">
-        <v>0.2027081307721872</v>
+        <v>0.2993820102452034</v>
       </c>
       <c r="M20">
-        <v>0.2836541102243757</v>
+        <v>0.2262259503704271</v>
       </c>
       <c r="N20">
-        <v>0.9525622623100747</v>
+        <v>2.261800160733988</v>
       </c>
       <c r="O20">
-        <v>2.178076402572628</v>
+        <v>4.768014205855593</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1314,46 +1314,46 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.495695578883073</v>
+        <v>0.7897072227238482</v>
       </c>
       <c r="C21">
-        <v>0.1227552729422996</v>
+        <v>0.08196245408146297</v>
       </c>
       <c r="D21">
-        <v>0.1072434686438015</v>
+        <v>0.1277552756797036</v>
       </c>
       <c r="E21">
-        <v>0.05161751858463326</v>
+        <v>0.1252942176751919</v>
       </c>
       <c r="F21">
-        <v>0.898140016680621</v>
+        <v>1.816600546571038</v>
       </c>
       <c r="G21">
         <v>0</v>
       </c>
       <c r="H21">
-        <v>0.02672462365057982</v>
+        <v>0.07973214163530429</v>
       </c>
       <c r="I21">
-        <v>0.4793163589441747</v>
+        <v>1.151669616072112</v>
       </c>
       <c r="J21">
-        <v>0.05610526333324994</v>
+        <v>0.1632000134293055</v>
       </c>
       <c r="K21">
-        <v>1.344307382772627</v>
+        <v>0.5299686889673012</v>
       </c>
       <c r="L21">
-        <v>0.2204000243113882</v>
+        <v>0.3027219005247446</v>
       </c>
       <c r="M21">
-        <v>0.3173033270098387</v>
+        <v>0.2347968953032122</v>
       </c>
       <c r="N21">
-        <v>0.9007715751850647</v>
+        <v>2.239467199360754</v>
       </c>
       <c r="O21">
-        <v>2.220041025899775</v>
+        <v>4.747839646963286</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1361,46 +1361,46 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.605347187601694</v>
+        <v>0.8198063272199363</v>
       </c>
       <c r="C22">
-        <v>0.1287713354904838</v>
+        <v>0.08392189177267539</v>
       </c>
       <c r="D22">
-        <v>0.1135981538483861</v>
+        <v>0.1291752164287487</v>
       </c>
       <c r="E22">
-        <v>0.05240846484166184</v>
+        <v>0.1251571944793373</v>
       </c>
       <c r="F22">
-        <v>0.9169190226960495</v>
+        <v>1.814228521930545</v>
       </c>
       <c r="G22">
         <v>0</v>
       </c>
       <c r="H22">
-        <v>0.02672462365057982</v>
+        <v>0.07973214163530429</v>
       </c>
       <c r="I22">
-        <v>0.4798016888180001</v>
+        <v>1.147301047864701</v>
       </c>
       <c r="J22">
-        <v>0.05513516775650906</v>
+        <v>0.1625859963971079</v>
       </c>
       <c r="K22">
-        <v>1.444136167822933</v>
+        <v>0.5585211016367566</v>
       </c>
       <c r="L22">
-        <v>0.2321328905217968</v>
+        <v>0.3049907201591964</v>
       </c>
       <c r="M22">
-        <v>0.3394550325584476</v>
+        <v>0.2404605335044749</v>
       </c>
       <c r="N22">
-        <v>0.8680712491844234</v>
+        <v>2.225406422032479</v>
       </c>
       <c r="O22">
-        <v>2.251231791502278</v>
+        <v>4.736328116544826</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1408,46 +1408,46 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.546768235620561</v>
+        <v>0.8037271469808331</v>
       </c>
       <c r="C23">
-        <v>0.1255590809336411</v>
+        <v>0.08287753749684157</v>
       </c>
       <c r="D23">
-        <v>0.1102008794172207</v>
+        <v>0.1284143095559784</v>
       </c>
       <c r="E23">
-        <v>0.05198227311383263</v>
+        <v>0.1252277578857406</v>
       </c>
       <c r="F23">
-        <v>0.9067665519217911</v>
+        <v>1.815437214710556</v>
       </c>
       <c r="G23">
         <v>0</v>
       </c>
       <c r="H23">
-        <v>0.02672462365057982</v>
+        <v>0.07973214163530429</v>
       </c>
       <c r="I23">
-        <v>0.4794676973478502</v>
+        <v>1.149598286839854</v>
       </c>
       <c r="J23">
-        <v>0.05564909935312912</v>
+        <v>0.1629111539041812</v>
       </c>
       <c r="K23">
-        <v>1.390813401066879</v>
+        <v>0.5432768672818042</v>
       </c>
       <c r="L23">
-        <v>0.225854576985796</v>
+        <v>0.3037719740279812</v>
       </c>
       <c r="M23">
-        <v>0.3276166547518073</v>
+        <v>0.2374321200282097</v>
       </c>
       <c r="N23">
-        <v>0.8854166604444518</v>
+        <v>2.232861971760493</v>
       </c>
       <c r="O23">
-        <v>2.234227882033991</v>
+        <v>4.742319048466811</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1455,46 +1455,46 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.326062463899689</v>
+        <v>0.7431573968180487</v>
       </c>
       <c r="C24">
-        <v>0.1134184141065617</v>
+        <v>0.07889080643660407</v>
       </c>
       <c r="D24">
-        <v>0.09745436199747104</v>
+        <v>0.1256000169284945</v>
       </c>
       <c r="E24">
-        <v>0.05045551006651472</v>
+        <v>0.1255515537480267</v>
       </c>
       <c r="F24">
-        <v>0.8710881954481025</v>
+        <v>1.821275117184612</v>
       </c>
       <c r="G24">
         <v>0</v>
       </c>
       <c r="H24">
-        <v>0.02672462365057982</v>
+        <v>0.07973214163530429</v>
       </c>
       <c r="I24">
-        <v>0.479809514863625</v>
+        <v>1.159053824948089</v>
       </c>
       <c r="J24">
-        <v>0.05767884745294793</v>
+        <v>0.1641988339726925</v>
       </c>
       <c r="K24">
-        <v>1.189723056554584</v>
+        <v>0.4856610103382479</v>
       </c>
       <c r="L24">
-        <v>0.2024216890484993</v>
+        <v>0.2993288813614825</v>
       </c>
       <c r="M24">
-        <v>0.2831066244801335</v>
+        <v>0.2260869216476067</v>
       </c>
       <c r="N24">
-        <v>0.9534276236917479</v>
+        <v>2.262174217469281</v>
       </c>
       <c r="O24">
-        <v>2.177451373358167</v>
+        <v>4.768372239144782</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1502,46 +1502,46 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.090012910935201</v>
+        <v>0.6785494874518463</v>
       </c>
       <c r="C25">
-        <v>0.1003477080798021</v>
+        <v>0.07452406984010196</v>
       </c>
       <c r="D25">
-        <v>0.0839362441361402</v>
+        <v>0.1227107952860749</v>
       </c>
       <c r="E25">
-        <v>0.04898569837190614</v>
+        <v>0.1260224071285769</v>
       </c>
       <c r="F25">
-        <v>0.83805181385938</v>
+        <v>1.830272859549304</v>
       </c>
       <c r="G25">
         <v>0</v>
       </c>
       <c r="H25">
-        <v>0.02672462365057982</v>
+        <v>0.07973214163530429</v>
       </c>
       <c r="I25">
-        <v>0.4833675660220287</v>
+        <v>1.170869683303778</v>
       </c>
       <c r="J25">
-        <v>0.06004165165794806</v>
+        <v>0.1657083039485379</v>
       </c>
       <c r="K25">
-        <v>0.9742478592195027</v>
+        <v>0.4237892834991612</v>
       </c>
       <c r="L25">
-        <v>0.1778101403262156</v>
+        <v>0.2949090987806784</v>
       </c>
       <c r="M25">
-        <v>0.2356908510158036</v>
+        <v>0.2141208637167651</v>
       </c>
       <c r="N25">
-        <v>1.031492709248492</v>
+        <v>2.296090814598333</v>
       </c>
       <c r="O25">
-        <v>2.131186827663782</v>
+        <v>4.80367644426812</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_5_23/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_5_23/res_line/pl_mw.xlsx
@@ -421,46 +421,46 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0.6316186220049929</v>
+        <v>0.9174924697399547</v>
       </c>
       <c r="C2">
-        <v>0.07125170108997736</v>
+        <v>0.09071664865068385</v>
       </c>
       <c r="D2">
-        <v>0.1207110662168631</v>
+        <v>0.07415538032096691</v>
       </c>
       <c r="E2">
-        <v>0.126474482963232</v>
+        <v>0.04804642995489417</v>
       </c>
       <c r="F2">
-        <v>1.839229413046695</v>
+        <v>0.8179633793005365</v>
       </c>
       <c r="G2">
         <v>0</v>
       </c>
       <c r="H2">
-        <v>0.07973214163530429</v>
+        <v>0.0267246236506935</v>
       </c>
       <c r="I2">
-        <v>1.180964694729706</v>
+        <v>0.4885029752873429</v>
       </c>
       <c r="J2">
-        <v>0.1669240167400421</v>
+        <v>0.06192652712405966</v>
       </c>
       <c r="K2">
-        <v>0.3784816122293364</v>
+        <v>0.8164142621664041</v>
       </c>
       <c r="L2">
-        <v>0.2919783802867784</v>
+        <v>0.1601880625841048</v>
       </c>
       <c r="M2">
-        <v>0.2055474092354643</v>
+        <v>0.201189153757646</v>
       </c>
       <c r="N2">
-        <v>2.323046336851908</v>
+        <v>1.092798326459728</v>
       </c>
       <c r="O2">
-        <v>4.835883696441641</v>
+        <v>2.108774301822251</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -468,46 +468,46 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0.6002206158742638</v>
+        <v>0.8011663448554884</v>
       </c>
       <c r="C3">
-        <v>0.06899834983576625</v>
+        <v>0.08417222191715013</v>
       </c>
       <c r="D3">
-        <v>0.1194363074786935</v>
+        <v>0.06762229279427601</v>
       </c>
       <c r="E3">
-        <v>0.1268470240155963</v>
+        <v>0.04749471699341612</v>
       </c>
       <c r="F3">
-        <v>1.846758462271922</v>
+        <v>0.8067832502318879</v>
       </c>
       <c r="G3">
         <v>0</v>
       </c>
       <c r="H3">
-        <v>0.07973214163530429</v>
+        <v>0.0267246236506935</v>
       </c>
       <c r="I3">
-        <v>1.188678852143486</v>
+        <v>0.4934469799213907</v>
       </c>
       <c r="J3">
-        <v>0.1678133097196044</v>
+        <v>0.0632926081925671</v>
       </c>
       <c r="K3">
-        <v>0.3479371721943352</v>
+        <v>0.709772121826262</v>
       </c>
       <c r="L3">
-        <v>0.2901956071357077</v>
+        <v>0.1485235826414524</v>
       </c>
       <c r="M3">
-        <v>0.1998869737122604</v>
+        <v>0.1780163568141084</v>
       </c>
       <c r="N3">
-        <v>2.342554194110359</v>
+        <v>1.136630714396394</v>
       </c>
       <c r="O3">
-        <v>4.861596536175256</v>
+        <v>2.100283989474775</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -515,46 +515,46 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>0.581146483914722</v>
+        <v>0.7299715288816344</v>
       </c>
       <c r="C4">
-        <v>0.06759724066579054</v>
+        <v>0.0801414919436283</v>
       </c>
       <c r="D4">
-        <v>0.1186936240847416</v>
+        <v>0.06365438729692841</v>
       </c>
       <c r="E4">
-        <v>0.1271085485914139</v>
+        <v>0.04719647172889907</v>
       </c>
       <c r="F4">
-        <v>1.852102712463235</v>
+        <v>0.8010546102410032</v>
       </c>
       <c r="G4">
         <v>0</v>
       </c>
       <c r="H4">
-        <v>0.07973214163530429</v>
+        <v>0.0267246236506935</v>
       </c>
       <c r="I4">
-        <v>1.193846659057357</v>
+        <v>0.4971717668510358</v>
       </c>
       <c r="J4">
-        <v>0.1683917031469653</v>
+        <v>0.06417454056507221</v>
       </c>
       <c r="K4">
-        <v>0.3292647271921112</v>
+        <v>0.644396133220809</v>
       </c>
       <c r="L4">
-        <v>0.2892018913792498</v>
+        <v>0.1414885864070357</v>
       </c>
       <c r="M4">
-        <v>0.1964861394992923</v>
+        <v>0.1638772985921122</v>
       </c>
       <c r="N4">
-        <v>2.355144546112327</v>
+        <v>1.16463900878223</v>
       </c>
       <c r="O4">
-        <v>4.87930451342956</v>
+        <v>2.098198674736551</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -562,46 +562,46 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0.5734256933622248</v>
+        <v>0.7010086059907223</v>
       </c>
       <c r="C5">
-        <v>0.06702188112253538</v>
+        <v>0.0784953000292532</v>
       </c>
       <c r="D5">
-        <v>0.1184010980518977</v>
+        <v>0.06204786883714064</v>
       </c>
       <c r="E5">
-        <v>0.1272233885843317</v>
+        <v>0.04708493517163248</v>
       </c>
       <c r="F5">
-        <v>1.854462212088556</v>
+        <v>0.798996723962432</v>
       </c>
       <c r="G5">
         <v>0</v>
       </c>
       <c r="H5">
-        <v>0.07973214163530429</v>
+        <v>0.0267246236506935</v>
       </c>
       <c r="I5">
-        <v>1.196061156507586</v>
+        <v>0.4988582812448286</v>
       </c>
       <c r="J5">
-        <v>0.1686355561187085</v>
+        <v>0.06454469874462987</v>
       </c>
       <c r="K5">
-        <v>0.321676708198396</v>
+        <v>0.6177732104915492</v>
       </c>
       <c r="L5">
-        <v>0.2888224254798075</v>
+        <v>0.1386523328556493</v>
       </c>
       <c r="M5">
-        <v>0.1951192053120749</v>
+        <v>0.1581360451690479</v>
       </c>
       <c r="N5">
-        <v>2.360429313905255</v>
+        <v>1.176323277669304</v>
       </c>
       <c r="O5">
-        <v>4.887004079672764</v>
+        <v>2.098110503313009</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -609,46 +609,46 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.5721468271310641</v>
+        <v>0.6962020933922588</v>
       </c>
       <c r="C6">
-        <v>0.0669260780317984</v>
+        <v>0.07822171705817027</v>
       </c>
       <c r="D6">
-        <v>0.118353137501046</v>
+        <v>0.06178172412400329</v>
       </c>
       <c r="E6">
-        <v>0.1272429576391207</v>
+        <v>0.04706701335894081</v>
       </c>
       <c r="F6">
-        <v>1.854864986015897</v>
+        <v>0.7986714601634617</v>
       </c>
       <c r="G6">
         <v>0</v>
       </c>
       <c r="H6">
-        <v>0.07973214163530429</v>
+        <v>0.0267246236506935</v>
       </c>
       <c r="I6">
-        <v>1.196435433400502</v>
+        <v>0.4991483781482096</v>
       </c>
       <c r="J6">
-        <v>0.1686765405724113</v>
+        <v>0.06460681082291053</v>
       </c>
       <c r="K6">
-        <v>0.3204180170515087</v>
+        <v>0.6133533891858605</v>
       </c>
       <c r="L6">
-        <v>0.2887609575732242</v>
+        <v>0.1381831819642372</v>
       </c>
       <c r="M6">
-        <v>0.1948933748841739</v>
+        <v>0.1571839008796303</v>
       </c>
       <c r="N6">
-        <v>2.361316155393588</v>
+        <v>1.178279655450116</v>
       </c>
       <c r="O6">
-        <v>4.88831180117063</v>
+        <v>2.098141154175096</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -656,46 +656,46 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.5810421468861762</v>
+        <v>0.7295807348007486</v>
       </c>
       <c r="C7">
-        <v>0.06758949894513933</v>
+        <v>0.08011930620441632</v>
       </c>
       <c r="D7">
-        <v>0.1186896379076359</v>
+        <v>0.06363267960276175</v>
       </c>
       <c r="E7">
-        <v>0.1271100638618794</v>
+        <v>0.04719492725430996</v>
       </c>
       <c r="F7">
-        <v>1.852133797540631</v>
+        <v>0.8010257487144727</v>
       </c>
       <c r="G7">
         <v>0</v>
       </c>
       <c r="H7">
-        <v>0.07973214163530429</v>
+        <v>0.0267246236506935</v>
       </c>
       <c r="I7">
-        <v>1.193876084766188</v>
+        <v>0.4971938349965725</v>
       </c>
       <c r="J7">
-        <v>0.1683949588029039</v>
+        <v>0.06417948917942606</v>
       </c>
       <c r="K7">
-        <v>0.3291623061429476</v>
+        <v>0.6440370226249286</v>
       </c>
       <c r="L7">
-        <v>0.2891966704556168</v>
+        <v>0.1414502137242906</v>
       </c>
       <c r="M7">
-        <v>0.1964676276867507</v>
+        <v>0.1637997893503638</v>
       </c>
       <c r="N7">
-        <v>2.355215194282719</v>
+        <v>1.164795497068857</v>
       </c>
       <c r="O7">
-        <v>4.87940639435385</v>
+        <v>2.098194434005052</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -703,46 +703,46 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0.6207505710850398</v>
+        <v>0.8773303680248716</v>
       </c>
       <c r="C8">
-        <v>0.07047839492115315</v>
+        <v>0.08846238993078259</v>
       </c>
       <c r="D8">
-        <v>0.1202632574123541</v>
+        <v>0.0718934542216445</v>
       </c>
       <c r="E8">
-        <v>0.1265961448055979</v>
+        <v>0.04784767748039087</v>
       </c>
       <c r="F8">
-        <v>1.841675870316315</v>
+        <v>0.8138671062198242</v>
       </c>
       <c r="G8">
         <v>0</v>
       </c>
       <c r="H8">
-        <v>0.07973214163530429</v>
+        <v>0.0267246236506935</v>
       </c>
       <c r="I8">
-        <v>1.183535098029957</v>
+        <v>0.4900617717152009</v>
       </c>
       <c r="J8">
-        <v>0.1672239367570372</v>
+        <v>0.06238854190921472</v>
       </c>
       <c r="K8">
-        <v>0.3679331938076018</v>
+        <v>0.779618065275713</v>
       </c>
       <c r="L8">
-        <v>0.2913427976558793</v>
+        <v>0.156138927970467</v>
       </c>
       <c r="M8">
-        <v>0.2035802760184247</v>
+        <v>0.1931795035387509</v>
       </c>
       <c r="N8">
-        <v>2.329645589313513</v>
+        <v>1.107681582649731</v>
       </c>
       <c r="O8">
-        <v>4.844351290028541</v>
+        <v>2.105182353313509</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -750,46 +750,46 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>0.7002144827137897</v>
+        <v>1.169298564971797</v>
       </c>
       <c r="C9">
-        <v>0.07600389197333612</v>
+        <v>0.1047498936250122</v>
       </c>
       <c r="D9">
-        <v>0.1236643287268606</v>
+        <v>0.08846137194184678</v>
       </c>
       <c r="E9">
-        <v>0.1258474839351305</v>
+        <v>0.04945800122271038</v>
       </c>
       <c r="F9">
-        <v>1.82688038258312</v>
+        <v>0.848493206546479</v>
       </c>
       <c r="G9">
         <v>0</v>
       </c>
       <c r="H9">
-        <v>0.07973214163530429</v>
+        <v>0.0267246236506935</v>
       </c>
       <c r="I9">
-        <v>1.166673106655679</v>
+        <v>0.4817636150117117</v>
       </c>
       <c r="J9">
-        <v>0.165183679160994</v>
+        <v>0.05922293170863124</v>
       </c>
       <c r="K9">
-        <v>0.4445930977456101</v>
+        <v>1.046677364583502</v>
       </c>
       <c r="L9">
-        <v>0.2963478534619668</v>
+        <v>0.1860183880531352</v>
       </c>
       <c r="M9">
-        <v>0.2181150711380937</v>
+        <v>0.2515926869769309</v>
       </c>
       <c r="N9">
-        <v>2.284358322285065</v>
+        <v>1.004587775813435</v>
       </c>
       <c r="O9">
-        <v>4.790820363375047</v>
+        <v>2.144882041036482</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -797,46 +797,46 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>0.7595410115415007</v>
+        <v>1.385786135403208</v>
       </c>
       <c r="C10">
-        <v>0.07997812401680449</v>
+        <v>0.1167102875672299</v>
       </c>
       <c r="D10">
-        <v>0.1263524347637386</v>
+        <v>0.1008945970687165</v>
       </c>
       <c r="E10">
-        <v>0.1254541373508911</v>
+        <v>0.05085551896127782</v>
       </c>
       <c r="F10">
-        <v>1.819478455324429</v>
+        <v>0.8803211849329742</v>
       </c>
       <c r="G10">
         <v>0</v>
       </c>
       <c r="H10">
-        <v>0.07973214163530429</v>
+        <v>0.0267246236506935</v>
       </c>
       <c r="I10">
-        <v>1.156360370999302</v>
+        <v>0.4794545295527968</v>
       </c>
       <c r="J10">
-        <v>0.1638398746551131</v>
+        <v>0.05711408400763762</v>
       </c>
       <c r="K10">
-        <v>0.5012780835378123</v>
+        <v>1.244170565375782</v>
       </c>
       <c r="L10">
-        <v>0.3005056398035606</v>
+        <v>0.2087260677729432</v>
       </c>
       <c r="M10">
-        <v>0.2291450729885511</v>
+        <v>0.2951358196961564</v>
       </c>
       <c r="N10">
-        <v>2.254037554788644</v>
+        <v>0.9345867672064125</v>
       </c>
       <c r="O10">
-        <v>4.760734928500682</v>
+        <v>2.191622401759304</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -844,46 +844,46 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>0.7867295770146825</v>
+        <v>1.484848298217855</v>
       </c>
       <c r="C11">
-        <v>0.08176754092502847</v>
+        <v>0.1221593718163092</v>
       </c>
       <c r="D11">
-        <v>0.1276158601978352</v>
+        <v>0.1066159147921866</v>
       </c>
       <c r="E11">
-        <v>0.1253089511117711</v>
+        <v>0.05154089509970028</v>
       </c>
       <c r="F11">
-        <v>1.816861326948427</v>
+        <v>0.8963355130253419</v>
       </c>
       <c r="G11">
         <v>0</v>
       </c>
       <c r="H11">
-        <v>0.07973214163530429</v>
+        <v>0.0267246236506935</v>
       </c>
       <c r="I11">
-        <v>1.152118092069266</v>
+        <v>0.4793014285263553</v>
       </c>
       <c r="J11">
-        <v>0.1632620331809322</v>
+        <v>0.05620314941177806</v>
       </c>
       <c r="K11">
-        <v>0.5271401691034328</v>
+        <v>1.334428000237551</v>
       </c>
       <c r="L11">
-        <v>0.3025004559038109</v>
+        <v>0.2192439161030109</v>
       </c>
       <c r="M11">
-        <v>0.2342378776180638</v>
+        <v>0.3151138860600042</v>
       </c>
       <c r="N11">
-        <v>2.240883152461894</v>
+        <v>0.9040613860981557</v>
       </c>
       <c r="O11">
-        <v>4.749049328326549</v>
+        <v>2.217106335572538</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -891,46 +891,46 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>0.7970534132010982</v>
+        <v>1.52245666987568</v>
       </c>
       <c r="C12">
-        <v>0.08244247783001413</v>
+        <v>0.1242247974910242</v>
       </c>
       <c r="D12">
-        <v>0.1281000680322819</v>
+        <v>0.1087925521477473</v>
       </c>
       <c r="E12">
-        <v>0.1252588033827919</v>
+        <v>0.05180783176724724</v>
       </c>
       <c r="F12">
-        <v>1.815977888375556</v>
+        <v>0.9026335610630269</v>
       </c>
       <c r="G12">
         <v>0</v>
       </c>
       <c r="H12">
-        <v>0.07973214163530429</v>
+        <v>0.0267246236506935</v>
       </c>
       <c r="I12">
-        <v>1.150576104904786</v>
+        <v>0.4793791220186989</v>
       </c>
       <c r="J12">
-        <v>0.1630480163861652</v>
+        <v>0.05586528175217786</v>
       </c>
       <c r="K12">
-        <v>0.5369438851503787</v>
+        <v>1.368677559984121</v>
       </c>
       <c r="L12">
-        <v>0.3032706138177872</v>
+        <v>0.2232558217782241</v>
       </c>
       <c r="M12">
-        <v>0.2361770669647143</v>
+        <v>0.322706354546682</v>
       </c>
       <c r="N12">
-        <v>2.235993672111328</v>
+        <v>0.8926984334166819</v>
       </c>
       <c r="O12">
-        <v>4.744911429292102</v>
+        <v>2.227399276825537</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -938,46 +938,46 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>0.7948287515604875</v>
+        <v>1.514352576665232</v>
       </c>
       <c r="C13">
-        <v>0.08229723742719841</v>
+        <v>0.1237798700017976</v>
       </c>
       <c r="D13">
-        <v>0.1279955292935426</v>
+        <v>0.1083233136756689</v>
       </c>
       <c r="E13">
-        <v>0.1252693890754486</v>
+        <v>0.05175000875808955</v>
       </c>
       <c r="F13">
-        <v>1.816163370535833</v>
+        <v>0.9012665522716219</v>
       </c>
       <c r="G13">
         <v>0</v>
       </c>
       <c r="H13">
-        <v>0.07973214163530429</v>
+        <v>0.02672462365057982</v>
       </c>
       <c r="I13">
-        <v>1.150905333603184</v>
+        <v>0.4793562455052083</v>
       </c>
       <c r="J13">
-        <v>0.1630938954839749</v>
+        <v>0.05593773049588613</v>
       </c>
       <c r="K13">
-        <v>0.5348320306218568</v>
+        <v>1.361297960832445</v>
       </c>
       <c r="L13">
-        <v>0.3031040915871301</v>
+        <v>0.2223904622391331</v>
       </c>
       <c r="M13">
-        <v>0.2357589565033322</v>
+        <v>0.3210699248003763</v>
       </c>
       <c r="N13">
-        <v>2.237042626578954</v>
+        <v>0.8951368041897994</v>
       </c>
       <c r="O13">
-        <v>4.745789834818112</v>
+        <v>2.225153330835354</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -985,46 +985,46 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>0.7875783659398508</v>
+        <v>1.487940371557812</v>
       </c>
       <c r="C14">
-        <v>0.08182312213891407</v>
+        <v>0.1223292512873542</v>
       </c>
       <c r="D14">
-        <v>0.1276555808575068</v>
+        <v>0.1067947815298851</v>
       </c>
       <c r="E14">
-        <v>0.1253047287299065</v>
+        <v>0.05156270629027482</v>
       </c>
       <c r="F14">
-        <v>1.816786490637391</v>
+        <v>0.8968488952033624</v>
       </c>
       <c r="G14">
         <v>0</v>
       </c>
       <c r="H14">
-        <v>0.07973214163530429</v>
+        <v>0.02672462365057982</v>
       </c>
       <c r="I14">
-        <v>1.151989940312291</v>
+        <v>0.4793050619806039</v>
       </c>
       <c r="J14">
-        <v>0.1632443297783457</v>
+        <v>0.05617521013247195</v>
       </c>
       <c r="K14">
-        <v>0.5279465235930161</v>
+        <v>1.337244242413192</v>
       </c>
       <c r="L14">
-        <v>0.3025635219721607</v>
+        <v>0.2195733844677932</v>
       </c>
       <c r="M14">
-        <v>0.2343972032670294</v>
+        <v>0.3157379613240607</v>
       </c>
       <c r="N14">
-        <v>2.240479052216134</v>
+        <v>0.9031225739489338</v>
       </c>
       <c r="O14">
-        <v>4.74870314799108</v>
+        <v>2.217940048694885</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1032,46 +1032,46 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>0.783140935210497</v>
+        <v>1.471774967969537</v>
       </c>
       <c r="C15">
-        <v>0.08153236372183414</v>
+        <v>0.1214409872398079</v>
       </c>
       <c r="D15">
-        <v>0.1274481030224592</v>
+        <v>0.1058598479627761</v>
       </c>
       <c r="E15">
-        <v>0.1253270037971088</v>
+        <v>0.05144894978078973</v>
       </c>
       <c r="F15">
-        <v>1.817182176586769</v>
+        <v>0.8941737939093315</v>
       </c>
       <c r="G15">
         <v>0</v>
       </c>
       <c r="H15">
-        <v>0.07973214163530429</v>
+        <v>0.02672462365057982</v>
       </c>
       <c r="I15">
-        <v>1.152662686437026</v>
+        <v>0.4792915824450859</v>
       </c>
       <c r="J15">
-        <v>0.1633370997581478</v>
+        <v>0.05632159957125626</v>
       </c>
       <c r="K15">
-        <v>0.5237302761484557</v>
+        <v>1.322520237278553</v>
       </c>
       <c r="L15">
-        <v>0.3022343270512806</v>
+        <v>0.2178516839937998</v>
       </c>
       <c r="M15">
-        <v>0.2335644729310005</v>
+        <v>0.3124756077466486</v>
       </c>
       <c r="N15">
-        <v>2.242595917096359</v>
+        <v>0.9080398659337863</v>
       </c>
       <c r="O15">
-        <v>4.750525022257392</v>
+        <v>2.213606503274008</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1079,46 +1079,46 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>0.7577681493108912</v>
+        <v>1.379324899556565</v>
       </c>
       <c r="C16">
-        <v>0.07986080791199868</v>
+        <v>0.1163544091495368</v>
       </c>
       <c r="D16">
-        <v>0.1262706785416867</v>
+        <v>0.1005220697654252</v>
       </c>
       <c r="E16">
-        <v>0.1254643028549953</v>
+        <v>0.05081174890910845</v>
       </c>
       <c r="F16">
-        <v>1.819664562747796</v>
+        <v>0.8793066010641084</v>
       </c>
       <c r="G16">
         <v>0</v>
       </c>
       <c r="H16">
-        <v>0.07973214163530429</v>
+        <v>0.02672462365057982</v>
       </c>
       <c r="I16">
-        <v>1.156646641183379</v>
+        <v>0.4794831498239986</v>
       </c>
       <c r="J16">
-        <v>0.1638783102185712</v>
+        <v>0.05717460000423902</v>
       </c>
       <c r="K16">
-        <v>0.4995894099236295</v>
+        <v>1.238281348159489</v>
       </c>
       <c r="L16">
-        <v>0.3003773457661438</v>
+        <v>0.2080426521824279</v>
       </c>
       <c r="M16">
-        <v>0.2288137458742057</v>
+        <v>0.2938338596734056</v>
       </c>
       <c r="N16">
-        <v>2.254910074629576</v>
+        <v>0.936608771668173</v>
       </c>
       <c r="O16">
-        <v>4.761538822953952</v>
+        <v>2.190044915664259</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1126,46 +1126,46 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>0.7422536311017609</v>
+        <v>1.322766952341624</v>
       </c>
       <c r="C17">
-        <v>0.07883061568803384</v>
+        <v>0.1132366127849309</v>
       </c>
       <c r="D17">
-        <v>0.1255587199870831</v>
+        <v>0.09726474434627619</v>
       </c>
       <c r="E17">
-        <v>0.1255571597087073</v>
+        <v>0.05043374205028783</v>
       </c>
       <c r="F17">
-        <v>1.821379356873287</v>
+        <v>0.870588343453754</v>
       </c>
       <c r="G17">
         <v>0</v>
       </c>
       <c r="H17">
-        <v>0.07973214163530429</v>
+        <v>0.02672462365057982</v>
       </c>
       <c r="I17">
-        <v>1.159205606711698</v>
+        <v>0.4798350947433754</v>
       </c>
       <c r="J17">
-        <v>0.1642188867429235</v>
+        <v>0.05771036902953242</v>
       </c>
       <c r="K17">
-        <v>0.4847987620539982</v>
+        <v>1.186717930437425</v>
       </c>
       <c r="L17">
-        <v>0.2992645595991661</v>
+        <v>0.2020746603404291</v>
       </c>
       <c r="M17">
-        <v>0.2259184764044235</v>
+        <v>0.2824432147031857</v>
       </c>
       <c r="N17">
-        <v>2.26262796487593</v>
+        <v>0.9544772381152948</v>
       </c>
       <c r="O17">
-        <v>4.768807450292201</v>
+        <v>2.176696592585586</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1173,46 +1173,46 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>0.7333490186989877</v>
+        <v>1.290290218701927</v>
       </c>
       <c r="C18">
-        <v>0.07823633796434137</v>
+        <v>0.1114440636440435</v>
       </c>
       <c r="D18">
-        <v>0.1251530446690339</v>
+        <v>0.09539732679986201</v>
       </c>
       <c r="E18">
-        <v>0.125613746447133</v>
+        <v>0.05022097819290927</v>
       </c>
       <c r="F18">
-        <v>1.822436273530542</v>
+        <v>0.8657175526581611</v>
       </c>
       <c r="G18">
         <v>0</v>
       </c>
       <c r="H18">
-        <v>0.07973214163530429</v>
+        <v>0.02672462365057982</v>
       </c>
       <c r="I18">
-        <v>1.160719727313037</v>
+        <v>0.480121563771057</v>
       </c>
       <c r="J18">
-        <v>0.1644179276915745</v>
+        <v>0.05802307610989743</v>
       </c>
       <c r="K18">
-        <v>0.4762987429475629</v>
+        <v>1.157098539126338</v>
       </c>
       <c r="L18">
-        <v>0.2986342550409518</v>
+        <v>0.1986595996363221</v>
       </c>
       <c r="M18">
-        <v>0.2242602818161288</v>
+        <v>0.2759074504903367</v>
       </c>
       <c r="N18">
-        <v>2.267127207378846</v>
+        <v>0.9648783770089377</v>
       </c>
       <c r="O18">
-        <v>4.773176489236391</v>
+        <v>2.169414078605683</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1220,46 +1220,46 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>0.7303373432213505</v>
+        <v>1.279303054990436</v>
       </c>
       <c r="C19">
-        <v>0.07803482774075121</v>
+        <v>0.1108372386834588</v>
       </c>
       <c r="D19">
-        <v>0.1250163486859392</v>
+        <v>0.09476608011826215</v>
       </c>
       <c r="E19">
-        <v>0.1256334522264151</v>
+        <v>0.0501497318859947</v>
       </c>
       <c r="F19">
-        <v>1.822806262556981</v>
+        <v>0.8640926885370561</v>
       </c>
       <c r="G19">
         <v>0</v>
       </c>
       <c r="H19">
-        <v>0.07973214163530429</v>
+        <v>0.02672462365057982</v>
       </c>
       <c r="I19">
-        <v>1.16123964569735</v>
+        <v>0.4802327952014593</v>
       </c>
       <c r="J19">
-        <v>0.1644858609952289</v>
+        <v>0.05812973058941573</v>
       </c>
       <c r="K19">
-        <v>0.4734220321506939</v>
+        <v>1.147076212396001</v>
       </c>
       <c r="L19">
-        <v>0.2984225209706324</v>
+        <v>0.1975062778425993</v>
       </c>
       <c r="M19">
-        <v>0.2237000678098937</v>
+        <v>0.2736971914502888</v>
       </c>
       <c r="N19">
-        <v>2.268660899648725</v>
+        <v>0.9684210646716915</v>
       </c>
       <c r="O19">
-        <v>4.774688128771032</v>
+        <v>2.167015148807877</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1267,46 +1267,46 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>0.7439032243748613</v>
+        <v>1.328781978253744</v>
       </c>
       <c r="C20">
-        <v>0.07894046146294897</v>
+        <v>0.1135684269725772</v>
       </c>
       <c r="D20">
-        <v>0.1256341138214125</v>
+        <v>0.09761085493144606</v>
       </c>
       <c r="E20">
-        <v>0.1255469461933387</v>
+        <v>0.05047349782986288</v>
       </c>
       <c r="F20">
-        <v>1.821189507761112</v>
+        <v>0.8715014509813201</v>
       </c>
       <c r="G20">
         <v>0</v>
       </c>
       <c r="H20">
-        <v>0.07973214163530429</v>
+        <v>0.02672462365057982</v>
       </c>
       <c r="I20">
-        <v>1.158928826259213</v>
+        <v>0.479788884983833</v>
       </c>
       <c r="J20">
-        <v>0.16418230583362</v>
+        <v>0.05765286403051118</v>
       </c>
       <c r="K20">
-        <v>0.4863725139702808</v>
+        <v>1.192202879300254</v>
       </c>
       <c r="L20">
-        <v>0.2993820102452034</v>
+        <v>0.2027081307721161</v>
       </c>
       <c r="M20">
-        <v>0.2262259503704271</v>
+        <v>0.2836541102243544</v>
       </c>
       <c r="N20">
-        <v>2.261800160733988</v>
+        <v>0.9525622623100923</v>
       </c>
       <c r="O20">
-        <v>4.768014205855593</v>
+        <v>2.178076402572685</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1314,46 +1314,46 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>0.7897072227238482</v>
+        <v>1.495695578883186</v>
       </c>
       <c r="C21">
-        <v>0.08196245408146297</v>
+        <v>0.1227552729419585</v>
       </c>
       <c r="D21">
-        <v>0.1277552756797036</v>
+        <v>0.1072434686436736</v>
       </c>
       <c r="E21">
-        <v>0.1252942176751919</v>
+        <v>0.05161751858464392</v>
       </c>
       <c r="F21">
-        <v>1.816600546571038</v>
+        <v>0.898140016680621</v>
       </c>
       <c r="G21">
         <v>0</v>
       </c>
       <c r="H21">
-        <v>0.07973214163530429</v>
+        <v>0.02672462365057982</v>
       </c>
       <c r="I21">
-        <v>1.151669616072112</v>
+        <v>0.479316358944196</v>
       </c>
       <c r="J21">
-        <v>0.1632000134293055</v>
+        <v>0.0561052633332686</v>
       </c>
       <c r="K21">
-        <v>0.5299686889673012</v>
+        <v>1.344307382772683</v>
       </c>
       <c r="L21">
-        <v>0.3027219005247446</v>
+        <v>0.2204000243113313</v>
       </c>
       <c r="M21">
-        <v>0.2347968953032122</v>
+        <v>0.3173033270098387</v>
       </c>
       <c r="N21">
-        <v>2.239467199360754</v>
+        <v>0.9007715751850468</v>
       </c>
       <c r="O21">
-        <v>4.747839646963286</v>
+        <v>2.220041025899747</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1361,46 +1361,46 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>0.8198063272199363</v>
+        <v>1.605347187601637</v>
       </c>
       <c r="C22">
-        <v>0.08392189177267539</v>
+        <v>0.1287713354905833</v>
       </c>
       <c r="D22">
-        <v>0.1291752164287487</v>
+        <v>0.1135981538483861</v>
       </c>
       <c r="E22">
-        <v>0.1251571944793373</v>
+        <v>0.0524084648416423</v>
       </c>
       <c r="F22">
-        <v>1.814228521930545</v>
+        <v>0.9169190226960637</v>
       </c>
       <c r="G22">
         <v>0</v>
       </c>
       <c r="H22">
-        <v>0.07973214163530429</v>
+        <v>0.02672462365057982</v>
       </c>
       <c r="I22">
-        <v>1.147301047864701</v>
+        <v>0.4798016888180143</v>
       </c>
       <c r="J22">
-        <v>0.1625859963971079</v>
+        <v>0.05513516775657834</v>
       </c>
       <c r="K22">
-        <v>0.5585211016367566</v>
+        <v>1.444136167822961</v>
       </c>
       <c r="L22">
-        <v>0.3049907201591964</v>
+        <v>0.2321328905217257</v>
       </c>
       <c r="M22">
-        <v>0.2404605335044749</v>
+        <v>0.3394550325584405</v>
       </c>
       <c r="N22">
-        <v>2.225406422032479</v>
+        <v>0.8680712491844643</v>
       </c>
       <c r="O22">
-        <v>4.736328116544826</v>
+        <v>2.251231791502306</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1408,46 +1408,46 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>0.8037271469808331</v>
+        <v>1.54676823562059</v>
       </c>
       <c r="C23">
-        <v>0.08287753749684157</v>
+        <v>0.1255590809336269</v>
       </c>
       <c r="D23">
-        <v>0.1284143095559784</v>
+        <v>0.1102008794173202</v>
       </c>
       <c r="E23">
-        <v>0.1252277578857406</v>
+        <v>0.05198227311381309</v>
       </c>
       <c r="F23">
-        <v>1.815437214710556</v>
+        <v>0.9067665519218053</v>
       </c>
       <c r="G23">
         <v>0</v>
       </c>
       <c r="H23">
-        <v>0.07973214163530429</v>
+        <v>0.02672462365057982</v>
       </c>
       <c r="I23">
-        <v>1.149598286839854</v>
+        <v>0.4794676973478573</v>
       </c>
       <c r="J23">
-        <v>0.1629111539041812</v>
+        <v>0.05564909935314066</v>
       </c>
       <c r="K23">
-        <v>0.5432768672818042</v>
+        <v>1.390813401066907</v>
       </c>
       <c r="L23">
-        <v>0.3037719740279812</v>
+        <v>0.2258545769858671</v>
       </c>
       <c r="M23">
-        <v>0.2374321200282097</v>
+        <v>0.3276166547517931</v>
       </c>
       <c r="N23">
-        <v>2.232861971760493</v>
+        <v>0.8854166604444567</v>
       </c>
       <c r="O23">
-        <v>4.742319048466811</v>
+        <v>2.234227882034048</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1455,46 +1455,46 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>0.7431573968180487</v>
+        <v>1.326062463899774</v>
       </c>
       <c r="C24">
-        <v>0.07889080643660407</v>
+        <v>0.1134184141068033</v>
       </c>
       <c r="D24">
-        <v>0.1256000169284945</v>
+        <v>0.09745436199735025</v>
       </c>
       <c r="E24">
-        <v>0.1255515537480267</v>
+        <v>0.05045551006652715</v>
       </c>
       <c r="F24">
-        <v>1.821275117184612</v>
+        <v>0.8710881954481096</v>
       </c>
       <c r="G24">
         <v>0</v>
       </c>
       <c r="H24">
-        <v>0.07973214163530429</v>
+        <v>0.02672462365057982</v>
       </c>
       <c r="I24">
-        <v>1.159053824948089</v>
+        <v>0.4798095148636108</v>
       </c>
       <c r="J24">
-        <v>0.1641988339726925</v>
+        <v>0.0576788474531158</v>
       </c>
       <c r="K24">
-        <v>0.4856610103382479</v>
+        <v>1.189723056554698</v>
       </c>
       <c r="L24">
-        <v>0.2993288813614825</v>
+        <v>0.2024216890485988</v>
       </c>
       <c r="M24">
-        <v>0.2260869216476067</v>
+        <v>0.2831066244801335</v>
       </c>
       <c r="N24">
-        <v>2.262174217469281</v>
+        <v>0.9534276236917425</v>
       </c>
       <c r="O24">
-        <v>4.768372239144782</v>
+        <v>2.177451373358195</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1502,46 +1502,46 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>0.6785494874518463</v>
+        <v>1.090012910935172</v>
       </c>
       <c r="C25">
-        <v>0.07452406984010196</v>
+        <v>0.1003477080795676</v>
       </c>
       <c r="D25">
-        <v>0.1227107952860749</v>
+        <v>0.08393624413595546</v>
       </c>
       <c r="E25">
-        <v>0.1260224071285769</v>
+        <v>0.0489856983718937</v>
       </c>
       <c r="F25">
-        <v>1.830272859549304</v>
+        <v>0.8380518138593658</v>
       </c>
       <c r="G25">
         <v>0</v>
       </c>
       <c r="H25">
-        <v>0.07973214163530429</v>
+        <v>0.02672462365057982</v>
       </c>
       <c r="I25">
-        <v>1.170869683303778</v>
+        <v>0.4833675660220216</v>
       </c>
       <c r="J25">
-        <v>0.1657083039485379</v>
+        <v>0.060041651657877</v>
       </c>
       <c r="K25">
-        <v>0.4237892834991612</v>
+        <v>0.9742478592196449</v>
       </c>
       <c r="L25">
-        <v>0.2949090987806784</v>
+        <v>0.1778101403262013</v>
       </c>
       <c r="M25">
-        <v>0.2141208637167651</v>
+        <v>0.2356908510158036</v>
       </c>
       <c r="N25">
-        <v>2.296090814598333</v>
+        <v>1.031492709248524</v>
       </c>
       <c r="O25">
-        <v>4.80367644426812</v>
+        <v>2.131186827663868</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_5_23/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_5_23/res_line/pl_mw.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:O25"/>
+  <dimension ref="A1:Q25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:15">
+    <row r="1" spans="1:17">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -415,1133 +415,1283 @@
       <c r="O1" s="1">
         <v>13</v>
       </c>
-    </row>
-    <row r="2" spans="1:15">
+      <c r="P1" s="1">
+        <v>14</v>
+      </c>
+      <c r="Q1" s="1">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="2" spans="1:17">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0.9174924697399547</v>
+        <v>0.797179569150785</v>
       </c>
       <c r="C2">
-        <v>0.09071664865068385</v>
+        <v>0.1539517484663264</v>
       </c>
       <c r="D2">
-        <v>0.07415538032096691</v>
+        <v>0.007627805600739279</v>
       </c>
       <c r="E2">
-        <v>0.04804642995489417</v>
+        <v>0.00852227594758137</v>
       </c>
       <c r="F2">
-        <v>0.8179633793005365</v>
+        <v>3.232125083373134</v>
       </c>
       <c r="G2">
         <v>0</v>
       </c>
       <c r="H2">
+        <v>0.05866350492856753</v>
+      </c>
+      <c r="I2">
+        <v>0.07204244023290851</v>
+      </c>
+      <c r="J2">
         <v>0.0267246236506935</v>
       </c>
-      <c r="I2">
-        <v>0.4885029752873429</v>
-      </c>
-      <c r="J2">
-        <v>0.06192652712405966</v>
-      </c>
       <c r="K2">
-        <v>0.8164142621664041</v>
+        <v>2.134027361372233</v>
       </c>
       <c r="L2">
-        <v>0.1601880625841048</v>
+        <v>0.05092216072473121</v>
       </c>
       <c r="M2">
-        <v>0.201189153757646</v>
+        <v>0.9103108717406201</v>
       </c>
       <c r="N2">
-        <v>1.092798326459728</v>
+        <v>0.12070366701316</v>
       </c>
       <c r="O2">
-        <v>2.108774301822251</v>
-      </c>
-    </row>
-    <row r="3" spans="1:15">
+        <v>0.1725961020612488</v>
+      </c>
+      <c r="P2">
+        <v>0</v>
+      </c>
+      <c r="Q2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0.8011663448554884</v>
+        <v>0.6973387891129619</v>
       </c>
       <c r="C3">
-        <v>0.08417222191715013</v>
+        <v>0.133976322216725</v>
       </c>
       <c r="D3">
-        <v>0.06762229279427601</v>
+        <v>0.007469203092961507</v>
       </c>
       <c r="E3">
-        <v>0.04749471699341612</v>
+        <v>0.007513203234591703</v>
       </c>
       <c r="F3">
-        <v>0.8067832502318879</v>
+        <v>3.013080978721248</v>
       </c>
       <c r="G3">
         <v>0</v>
       </c>
       <c r="H3">
+        <v>0.06743575791781709</v>
+      </c>
+      <c r="I3">
+        <v>0.08230643302492746</v>
+      </c>
+      <c r="J3">
         <v>0.0267246236506935</v>
       </c>
-      <c r="I3">
-        <v>0.4934469799213907</v>
-      </c>
-      <c r="J3">
-        <v>0.0632926081925671</v>
-      </c>
       <c r="K3">
-        <v>0.709772121826262</v>
+        <v>1.998784936378996</v>
       </c>
       <c r="L3">
-        <v>0.1485235826414524</v>
+        <v>0.0461715415738464</v>
       </c>
       <c r="M3">
-        <v>0.1780163568141084</v>
+        <v>0.7958927583690638</v>
       </c>
       <c r="N3">
-        <v>1.136630714396394</v>
+        <v>0.1076929275497633</v>
       </c>
       <c r="O3">
-        <v>2.100283989474775</v>
-      </c>
-    </row>
-    <row r="4" spans="1:15">
+        <v>0.1518251443068017</v>
+      </c>
+      <c r="P3">
+        <v>0</v>
+      </c>
+      <c r="Q3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>0.7299715288816344</v>
+        <v>0.6362149106226127</v>
       </c>
       <c r="C4">
-        <v>0.0801414919436283</v>
+        <v>0.1220377430952766</v>
       </c>
       <c r="D4">
-        <v>0.06365438729692841</v>
+        <v>0.007349412747505113</v>
       </c>
       <c r="E4">
-        <v>0.04719647172889907</v>
+        <v>0.006906187772742989</v>
       </c>
       <c r="F4">
-        <v>0.8010546102410032</v>
+        <v>2.877783561440069</v>
       </c>
       <c r="G4">
         <v>0</v>
       </c>
       <c r="H4">
+        <v>0.07332038586984524</v>
+      </c>
+      <c r="I4">
+        <v>0.08920975081032756</v>
+      </c>
+      <c r="J4">
         <v>0.0267246236506935</v>
       </c>
-      <c r="I4">
-        <v>0.4971717668510358</v>
-      </c>
-      <c r="J4">
-        <v>0.06417454056507221</v>
-      </c>
       <c r="K4">
-        <v>0.644396133220809</v>
+        <v>1.914811226213104</v>
       </c>
       <c r="L4">
-        <v>0.1414885864070357</v>
+        <v>0.04323533381168332</v>
       </c>
       <c r="M4">
-        <v>0.1638772985921122</v>
+        <v>0.7261722016422709</v>
       </c>
       <c r="N4">
-        <v>1.16463900878223</v>
+        <v>0.09977285484971077</v>
       </c>
       <c r="O4">
-        <v>2.098198674736551</v>
-      </c>
-    </row>
-    <row r="5" spans="1:15">
+        <v>0.139131880264312</v>
+      </c>
+      <c r="P4">
+        <v>0</v>
+      </c>
+      <c r="Q4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0.7010086059907223</v>
+        <v>0.6111960813313146</v>
       </c>
       <c r="C5">
-        <v>0.0784953000292532</v>
+        <v>0.1174644471343669</v>
       </c>
       <c r="D5">
-        <v>0.06204786883714064</v>
+        <v>0.007252370676906317</v>
       </c>
       <c r="E5">
-        <v>0.04708493517163248</v>
+        <v>0.006661985873164245</v>
       </c>
       <c r="F5">
-        <v>0.798996723962432</v>
+        <v>2.81797211956453</v>
       </c>
       <c r="G5">
         <v>0</v>
       </c>
       <c r="H5">
+        <v>0.07586313631947394</v>
+      </c>
+      <c r="I5">
+        <v>0.0923074411732685</v>
+      </c>
+      <c r="J5">
         <v>0.0267246236506935</v>
       </c>
-      <c r="I5">
-        <v>0.4988582812448286</v>
-      </c>
-      <c r="J5">
-        <v>0.06454469874462987</v>
-      </c>
       <c r="K5">
-        <v>0.6177732104915492</v>
+        <v>1.876916780225486</v>
       </c>
       <c r="L5">
-        <v>0.1386523328556493</v>
+        <v>0.04195884142295547</v>
       </c>
       <c r="M5">
-        <v>0.1581360451690479</v>
+        <v>0.6980539130928207</v>
       </c>
       <c r="N5">
-        <v>1.176323277669304</v>
+        <v>0.096685269222057</v>
       </c>
       <c r="O5">
-        <v>2.098110503313009</v>
-      </c>
-    </row>
-    <row r="6" spans="1:15">
+        <v>0.134013107661783</v>
+      </c>
+      <c r="P5">
+        <v>0</v>
+      </c>
+      <c r="Q5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.6962020933922588</v>
+        <v>0.6068635180112949</v>
       </c>
       <c r="C6">
-        <v>0.07822171705817027</v>
+        <v>0.1169744721170076</v>
       </c>
       <c r="D6">
-        <v>0.06178172412400329</v>
+        <v>0.007184351307718551</v>
       </c>
       <c r="E6">
-        <v>0.04706701335894081</v>
+        <v>0.006622295893160768</v>
       </c>
       <c r="F6">
-        <v>0.7986714601634617</v>
+        <v>2.802575882631388</v>
       </c>
       <c r="G6">
         <v>0</v>
       </c>
       <c r="H6">
+        <v>0.07632091985609168</v>
+      </c>
+      <c r="I6">
+        <v>0.09300601570452915</v>
+      </c>
+      <c r="J6">
         <v>0.0267246236506935</v>
       </c>
-      <c r="I6">
-        <v>0.4991483781482096</v>
-      </c>
-      <c r="J6">
-        <v>0.06460681082291053</v>
-      </c>
       <c r="K6">
-        <v>0.6133533891858605</v>
+        <v>1.86641535489693</v>
       </c>
       <c r="L6">
-        <v>0.1381831819642372</v>
+        <v>0.04165647321535459</v>
       </c>
       <c r="M6">
-        <v>0.1571839008796303</v>
+        <v>0.6936042631585337</v>
       </c>
       <c r="N6">
-        <v>1.178279655450116</v>
+        <v>0.09632595854954218</v>
       </c>
       <c r="O6">
-        <v>2.098141154175096</v>
-      </c>
-    </row>
-    <row r="7" spans="1:15">
+        <v>0.1332136073448105</v>
+      </c>
+      <c r="P6">
+        <v>0</v>
+      </c>
+      <c r="Q6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.7295807348007486</v>
+        <v>0.6353802410840785</v>
       </c>
       <c r="C7">
-        <v>0.08011930620441632</v>
+        <v>0.1227002655034966</v>
       </c>
       <c r="D7">
-        <v>0.06363267960276175</v>
+        <v>0.007206362948944722</v>
       </c>
       <c r="E7">
-        <v>0.04719492725430996</v>
+        <v>0.006904805061171526</v>
       </c>
       <c r="F7">
-        <v>0.8010257487144727</v>
+        <v>2.862074042883108</v>
       </c>
       <c r="G7">
         <v>0</v>
       </c>
       <c r="H7">
+        <v>0.07342911886504222</v>
+      </c>
+      <c r="I7">
+        <v>0.08970815273983845</v>
+      </c>
+      <c r="J7">
         <v>0.0267246236506935</v>
       </c>
-      <c r="I7">
-        <v>0.4971938349965725</v>
-      </c>
-      <c r="J7">
-        <v>0.06417948917942606</v>
-      </c>
       <c r="K7">
-        <v>0.6440370226249286</v>
+        <v>1.902830561786999</v>
       </c>
       <c r="L7">
-        <v>0.1414502137242906</v>
+        <v>0.04297113992790536</v>
       </c>
       <c r="M7">
-        <v>0.1637997893503638</v>
+        <v>0.7263702147936613</v>
       </c>
       <c r="N7">
-        <v>1.164795497068857</v>
+        <v>0.1001483652146078</v>
       </c>
       <c r="O7">
-        <v>2.098194434005052</v>
-      </c>
-    </row>
-    <row r="8" spans="1:15">
+        <v>0.1391984237946566</v>
+      </c>
+      <c r="P7">
+        <v>0</v>
+      </c>
+      <c r="Q7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0.8773303680248716</v>
+        <v>0.7620322464978813</v>
       </c>
       <c r="C8">
-        <v>0.08846238993078259</v>
+        <v>0.1479554887173151</v>
       </c>
       <c r="D8">
-        <v>0.0718934542216445</v>
+        <v>0.007389488651215359</v>
       </c>
       <c r="E8">
-        <v>0.04784767748039087</v>
+        <v>0.008173707027148147</v>
       </c>
       <c r="F8">
-        <v>0.8138671062198242</v>
+        <v>3.136998226245467</v>
       </c>
       <c r="G8">
         <v>0</v>
       </c>
       <c r="H8">
+        <v>0.06167043821965823</v>
+      </c>
+      <c r="I8">
+        <v>0.07599964265955883</v>
+      </c>
+      <c r="J8">
         <v>0.0267246236506935</v>
       </c>
-      <c r="I8">
-        <v>0.4900617717152009</v>
-      </c>
-      <c r="J8">
-        <v>0.06238854190921472</v>
-      </c>
       <c r="K8">
-        <v>0.779618065275713</v>
+        <v>2.072373951571237</v>
       </c>
       <c r="L8">
-        <v>0.156138927970467</v>
+        <v>0.04895596129874136</v>
       </c>
       <c r="M8">
-        <v>0.1931795035387509</v>
+        <v>0.8714917475479069</v>
       </c>
       <c r="N8">
-        <v>1.107681582649731</v>
+        <v>0.1167584883052228</v>
       </c>
       <c r="O8">
-        <v>2.105182353313509</v>
-      </c>
-    </row>
-    <row r="9" spans="1:15">
+        <v>0.1655992579768615</v>
+      </c>
+      <c r="P8">
+        <v>0</v>
+      </c>
+      <c r="Q8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.169298564971797</v>
+        <v>1.013149835702336</v>
       </c>
       <c r="C9">
-        <v>0.1047498936250122</v>
+        <v>0.1990795413412911</v>
       </c>
       <c r="D9">
-        <v>0.08846137194184678</v>
+        <v>0.007822543363253942</v>
       </c>
       <c r="E9">
-        <v>0.04945800122271038</v>
+        <v>0.01078639242381918</v>
       </c>
       <c r="F9">
-        <v>0.848493206546479</v>
+        <v>3.697183715576784</v>
       </c>
       <c r="G9">
         <v>0</v>
       </c>
       <c r="H9">
+        <v>0.04263419564249293</v>
+      </c>
+      <c r="I9">
+        <v>0.05340266560582663</v>
+      </c>
+      <c r="J9">
         <v>0.0267246236506935</v>
       </c>
-      <c r="I9">
-        <v>0.4817636150117117</v>
-      </c>
-      <c r="J9">
-        <v>0.05922293170863124</v>
-      </c>
       <c r="K9">
-        <v>1.046677364583502</v>
+        <v>2.418327589189587</v>
       </c>
       <c r="L9">
-        <v>0.1860183880531352</v>
+        <v>0.06105409611045687</v>
       </c>
       <c r="M9">
-        <v>0.2515926869769309</v>
+        <v>1.159980768830053</v>
       </c>
       <c r="N9">
-        <v>1.004587775813435</v>
+        <v>0.1492046350006149</v>
       </c>
       <c r="O9">
-        <v>2.144882041036482</v>
-      </c>
-    </row>
-    <row r="10" spans="1:15">
+        <v>0.2177015982439023</v>
+      </c>
+      <c r="P9">
+        <v>0</v>
+      </c>
+      <c r="Q9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.385786135403208</v>
+        <v>1.200169487397034</v>
       </c>
       <c r="C10">
-        <v>0.1167102875672299</v>
+        <v>0.2391642952610766</v>
       </c>
       <c r="D10">
-        <v>0.1008945970687165</v>
+        <v>0.007625979052958698</v>
       </c>
       <c r="E10">
-        <v>0.05085551896127782</v>
+        <v>0.01235425668728585</v>
       </c>
       <c r="F10">
-        <v>0.8803211849329742</v>
+        <v>4.023288457734878</v>
       </c>
       <c r="G10">
         <v>0</v>
       </c>
       <c r="H10">
+        <v>0.03215008068349867</v>
+      </c>
+      <c r="I10">
+        <v>0.0406704985921138</v>
+      </c>
+      <c r="J10">
         <v>0.0267246236506935</v>
       </c>
-      <c r="I10">
-        <v>0.4794545295527968</v>
-      </c>
-      <c r="J10">
-        <v>0.05711408400763762</v>
-      </c>
       <c r="K10">
-        <v>1.244170565375782</v>
+        <v>2.610661955838665</v>
       </c>
       <c r="L10">
-        <v>0.2087260677729432</v>
+        <v>0.06716728219396018</v>
       </c>
       <c r="M10">
-        <v>0.2951358196961564</v>
+        <v>1.377036880429841</v>
       </c>
       <c r="N10">
-        <v>0.9345867672064125</v>
+        <v>0.1679008491000218</v>
       </c>
       <c r="O10">
-        <v>2.191622401759304</v>
-      </c>
-    </row>
-    <row r="11" spans="1:15">
+        <v>0.2538491777601877</v>
+      </c>
+      <c r="P10">
+        <v>0</v>
+      </c>
+      <c r="Q10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.484848298217855</v>
+        <v>1.294202802432665</v>
       </c>
       <c r="C11">
-        <v>0.1221593718163092</v>
+        <v>0.258509589253805</v>
       </c>
       <c r="D11">
-        <v>0.1066159147921866</v>
+        <v>0.004944811154717677</v>
       </c>
       <c r="E11">
-        <v>0.05154089509970028</v>
+        <v>0.01031047316517775</v>
       </c>
       <c r="F11">
-        <v>0.8963355130253419</v>
+        <v>3.516990657950856</v>
       </c>
       <c r="G11">
         <v>0</v>
       </c>
       <c r="H11">
+        <v>0.05014682411357185</v>
+      </c>
+      <c r="I11">
+        <v>0.03876119940305411</v>
+      </c>
+      <c r="J11">
         <v>0.0267246236506935</v>
       </c>
-      <c r="I11">
-        <v>0.4793014285263553</v>
-      </c>
-      <c r="J11">
-        <v>0.05620314941177806</v>
-      </c>
       <c r="K11">
-        <v>1.334428000237551</v>
+        <v>2.247097801097297</v>
       </c>
       <c r="L11">
-        <v>0.2192439161030109</v>
+        <v>0.05239757891755126</v>
       </c>
       <c r="M11">
-        <v>0.3151138860600042</v>
+        <v>1.48470772486607</v>
       </c>
       <c r="N11">
-        <v>0.9040613860981557</v>
+        <v>0.1297970439344027</v>
       </c>
       <c r="O11">
-        <v>2.217106335572538</v>
-      </c>
-    </row>
-    <row r="12" spans="1:15">
+        <v>0.2472989866849638</v>
+      </c>
+      <c r="P11">
+        <v>0</v>
+      </c>
+      <c r="Q11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:17">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.52245666987568</v>
+        <v>1.335142884289041</v>
       </c>
       <c r="C12">
-        <v>0.1242247974910242</v>
+        <v>0.2649872461122698</v>
       </c>
       <c r="D12">
-        <v>0.1087925521477473</v>
+        <v>0.003484579332742044</v>
       </c>
       <c r="E12">
-        <v>0.05180783176724724</v>
+        <v>0.01001968733900194</v>
       </c>
       <c r="F12">
-        <v>0.9026335610630269</v>
+        <v>3.075050874231536</v>
       </c>
       <c r="G12">
         <v>0</v>
       </c>
       <c r="H12">
+        <v>0.08954530748649603</v>
+      </c>
+      <c r="I12">
+        <v>0.03875087947980127</v>
+      </c>
+      <c r="J12">
         <v>0.0267246236506935</v>
       </c>
-      <c r="I12">
-        <v>0.4793791220186989</v>
-      </c>
-      <c r="J12">
-        <v>0.05586528175217786</v>
-      </c>
       <c r="K12">
-        <v>1.368677559984121</v>
+        <v>1.943291617937945</v>
       </c>
       <c r="L12">
-        <v>0.2232558217782241</v>
+        <v>0.04716211473340515</v>
       </c>
       <c r="M12">
-        <v>0.322706354546682</v>
+        <v>1.528795484859813</v>
       </c>
       <c r="N12">
-        <v>0.8926984334166819</v>
+        <v>0.09785980120161497</v>
       </c>
       <c r="O12">
-        <v>2.227399276825537</v>
-      </c>
-    </row>
-    <row r="13" spans="1:15">
+        <v>0.2339068304314935</v>
+      </c>
+      <c r="P12">
+        <v>0</v>
+      </c>
+      <c r="Q12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.514352576665232</v>
+        <v>1.336357982198535</v>
       </c>
       <c r="C13">
-        <v>0.1237798700017976</v>
+        <v>0.2629292619372734</v>
       </c>
       <c r="D13">
-        <v>0.1083233136756689</v>
+        <v>0.002618633599332454</v>
       </c>
       <c r="E13">
-        <v>0.05175000875808955</v>
+        <v>0.01102233351665127</v>
       </c>
       <c r="F13">
-        <v>0.9012665522716219</v>
+        <v>2.634971583851339</v>
       </c>
       <c r="G13">
         <v>0</v>
       </c>
       <c r="H13">
+        <v>0.1472453129039479</v>
+      </c>
+      <c r="I13">
+        <v>0.04076573144530382</v>
+      </c>
+      <c r="J13">
         <v>0.02672462365057982</v>
       </c>
-      <c r="I13">
-        <v>0.4793562455052083</v>
-      </c>
-      <c r="J13">
-        <v>0.05593773049588613</v>
-      </c>
       <c r="K13">
-        <v>1.361297960832445</v>
+        <v>1.650706625347851</v>
       </c>
       <c r="L13">
-        <v>0.2223904622391331</v>
+        <v>0.04847116166023646</v>
       </c>
       <c r="M13">
-        <v>0.3210699248003763</v>
+        <v>1.526887677163671</v>
       </c>
       <c r="N13">
-        <v>0.8951368041897994</v>
+        <v>0.06966536826976721</v>
       </c>
       <c r="O13">
-        <v>2.225153330835354</v>
-      </c>
-    </row>
-    <row r="14" spans="1:15">
+        <v>0.2148014704495651</v>
+      </c>
+      <c r="P13">
+        <v>0</v>
+      </c>
+      <c r="Q13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.487940371557812</v>
+        <v>1.319088797518106</v>
       </c>
       <c r="C14">
-        <v>0.1223292512873542</v>
+        <v>0.2578815692630485</v>
       </c>
       <c r="D14">
-        <v>0.1067947815298851</v>
+        <v>0.002324116902650664</v>
       </c>
       <c r="E14">
-        <v>0.05156270629027482</v>
+        <v>0.0125261836699968</v>
       </c>
       <c r="F14">
-        <v>0.8968488952033624</v>
+        <v>2.330869588010373</v>
       </c>
       <c r="G14">
         <v>0</v>
       </c>
       <c r="H14">
+        <v>0.1985077760933223</v>
+      </c>
+      <c r="I14">
+        <v>0.04325450274847586</v>
+      </c>
+      <c r="J14">
         <v>0.02672462365057982</v>
       </c>
-      <c r="I14">
-        <v>0.4793050619806039</v>
-      </c>
-      <c r="J14">
-        <v>0.05617521013247195</v>
-      </c>
       <c r="K14">
-        <v>1.337244242413192</v>
+        <v>1.453356916485845</v>
       </c>
       <c r="L14">
-        <v>0.2195733844677932</v>
+        <v>0.05339264237220576</v>
       </c>
       <c r="M14">
-        <v>0.3157379613240607</v>
+        <v>1.504979379045324</v>
       </c>
       <c r="N14">
-        <v>0.9031225739489338</v>
+        <v>0.05253032016289083</v>
       </c>
       <c r="O14">
-        <v>2.217940048694885</v>
-      </c>
-    </row>
-    <row r="15" spans="1:15">
+        <v>0.1990356158002378</v>
+      </c>
+      <c r="P14">
+        <v>0</v>
+      </c>
+      <c r="Q14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.471774967969537</v>
+        <v>1.306141115408451</v>
       </c>
       <c r="C15">
-        <v>0.1214409872398079</v>
+        <v>0.2551608766545428</v>
       </c>
       <c r="D15">
-        <v>0.1058598479627761</v>
+        <v>0.002307755613926155</v>
       </c>
       <c r="E15">
-        <v>0.05144894978078973</v>
+        <v>0.01292783868374681</v>
       </c>
       <c r="F15">
-        <v>0.8941737939093315</v>
+        <v>2.249828235082603</v>
       </c>
       <c r="G15">
         <v>0</v>
       </c>
       <c r="H15">
+        <v>0.2118975092007958</v>
+      </c>
+      <c r="I15">
+        <v>0.04452251048418443</v>
+      </c>
+      <c r="J15">
         <v>0.02672462365057982</v>
       </c>
-      <c r="I15">
-        <v>0.4792915824450859</v>
-      </c>
-      <c r="J15">
-        <v>0.05632159957125626</v>
-      </c>
       <c r="K15">
-        <v>1.322520237278553</v>
+        <v>1.401859898938042</v>
       </c>
       <c r="L15">
-        <v>0.2178516839937998</v>
+        <v>0.05495186146920972</v>
       </c>
       <c r="M15">
-        <v>0.3124756077466486</v>
+        <v>1.490060845989888</v>
       </c>
       <c r="N15">
-        <v>0.9080398659337863</v>
+        <v>0.04864513578712248</v>
       </c>
       <c r="O15">
-        <v>2.213606503274008</v>
-      </c>
-    </row>
-    <row r="16" spans="1:15">
+        <v>0.1940664444326359</v>
+      </c>
+      <c r="P15">
+        <v>0</v>
+      </c>
+      <c r="Q15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.379324899556565</v>
+        <v>1.224564514013991</v>
       </c>
       <c r="C16">
-        <v>0.1163544091495368</v>
+        <v>0.2384436772581751</v>
       </c>
       <c r="D16">
-        <v>0.1005220697654252</v>
+        <v>0.002495404151139358</v>
       </c>
       <c r="E16">
-        <v>0.05081174890910845</v>
+        <v>0.0120004178830051</v>
       </c>
       <c r="F16">
-        <v>0.8793066010641084</v>
+        <v>2.200835347908495</v>
       </c>
       <c r="G16">
         <v>0</v>
       </c>
       <c r="H16">
+        <v>0.2035082816006906</v>
+      </c>
+      <c r="I16">
+        <v>0.04971193339167179</v>
+      </c>
+      <c r="J16">
         <v>0.02672462365057982</v>
       </c>
-      <c r="I16">
-        <v>0.4794831498239986</v>
-      </c>
-      <c r="J16">
-        <v>0.05717460000423902</v>
-      </c>
       <c r="K16">
-        <v>1.238281348159489</v>
+        <v>1.379336424965146</v>
       </c>
       <c r="L16">
-        <v>0.2080426521824279</v>
+        <v>0.0520786626164309</v>
       </c>
       <c r="M16">
-        <v>0.2938338596734056</v>
+        <v>1.396667560893405</v>
       </c>
       <c r="N16">
-        <v>0.936608771668173</v>
+        <v>0.04740519905643836</v>
       </c>
       <c r="O16">
-        <v>2.190044915664259</v>
-      </c>
-    </row>
-    <row r="17" spans="1:15">
+        <v>0.1830291992822524</v>
+      </c>
+      <c r="P16">
+        <v>0</v>
+      </c>
+      <c r="Q16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:17">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.322766952341624</v>
+        <v>1.171333171308333</v>
       </c>
       <c r="C17">
-        <v>0.1132366127849309</v>
+        <v>0.2284310746035345</v>
       </c>
       <c r="D17">
-        <v>0.09726474434627619</v>
+        <v>0.002749854243541794</v>
       </c>
       <c r="E17">
-        <v>0.05043374205028783</v>
+        <v>0.01034487628699132</v>
       </c>
       <c r="F17">
-        <v>0.870588343453754</v>
+        <v>2.319773160461907</v>
       </c>
       <c r="G17">
         <v>0</v>
       </c>
       <c r="H17">
+        <v>0.1680962498822964</v>
+      </c>
+      <c r="I17">
+        <v>0.05244536285823109</v>
+      </c>
+      <c r="J17">
         <v>0.02672462365057982</v>
       </c>
-      <c r="I17">
-        <v>0.4798350947433754</v>
-      </c>
-      <c r="J17">
-        <v>0.05771036902953242</v>
-      </c>
       <c r="K17">
-        <v>1.186717930437425</v>
+        <v>1.462971332365235</v>
       </c>
       <c r="L17">
-        <v>0.2020746603404291</v>
+        <v>0.04650625281538545</v>
       </c>
       <c r="M17">
-        <v>0.2824432147031857</v>
+        <v>1.336947003652824</v>
       </c>
       <c r="N17">
-        <v>0.9544772381152948</v>
+        <v>0.05500023919489294</v>
       </c>
       <c r="O17">
-        <v>2.176696592585586</v>
-      </c>
-    </row>
-    <row r="18" spans="1:15">
+        <v>0.1828497010691983</v>
+      </c>
+      <c r="P17">
+        <v>0</v>
+      </c>
+      <c r="Q17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:17">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.290290218701927</v>
+        <v>1.13672990659046</v>
       </c>
       <c r="C18">
-        <v>0.1114440636440435</v>
+        <v>0.2222276316822587</v>
       </c>
       <c r="D18">
-        <v>0.09539732679986201</v>
+        <v>0.003362099943350572</v>
       </c>
       <c r="E18">
-        <v>0.05022097819290927</v>
+        <v>0.008720299257705566</v>
       </c>
       <c r="F18">
-        <v>0.8657175526581611</v>
+        <v>2.6230359121422</v>
       </c>
       <c r="G18">
         <v>0</v>
       </c>
       <c r="H18">
+        <v>0.1156103105328015</v>
+      </c>
+      <c r="I18">
+        <v>0.05266047783608663</v>
+      </c>
+      <c r="J18">
         <v>0.02672462365057982</v>
       </c>
-      <c r="I18">
-        <v>0.480121563771057</v>
-      </c>
-      <c r="J18">
-        <v>0.05802307610989743</v>
-      </c>
       <c r="K18">
-        <v>1.157098539126338</v>
+        <v>1.668134905377045</v>
       </c>
       <c r="L18">
-        <v>0.1986595996363221</v>
+        <v>0.04186082060008189</v>
       </c>
       <c r="M18">
-        <v>0.2759074504903367</v>
+        <v>1.298563683655658</v>
       </c>
       <c r="N18">
-        <v>0.9648783770089377</v>
+        <v>0.07333819452654211</v>
       </c>
       <c r="O18">
-        <v>2.169414078605683</v>
-      </c>
-    </row>
-    <row r="19" spans="1:15">
+        <v>0.1919551745615315</v>
+      </c>
+      <c r="P18">
+        <v>0</v>
+      </c>
+      <c r="Q18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:17">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.279303054990436</v>
+        <v>1.118587606506253</v>
       </c>
       <c r="C19">
-        <v>0.1108372386834588</v>
+        <v>0.2208978370286161</v>
       </c>
       <c r="D19">
-        <v>0.09476608011826215</v>
+        <v>0.004526971504035693</v>
       </c>
       <c r="E19">
-        <v>0.0501497318859947</v>
+        <v>0.008482305052540884</v>
       </c>
       <c r="F19">
-        <v>0.8640926885370561</v>
+        <v>3.058417203156438</v>
       </c>
       <c r="G19">
         <v>0</v>
       </c>
       <c r="H19">
+        <v>0.06851376751478</v>
+      </c>
+      <c r="I19">
+        <v>0.0514085179503736</v>
+      </c>
+      <c r="J19">
         <v>0.02672462365057982</v>
       </c>
-      <c r="I19">
-        <v>0.4802327952014593</v>
-      </c>
-      <c r="J19">
-        <v>0.05812973058941573</v>
-      </c>
       <c r="K19">
-        <v>1.147076212396001</v>
+        <v>1.961987615363896</v>
       </c>
       <c r="L19">
-        <v>0.1975062778425993</v>
+        <v>0.04413245559243695</v>
       </c>
       <c r="M19">
-        <v>0.2736971914502888</v>
+        <v>1.28116084116823</v>
       </c>
       <c r="N19">
-        <v>0.9684210646716915</v>
+        <v>0.1033647325786191</v>
       </c>
       <c r="O19">
-        <v>2.167015148807877</v>
-      </c>
-    </row>
-    <row r="20" spans="1:15">
+        <v>0.2083710246703916</v>
+      </c>
+      <c r="P19">
+        <v>0</v>
+      </c>
+      <c r="Q19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:17">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.328781978253744</v>
+        <v>1.149241889859354</v>
       </c>
       <c r="C20">
-        <v>0.1135684269725772</v>
+        <v>0.2307689550057148</v>
       </c>
       <c r="D20">
-        <v>0.09761085493144606</v>
+        <v>0.007251529401388623</v>
       </c>
       <c r="E20">
-        <v>0.05047349782986288</v>
+        <v>0.0119148399441098</v>
       </c>
       <c r="F20">
-        <v>0.8715014509813201</v>
+        <v>3.888357234034402</v>
       </c>
       <c r="G20">
         <v>0</v>
       </c>
       <c r="H20">
+        <v>0.03486924500239397</v>
+      </c>
+      <c r="I20">
+        <v>0.04499197256650334</v>
+      </c>
+      <c r="J20">
         <v>0.02672462365057982</v>
       </c>
-      <c r="I20">
-        <v>0.479788884983833</v>
-      </c>
-      <c r="J20">
-        <v>0.05765286403051118</v>
-      </c>
       <c r="K20">
-        <v>1.192202879300254</v>
+        <v>2.522641291575411</v>
       </c>
       <c r="L20">
-        <v>0.2027081307721161</v>
+        <v>0.06466379471195438</v>
       </c>
       <c r="M20">
-        <v>0.2836541102243544</v>
+        <v>1.321464880016009</v>
       </c>
       <c r="N20">
-        <v>0.9525622623100923</v>
+        <v>0.1640359361515209</v>
       </c>
       <c r="O20">
-        <v>2.178076402572685</v>
-      </c>
-    </row>
-    <row r="21" spans="1:15">
+        <v>0.2446288137456101</v>
+      </c>
+      <c r="P20">
+        <v>0</v>
+      </c>
+      <c r="Q20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:17">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.495695578883186</v>
+        <v>1.292149311829263</v>
       </c>
       <c r="C21">
-        <v>0.1227552729419585</v>
+        <v>0.2619953273037652</v>
       </c>
       <c r="D21">
-        <v>0.1072434686436736</v>
+        <v>0.007658480011286883</v>
       </c>
       <c r="E21">
-        <v>0.05161751858464392</v>
+        <v>0.01389785707420188</v>
       </c>
       <c r="F21">
-        <v>0.898140016680621</v>
+        <v>4.264798819514169</v>
       </c>
       <c r="G21">
         <v>0</v>
       </c>
       <c r="H21">
+        <v>0.0266758759808301</v>
+      </c>
+      <c r="I21">
+        <v>0.03555363520805344</v>
+      </c>
+      <c r="J21">
         <v>0.02672462365057982</v>
       </c>
-      <c r="I21">
-        <v>0.479316358944196</v>
-      </c>
-      <c r="J21">
-        <v>0.0561052633332686</v>
-      </c>
       <c r="K21">
-        <v>1.344307382772683</v>
+        <v>2.757376768374257</v>
       </c>
       <c r="L21">
-        <v>0.2204000243113313</v>
+        <v>0.07369526778245827</v>
       </c>
       <c r="M21">
-        <v>0.3173033270098387</v>
+        <v>1.487956954826188</v>
       </c>
       <c r="N21">
-        <v>0.9007715751850468</v>
+        <v>0.1873698629230844</v>
       </c>
       <c r="O21">
-        <v>2.220041025899747</v>
-      </c>
-    </row>
-    <row r="22" spans="1:15">
+        <v>0.2766211453478249</v>
+      </c>
+      <c r="P21">
+        <v>0</v>
+      </c>
+      <c r="Q21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:17">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.605347187601637</v>
+        <v>1.387366742407352</v>
       </c>
       <c r="C22">
-        <v>0.1287713354905833</v>
+        <v>0.2819755457176996</v>
       </c>
       <c r="D22">
-        <v>0.1135981538483861</v>
+        <v>0.007917413778155691</v>
       </c>
       <c r="E22">
-        <v>0.0524084648416423</v>
+        <v>0.01498721629902633</v>
       </c>
       <c r="F22">
-        <v>0.9169190226960637</v>
+        <v>4.491890981277464</v>
       </c>
       <c r="G22">
         <v>0</v>
       </c>
       <c r="H22">
+        <v>0.02221733363548606</v>
+      </c>
+      <c r="I22">
+        <v>0.02982149701480719</v>
+      </c>
+      <c r="J22">
         <v>0.02672462365057982</v>
       </c>
-      <c r="I22">
-        <v>0.4798016888180143</v>
-      </c>
-      <c r="J22">
-        <v>0.05513516775657834</v>
-      </c>
       <c r="K22">
-        <v>1.444136167822961</v>
+        <v>2.898782144826654</v>
       </c>
       <c r="L22">
-        <v>0.2321328905217257</v>
+        <v>0.07862502769278379</v>
       </c>
       <c r="M22">
-        <v>0.3394550325584405</v>
+        <v>1.597593430371603</v>
       </c>
       <c r="N22">
-        <v>0.8680712491844643</v>
+        <v>0.1992026327603327</v>
       </c>
       <c r="O22">
-        <v>2.251231791502306</v>
-      </c>
-    </row>
-    <row r="23" spans="1:15">
+        <v>0.2961317390008631</v>
+      </c>
+      <c r="P22">
+        <v>0</v>
+      </c>
+      <c r="Q22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:17">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.54676823562059</v>
+        <v>1.337166737804836</v>
       </c>
       <c r="C23">
-        <v>0.1255590809336269</v>
+        <v>0.2703850072072385</v>
       </c>
       <c r="D23">
-        <v>0.1102008794173202</v>
+        <v>0.007942655974428448</v>
       </c>
       <c r="E23">
-        <v>0.05198227311381309</v>
+        <v>0.01440105646014267</v>
       </c>
       <c r="F23">
-        <v>0.9067665519218053</v>
+        <v>4.388353239046637</v>
       </c>
       <c r="G23">
         <v>0</v>
       </c>
       <c r="H23">
+        <v>0.02449405460836296</v>
+      </c>
+      <c r="I23">
+        <v>0.03237929403231377</v>
+      </c>
+      <c r="J23">
         <v>0.02672462365057982</v>
       </c>
-      <c r="I23">
-        <v>0.4794676973478573</v>
-      </c>
-      <c r="J23">
-        <v>0.05564909935314066</v>
-      </c>
       <c r="K23">
-        <v>1.390813401066907</v>
+        <v>2.836953198344403</v>
       </c>
       <c r="L23">
-        <v>0.2258545769858671</v>
+        <v>0.07629790261891145</v>
       </c>
       <c r="M23">
-        <v>0.3276166547517931</v>
+        <v>1.538346701687232</v>
       </c>
       <c r="N23">
-        <v>0.8854166604444567</v>
+        <v>0.1923652590639051</v>
       </c>
       <c r="O23">
-        <v>2.234227882034048</v>
-      </c>
-    </row>
-    <row r="24" spans="1:15">
+        <v>0.2855489965200064</v>
+      </c>
+      <c r="P23">
+        <v>0</v>
+      </c>
+      <c r="Q23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:17">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.326062463899774</v>
+        <v>1.147067775960124</v>
       </c>
       <c r="C24">
-        <v>0.1134184141068033</v>
+        <v>0.228979143752511</v>
       </c>
       <c r="D24">
-        <v>0.09745436199735025</v>
+        <v>0.007743151534578274</v>
       </c>
       <c r="E24">
-        <v>0.05045551006652715</v>
+        <v>0.012255630057731</v>
       </c>
       <c r="F24">
-        <v>0.8710881954481096</v>
+        <v>3.968821026376276</v>
       </c>
       <c r="G24">
         <v>0</v>
       </c>
       <c r="H24">
+        <v>0.03438705522752183</v>
+      </c>
+      <c r="I24">
+        <v>0.04415905253225816</v>
+      </c>
+      <c r="J24">
         <v>0.02672462365057982</v>
       </c>
-      <c r="I24">
-        <v>0.4798095148636108</v>
-      </c>
-      <c r="J24">
-        <v>0.0576788474531158</v>
-      </c>
       <c r="K24">
-        <v>1.189723056554698</v>
+        <v>2.580709086711821</v>
       </c>
       <c r="L24">
-        <v>0.2024216890485988</v>
+        <v>0.06708686860189417</v>
       </c>
       <c r="M24">
-        <v>0.2831066244801335</v>
+        <v>1.317126359156447</v>
       </c>
       <c r="N24">
-        <v>0.9534276236917425</v>
+        <v>0.1675279930062175</v>
       </c>
       <c r="O24">
-        <v>2.177451373358195</v>
-      </c>
-    </row>
-    <row r="25" spans="1:15">
+        <v>0.245988237757043</v>
+      </c>
+      <c r="P24">
+        <v>0</v>
+      </c>
+      <c r="Q24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:17">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.090012910935172</v>
+        <v>0.9439898882468185</v>
       </c>
       <c r="C25">
-        <v>0.1003477080795676</v>
+        <v>0.1862182153471537</v>
       </c>
       <c r="D25">
-        <v>0.08393624413595546</v>
+        <v>0.007472492510006035</v>
       </c>
       <c r="E25">
-        <v>0.0489856983718937</v>
+        <v>0.0100645989071193</v>
       </c>
       <c r="F25">
-        <v>0.8380518138593658</v>
+        <v>3.519124516303577</v>
       </c>
       <c r="G25">
         <v>0</v>
       </c>
       <c r="H25">
+        <v>0.04741522270991583</v>
+      </c>
+      <c r="I25">
+        <v>0.05966141126297408</v>
+      </c>
+      <c r="J25">
         <v>0.02672462365057982</v>
       </c>
-      <c r="I25">
-        <v>0.4833675660220216</v>
-      </c>
-      <c r="J25">
-        <v>0.060041651657877</v>
-      </c>
       <c r="K25">
-        <v>0.9742478592196449</v>
+        <v>2.304657870290981</v>
       </c>
       <c r="L25">
-        <v>0.1778101403262013</v>
+        <v>0.05732150563048677</v>
       </c>
       <c r="M25">
-        <v>0.2356908510158036</v>
+        <v>1.082309244425062</v>
       </c>
       <c r="N25">
-        <v>1.031492709248524</v>
+        <v>0.1411164235357418</v>
       </c>
       <c r="O25">
-        <v>2.131186827663868</v>
+        <v>0.2037737035498566</v>
+      </c>
+      <c r="P25">
+        <v>0</v>
+      </c>
+      <c r="Q25">
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_5_23/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_5_23/res_line/pl_mw.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q25"/>
+  <dimension ref="A1:S25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:17">
+    <row r="1" spans="1:19">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -421,1276 +421,1426 @@
       <c r="Q1" s="1">
         <v>15</v>
       </c>
-    </row>
-    <row r="2" spans="1:17">
+      <c r="R1" s="1">
+        <v>16</v>
+      </c>
+      <c r="S1" s="1">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="2" spans="1:19">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0.797179569150785</v>
+        <v>0.7650868471856143</v>
       </c>
       <c r="C2">
-        <v>0.1539517484663264</v>
+        <v>0.2011593338155251</v>
       </c>
       <c r="D2">
-        <v>0.007627805600739279</v>
+        <v>0.002866199703705163</v>
       </c>
       <c r="E2">
-        <v>0.00852227594758137</v>
+        <v>0.01009716806981942</v>
       </c>
       <c r="F2">
-        <v>3.232125083373134</v>
+        <v>2.345865985703767</v>
       </c>
       <c r="G2">
         <v>0</v>
       </c>
       <c r="H2">
-        <v>0.05866350492856753</v>
+        <v>0.04750309205726166</v>
       </c>
       <c r="I2">
-        <v>0.07204244023290851</v>
+        <v>0.05348582268710711</v>
       </c>
       <c r="J2">
-        <v>0.0267246236506935</v>
+        <v>0.07607150459153801</v>
       </c>
       <c r="K2">
-        <v>2.134027361372233</v>
+        <v>1.439008449258537</v>
       </c>
       <c r="L2">
-        <v>0.05092216072473121</v>
+        <v>0.5242494613422011</v>
       </c>
       <c r="M2">
-        <v>0.9103108717406201</v>
+        <v>0.5520214591513977</v>
       </c>
       <c r="N2">
-        <v>0.12070366701316</v>
+        <v>0.0392539046384055</v>
       </c>
       <c r="O2">
-        <v>0.1725961020612488</v>
+        <v>0.9468630527717607</v>
       </c>
       <c r="P2">
-        <v>0</v>
+        <v>0.1594761278766654</v>
       </c>
       <c r="Q2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:17">
+        <v>0.1807603632088615</v>
+      </c>
+      <c r="R2">
+        <v>0</v>
+      </c>
+      <c r="S2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:19">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0.6973387891129619</v>
+        <v>0.6677355584055533</v>
       </c>
       <c r="C3">
-        <v>0.133976322216725</v>
+        <v>0.1753836418787245</v>
       </c>
       <c r="D3">
-        <v>0.007469203092961507</v>
+        <v>0.002766252144395409</v>
       </c>
       <c r="E3">
-        <v>0.007513203234591703</v>
+        <v>0.00902827767667258</v>
       </c>
       <c r="F3">
-        <v>3.013080978721248</v>
+        <v>2.232205338877179</v>
       </c>
       <c r="G3">
         <v>0</v>
       </c>
       <c r="H3">
-        <v>0.06743575791781709</v>
+        <v>0.05463787860836344</v>
       </c>
       <c r="I3">
-        <v>0.08230643302492746</v>
+        <v>0.0611594436805647</v>
       </c>
       <c r="J3">
-        <v>0.0267246236506935</v>
+        <v>0.07607150459153705</v>
       </c>
       <c r="K3">
-        <v>1.998784936378996</v>
+        <v>1.382073148452449</v>
       </c>
       <c r="L3">
-        <v>0.0461715415738464</v>
+        <v>0.5109206232198673</v>
       </c>
       <c r="M3">
-        <v>0.7958927583690638</v>
+        <v>0.5251885683470618</v>
       </c>
       <c r="N3">
-        <v>0.1076929275497633</v>
+        <v>0.03627558496429018</v>
       </c>
       <c r="O3">
-        <v>0.1518251443068017</v>
+        <v>0.8258109406609151</v>
       </c>
       <c r="P3">
-        <v>0</v>
+        <v>0.1428279698257313</v>
       </c>
       <c r="Q3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:17">
+        <v>0.1586116406801885</v>
+      </c>
+      <c r="R3">
+        <v>0</v>
+      </c>
+      <c r="S3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:19">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>0.6362149106226127</v>
+        <v>0.6079753878032648</v>
       </c>
       <c r="C4">
-        <v>0.1220377430952766</v>
+        <v>0.1599629682067558</v>
       </c>
       <c r="D4">
-        <v>0.007349412747505113</v>
+        <v>0.00271611211561229</v>
       </c>
       <c r="E4">
-        <v>0.006906187772742989</v>
+        <v>0.008380811717922931</v>
       </c>
       <c r="F4">
-        <v>2.877783561440069</v>
+        <v>2.161703313453557</v>
       </c>
       <c r="G4">
         <v>0</v>
       </c>
       <c r="H4">
-        <v>0.07332038586984524</v>
+        <v>0.05943085164728634</v>
       </c>
       <c r="I4">
-        <v>0.08920975081032756</v>
+        <v>0.0663441077452549</v>
       </c>
       <c r="J4">
-        <v>0.0267246236506935</v>
+        <v>0.07607150459153784</v>
       </c>
       <c r="K4">
-        <v>1.914811226213104</v>
+        <v>1.34632939779727</v>
       </c>
       <c r="L4">
-        <v>0.04323533381168332</v>
+        <v>0.5020366548674104</v>
       </c>
       <c r="M4">
-        <v>0.7261722016422709</v>
+        <v>0.5093871778406935</v>
       </c>
       <c r="N4">
-        <v>0.09977285484971077</v>
+        <v>0.03442342083086025</v>
       </c>
       <c r="O4">
-        <v>0.139131880264312</v>
+        <v>0.751892923631317</v>
       </c>
       <c r="P4">
-        <v>0</v>
+        <v>0.1326999045138137</v>
       </c>
       <c r="Q4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:17">
+        <v>0.1450619502067987</v>
+      </c>
+      <c r="R4">
+        <v>0</v>
+      </c>
+      <c r="S4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:19">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0.6111960813313146</v>
+        <v>0.583494856164549</v>
       </c>
       <c r="C5">
-        <v>0.1174644471343669</v>
+        <v>0.1539770816408463</v>
       </c>
       <c r="D5">
-        <v>0.007252370676906317</v>
+        <v>0.002711594297436726</v>
       </c>
       <c r="E5">
-        <v>0.006661985873164245</v>
+        <v>0.008119094083013145</v>
       </c>
       <c r="F5">
-        <v>2.81797211956453</v>
+        <v>2.129752362508796</v>
       </c>
       <c r="G5">
         <v>0</v>
       </c>
       <c r="H5">
-        <v>0.07586313631947394</v>
+        <v>0.06150225634508599</v>
       </c>
       <c r="I5">
-        <v>0.0923074411732685</v>
+        <v>0.06871321777580697</v>
       </c>
       <c r="J5">
-        <v>0.0267246236506935</v>
+        <v>0.07607150459153798</v>
       </c>
       <c r="K5">
-        <v>1.876916780225486</v>
+        <v>1.329357431612827</v>
       </c>
       <c r="L5">
-        <v>0.04195884142295547</v>
+        <v>0.497339178751254</v>
       </c>
       <c r="M5">
-        <v>0.6980539130928207</v>
+        <v>0.5023723709688781</v>
       </c>
       <c r="N5">
-        <v>0.096685269222057</v>
+        <v>0.03361914084314144</v>
       </c>
       <c r="O5">
-        <v>0.134013107661783</v>
+        <v>0.7220047253702546</v>
       </c>
       <c r="P5">
-        <v>0</v>
+        <v>0.1287076391764757</v>
       </c>
       <c r="Q5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:17">
+        <v>0.1395852177955881</v>
+      </c>
+      <c r="R5">
+        <v>0</v>
+      </c>
+      <c r="S5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:19">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.6068635180112949</v>
+        <v>0.5792759572484556</v>
       </c>
       <c r="C6">
-        <v>0.1169744721170076</v>
+        <v>0.1532377161008043</v>
       </c>
       <c r="D6">
-        <v>0.007184351307718551</v>
+        <v>0.002727796254656134</v>
       </c>
       <c r="E6">
-        <v>0.006622295893160768</v>
+        <v>0.008076234793657378</v>
       </c>
       <c r="F6">
-        <v>2.802575882631388</v>
+        <v>2.120729448096014</v>
       </c>
       <c r="G6">
         <v>0</v>
       </c>
       <c r="H6">
-        <v>0.07632091985609168</v>
+        <v>0.06187369415624477</v>
       </c>
       <c r="I6">
-        <v>0.09300601570452915</v>
+        <v>0.06929403315189298</v>
       </c>
       <c r="J6">
-        <v>0.0267246236506935</v>
+        <v>0.07607150459142333</v>
       </c>
       <c r="K6">
-        <v>1.86641535489693</v>
+        <v>1.32383300479065</v>
       </c>
       <c r="L6">
-        <v>0.04165647321535459</v>
+        <v>0.4954497263807269</v>
       </c>
       <c r="M6">
-        <v>0.6936042631585337</v>
+        <v>0.5003089277773398</v>
       </c>
       <c r="N6">
-        <v>0.09632595854954218</v>
+        <v>0.03343312943975718</v>
       </c>
       <c r="O6">
-        <v>0.1332136073448105</v>
+        <v>0.7172220999296428</v>
       </c>
       <c r="P6">
-        <v>0</v>
+        <v>0.1281847802795042</v>
       </c>
       <c r="Q6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:17">
+        <v>0.1387180881564554</v>
+      </c>
+      <c r="R6">
+        <v>0</v>
+      </c>
+      <c r="S6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:19">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.6353802410840785</v>
+        <v>0.607222232547457</v>
       </c>
       <c r="C7">
-        <v>0.1227002655034966</v>
+        <v>0.1605637783040379</v>
       </c>
       <c r="D7">
-        <v>0.007206362948944722</v>
+        <v>0.002763607933545131</v>
       </c>
       <c r="E7">
-        <v>0.006904805061171526</v>
+        <v>0.008378648409875566</v>
       </c>
       <c r="F7">
-        <v>2.862074042883108</v>
+        <v>2.151175244996324</v>
       </c>
       <c r="G7">
         <v>0</v>
       </c>
       <c r="H7">
-        <v>0.07342911886504222</v>
+        <v>0.05951500409142518</v>
       </c>
       <c r="I7">
-        <v>0.08970815273983845</v>
+        <v>0.06684495613306751</v>
       </c>
       <c r="J7">
-        <v>0.0267246236506935</v>
+        <v>0.07593571568737367</v>
       </c>
       <c r="K7">
-        <v>1.902830561786999</v>
+        <v>1.338764847577664</v>
       </c>
       <c r="L7">
-        <v>0.04297113992790536</v>
+        <v>0.4990157761540956</v>
       </c>
       <c r="M7">
-        <v>0.7263702147936613</v>
+        <v>0.506782599132265</v>
       </c>
       <c r="N7">
-        <v>0.1001483652146078</v>
+        <v>0.03427079029880353</v>
       </c>
       <c r="O7">
-        <v>0.1391984237946566</v>
+        <v>0.7519658099372464</v>
       </c>
       <c r="P7">
-        <v>0</v>
+        <v>0.1330262217211384</v>
       </c>
       <c r="Q7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:17">
+        <v>0.1451017255928839</v>
+      </c>
+      <c r="R7">
+        <v>0</v>
+      </c>
+      <c r="S7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:19">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0.7620322464978813</v>
+        <v>0.7309386068731385</v>
       </c>
       <c r="C8">
-        <v>0.1479554887173151</v>
+        <v>0.1930939998373873</v>
       </c>
       <c r="D8">
-        <v>0.007389488651215359</v>
+        <v>0.002901364440712761</v>
       </c>
       <c r="E8">
-        <v>0.008173707027148147</v>
+        <v>0.009728202427293553</v>
       </c>
       <c r="F8">
-        <v>3.136998226245467</v>
+        <v>2.293576137524738</v>
       </c>
       <c r="G8">
         <v>0</v>
       </c>
       <c r="H8">
-        <v>0.06167043821965823</v>
+        <v>0.04994142187848594</v>
       </c>
       <c r="I8">
-        <v>0.07599964265955883</v>
+        <v>0.05659386150255585</v>
       </c>
       <c r="J8">
-        <v>0.0267246236506935</v>
+        <v>0.07609806137284103</v>
       </c>
       <c r="K8">
-        <v>2.072373951571237</v>
+        <v>1.409942039458073</v>
       </c>
       <c r="L8">
-        <v>0.04895596129874136</v>
+        <v>0.5160684103915045</v>
       </c>
       <c r="M8">
-        <v>0.8714917475479069</v>
+        <v>0.5392028153396353</v>
       </c>
       <c r="N8">
-        <v>0.1167584883052228</v>
+        <v>0.03804523395111481</v>
       </c>
       <c r="O8">
-        <v>0.1655992579768615</v>
+        <v>0.9056533624413703</v>
       </c>
       <c r="P8">
-        <v>0</v>
+        <v>0.1542240909167134</v>
       </c>
       <c r="Q8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:17">
+        <v>0.1732619539196101</v>
+      </c>
+      <c r="R8">
+        <v>0</v>
+      </c>
+      <c r="S8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:19">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.013149835702336</v>
+        <v>0.9747332633284884</v>
       </c>
       <c r="C9">
-        <v>0.1990795413412911</v>
+        <v>0.259207900716234</v>
       </c>
       <c r="D9">
-        <v>0.007822543363253942</v>
+        <v>0.003169322930249407</v>
       </c>
       <c r="E9">
-        <v>0.01078639242381918</v>
+        <v>0.01246649918279719</v>
       </c>
       <c r="F9">
-        <v>3.697183715576784</v>
+        <v>2.58541118880315</v>
       </c>
       <c r="G9">
         <v>0</v>
       </c>
       <c r="H9">
-        <v>0.04263419564249293</v>
+        <v>0.03449704024157185</v>
       </c>
       <c r="I9">
-        <v>0.05340266560582663</v>
+        <v>0.03968512194440166</v>
       </c>
       <c r="J9">
-        <v>0.0267246236506935</v>
+        <v>0.07618838127587857</v>
       </c>
       <c r="K9">
-        <v>2.418327589189587</v>
+        <v>1.556333586528282</v>
       </c>
       <c r="L9">
-        <v>0.06105409611045687</v>
+        <v>0.548938109765281</v>
       </c>
       <c r="M9">
-        <v>1.159980768830053</v>
+        <v>0.6129009241893613</v>
       </c>
       <c r="N9">
-        <v>0.1492046350006149</v>
+        <v>0.04555568055629777</v>
       </c>
       <c r="O9">
-        <v>0.2177015982439023</v>
+        <v>1.210016325113088</v>
       </c>
       <c r="P9">
-        <v>0</v>
+        <v>0.195937496646998</v>
       </c>
       <c r="Q9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:17">
+        <v>0.2287582783828235</v>
+      </c>
+      <c r="R9">
+        <v>0</v>
+      </c>
+      <c r="S9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:19">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.200169487397034</v>
+        <v>1.15593790218648</v>
       </c>
       <c r="C10">
-        <v>0.2391642952610766</v>
+        <v>0.3097539467003116</v>
       </c>
       <c r="D10">
-        <v>0.007625979052958698</v>
+        <v>0.003500906634704037</v>
       </c>
       <c r="E10">
-        <v>0.01235425668728585</v>
+        <v>0.0140580953615137</v>
       </c>
       <c r="F10">
-        <v>4.023288457734878</v>
+        <v>2.745940971078625</v>
       </c>
       <c r="G10">
         <v>0</v>
       </c>
       <c r="H10">
-        <v>0.03215008068349867</v>
+        <v>0.02604770452202576</v>
       </c>
       <c r="I10">
-        <v>0.0406704985921138</v>
+        <v>0.0303027774710527</v>
       </c>
       <c r="J10">
-        <v>0.0267246236506935</v>
+        <v>0.07897366448939458</v>
       </c>
       <c r="K10">
-        <v>2.610661955838665</v>
+        <v>1.62792365096908</v>
       </c>
       <c r="L10">
-        <v>0.06716728219396018</v>
+        <v>0.55819642107123</v>
       </c>
       <c r="M10">
-        <v>1.377036880429841</v>
+        <v>0.6578527444176245</v>
       </c>
       <c r="N10">
-        <v>0.1679008491000218</v>
+        <v>0.04955343119055122</v>
       </c>
       <c r="O10">
-        <v>0.2538491777601877</v>
+        <v>1.437211589259107</v>
       </c>
       <c r="P10">
-        <v>0</v>
+        <v>0.2201873379764834</v>
       </c>
       <c r="Q10">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:17">
+        <v>0.2670728535413716</v>
+      </c>
+      <c r="R10">
+        <v>0</v>
+      </c>
+      <c r="S10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:19">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.294202802432665</v>
+        <v>1.25229130774207</v>
       </c>
       <c r="C11">
-        <v>0.258509589253805</v>
+        <v>0.3253253751096565</v>
       </c>
       <c r="D11">
-        <v>0.004944811154717677</v>
+        <v>0.004158471626336535</v>
       </c>
       <c r="E11">
-        <v>0.01031047316517775</v>
+        <v>0.01168255516190375</v>
       </c>
       <c r="F11">
-        <v>3.516990657950856</v>
+        <v>2.416418216402363</v>
       </c>
       <c r="G11">
         <v>0</v>
       </c>
       <c r="H11">
-        <v>0.05014682411357185</v>
+        <v>0.04408340443751158</v>
       </c>
       <c r="I11">
-        <v>0.03876119940305411</v>
+        <v>0.02894363557671831</v>
       </c>
       <c r="J11">
-        <v>0.0267246236506935</v>
+        <v>0.09407249181950306</v>
       </c>
       <c r="K11">
-        <v>2.247097801097297</v>
+        <v>1.41056377544993</v>
       </c>
       <c r="L11">
-        <v>0.05239757891755126</v>
+        <v>0.4745886144324629</v>
       </c>
       <c r="M11">
-        <v>1.48470772486607</v>
+        <v>0.5800217606751161</v>
       </c>
       <c r="N11">
-        <v>0.1297970439344027</v>
+        <v>0.04410668515164451</v>
       </c>
       <c r="O11">
-        <v>0.2472989866849638</v>
+        <v>1.543502210217611</v>
       </c>
       <c r="P11">
-        <v>0</v>
+        <v>0.1731956890076418</v>
       </c>
       <c r="Q11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:17">
+        <v>0.2594013478380575</v>
+      </c>
+      <c r="R11">
+        <v>0</v>
+      </c>
+      <c r="S11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:19">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.335142884289041</v>
+        <v>1.29660668525139</v>
       </c>
       <c r="C12">
-        <v>0.2649872461122698</v>
+        <v>0.3262356311457211</v>
       </c>
       <c r="D12">
-        <v>0.003484579332742044</v>
+        <v>0.00465005220625514</v>
       </c>
       <c r="E12">
-        <v>0.01001968733900194</v>
+        <v>0.01115097878057147</v>
       </c>
       <c r="F12">
-        <v>3.075050874231536</v>
+        <v>2.137715806292093</v>
       </c>
       <c r="G12">
         <v>0</v>
       </c>
       <c r="H12">
-        <v>0.08954530748649603</v>
+        <v>0.08324536473909205</v>
       </c>
       <c r="I12">
-        <v>0.03875087947980127</v>
+        <v>0.02877330445229109</v>
       </c>
       <c r="J12">
-        <v>0.0267246236506935</v>
+        <v>0.1054405423656988</v>
       </c>
       <c r="K12">
-        <v>1.943291617937945</v>
+        <v>1.237354510455908</v>
       </c>
       <c r="L12">
-        <v>0.04716211473340515</v>
+        <v>0.412269363185608</v>
       </c>
       <c r="M12">
-        <v>1.528795484859813</v>
+        <v>0.5133872111599089</v>
       </c>
       <c r="N12">
-        <v>0.09785980120161497</v>
+        <v>0.04585105256618327</v>
       </c>
       <c r="O12">
-        <v>0.2339068304314935</v>
+        <v>1.584292009271337</v>
       </c>
       <c r="P12">
-        <v>0</v>
+        <v>0.1333690682012545</v>
       </c>
       <c r="Q12">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:17">
+        <v>0.2446781049449065</v>
+      </c>
+      <c r="R12">
+        <v>0</v>
+      </c>
+      <c r="S12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:19">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.336357982198535</v>
+        <v>1.302304585166581</v>
       </c>
       <c r="C13">
-        <v>0.2629292619372734</v>
+        <v>0.3168592371831096</v>
       </c>
       <c r="D13">
-        <v>0.002618633599332454</v>
+        <v>0.00510234598533188</v>
       </c>
       <c r="E13">
-        <v>0.01102233351665127</v>
+        <v>0.01197181546300907</v>
       </c>
       <c r="F13">
-        <v>2.634971583851339</v>
+        <v>1.866135135450065</v>
       </c>
       <c r="G13">
         <v>0</v>
       </c>
       <c r="H13">
-        <v>0.1472453129039479</v>
+        <v>0.140443479975275</v>
       </c>
       <c r="I13">
-        <v>0.04076573144530382</v>
+        <v>0.03010401658228989</v>
       </c>
       <c r="J13">
-        <v>0.02672462365057982</v>
+        <v>0.102658464312043</v>
       </c>
       <c r="K13">
-        <v>1.650706625347851</v>
+        <v>1.076417455964325</v>
       </c>
       <c r="L13">
-        <v>0.04847116166023646</v>
+        <v>0.3573458218787877</v>
       </c>
       <c r="M13">
-        <v>1.526887677163671</v>
+        <v>0.448035189442308</v>
       </c>
       <c r="N13">
-        <v>0.06966536826976721</v>
+        <v>0.05277205710290289</v>
       </c>
       <c r="O13">
-        <v>0.2148014704495651</v>
+        <v>1.577274673995277</v>
       </c>
       <c r="P13">
-        <v>0</v>
+        <v>0.0976438238855053</v>
       </c>
       <c r="Q13">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:17">
+        <v>0.2239780211787696</v>
+      </c>
+      <c r="R13">
+        <v>0</v>
+      </c>
+      <c r="S13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.319088797518106</v>
+        <v>1.288664243457816</v>
       </c>
       <c r="C14">
-        <v>0.2578815692630485</v>
+        <v>0.30590177179036</v>
       </c>
       <c r="D14">
-        <v>0.002324116902650664</v>
+        <v>0.005429472993316864</v>
       </c>
       <c r="E14">
-        <v>0.0125261836699968</v>
+        <v>0.01338280826191518</v>
       </c>
       <c r="F14">
-        <v>2.330869588010373</v>
+        <v>1.680282181990009</v>
       </c>
       <c r="G14">
         <v>0</v>
       </c>
       <c r="H14">
-        <v>0.1985077760933223</v>
+        <v>0.1912298024929129</v>
       </c>
       <c r="I14">
-        <v>0.04325450274847586</v>
+        <v>0.0318751188696762</v>
       </c>
       <c r="J14">
-        <v>0.02672462365057982</v>
+        <v>0.09486545036309479</v>
       </c>
       <c r="K14">
-        <v>1.453356916485845</v>
+        <v>0.9699838923450557</v>
       </c>
       <c r="L14">
-        <v>0.05339264237220576</v>
+        <v>0.3220023426799656</v>
       </c>
       <c r="M14">
-        <v>1.504979379045324</v>
+        <v>0.4036369407234659</v>
       </c>
       <c r="N14">
-        <v>0.05253032016289083</v>
+        <v>0.06077586343359798</v>
       </c>
       <c r="O14">
-        <v>0.1990356158002378</v>
+        <v>1.550912490863624</v>
       </c>
       <c r="P14">
-        <v>0</v>
+        <v>0.07557646454142741</v>
       </c>
       <c r="Q14">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:17">
+        <v>0.2069851178510049</v>
+      </c>
+      <c r="R14">
+        <v>0</v>
+      </c>
+      <c r="S14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:19">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.306141115408451</v>
+        <v>1.276815603696292</v>
       </c>
       <c r="C15">
-        <v>0.2551608766545428</v>
+        <v>0.3013814805932782</v>
       </c>
       <c r="D15">
-        <v>0.002307755613926155</v>
+        <v>0.005527985054753159</v>
       </c>
       <c r="E15">
-        <v>0.01292783868374681</v>
+        <v>0.0137697767631364</v>
       </c>
       <c r="F15">
-        <v>2.249828235082603</v>
+        <v>1.63172892522573</v>
       </c>
       <c r="G15">
         <v>0</v>
       </c>
       <c r="H15">
-        <v>0.2118975092007958</v>
+        <v>0.204421894390947</v>
       </c>
       <c r="I15">
-        <v>0.04452251048418443</v>
+        <v>0.03285303785674465</v>
       </c>
       <c r="J15">
-        <v>0.02672462365057982</v>
+        <v>0.09097538657191606</v>
       </c>
       <c r="K15">
-        <v>1.401859898938042</v>
+        <v>0.9430995184587445</v>
       </c>
       <c r="L15">
-        <v>0.05495186146920972</v>
+        <v>0.3133873187788012</v>
       </c>
       <c r="M15">
-        <v>1.490060845989888</v>
+        <v>0.3920268896160195</v>
       </c>
       <c r="N15">
-        <v>0.04864513578712248</v>
+        <v>0.06292995801168644</v>
       </c>
       <c r="O15">
-        <v>0.1940664444326359</v>
+        <v>1.534505114145105</v>
       </c>
       <c r="P15">
-        <v>0</v>
+        <v>0.07048834652128733</v>
       </c>
       <c r="Q15">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:17">
+        <v>0.2016509804407853</v>
+      </c>
+      <c r="R15">
+        <v>0</v>
+      </c>
+      <c r="S15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:19">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.224564514013991</v>
+        <v>1.19674455571004</v>
       </c>
       <c r="C16">
-        <v>0.2384436772581751</v>
+        <v>0.2817016650253379</v>
       </c>
       <c r="D16">
-        <v>0.002495404151139358</v>
+        <v>0.005230490349850569</v>
       </c>
       <c r="E16">
-        <v>0.0120004178830051</v>
+        <v>0.01288006248802454</v>
       </c>
       <c r="F16">
-        <v>2.200835347908495</v>
+        <v>1.614604873878051</v>
       </c>
       <c r="G16">
         <v>0</v>
       </c>
       <c r="H16">
-        <v>0.2035082816006906</v>
+        <v>0.1952106963584015</v>
       </c>
       <c r="I16">
-        <v>0.04971193339167179</v>
+        <v>0.03676495244057509</v>
       </c>
       <c r="J16">
-        <v>0.02672462365057982</v>
+        <v>0.07852597926787475</v>
       </c>
       <c r="K16">
-        <v>1.379336424965146</v>
+        <v>0.9417723281971391</v>
       </c>
       <c r="L16">
-        <v>0.0520786626164309</v>
+        <v>0.3161144001042615</v>
       </c>
       <c r="M16">
-        <v>1.396667560893405</v>
+        <v>0.3875959406239815</v>
       </c>
       <c r="N16">
-        <v>0.04740519905643836</v>
+        <v>0.05934966696057842</v>
       </c>
       <c r="O16">
-        <v>0.1830291992822524</v>
+        <v>1.437801879607065</v>
       </c>
       <c r="P16">
-        <v>0</v>
+        <v>0.06872505033385323</v>
       </c>
       <c r="Q16">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="1:17">
+        <v>0.1900341756931923</v>
+      </c>
+      <c r="R16">
+        <v>0</v>
+      </c>
+      <c r="S16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:19">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.171333171308333</v>
+        <v>1.142744010717649</v>
       </c>
       <c r="C17">
-        <v>0.2284310746035345</v>
+        <v>0.2725653633045226</v>
       </c>
       <c r="D17">
-        <v>0.002749854243541794</v>
+        <v>0.004845375780879735</v>
       </c>
       <c r="E17">
-        <v>0.01034487628699132</v>
+        <v>0.01129579862366548</v>
       </c>
       <c r="F17">
-        <v>2.319773160461907</v>
+        <v>1.698065010522555</v>
       </c>
       <c r="G17">
         <v>0</v>
       </c>
       <c r="H17">
-        <v>0.1680962498822964</v>
+        <v>0.159414695087591</v>
       </c>
       <c r="I17">
-        <v>0.05244536285823109</v>
+        <v>0.03889385418673363</v>
       </c>
       <c r="J17">
-        <v>0.02672462365057982</v>
+        <v>0.07630534183234516</v>
       </c>
       <c r="K17">
-        <v>1.462971332365235</v>
+        <v>0.9958060868212328</v>
       </c>
       <c r="L17">
-        <v>0.04650625281538545</v>
+        <v>0.3371425828792312</v>
       </c>
       <c r="M17">
-        <v>1.336947003652824</v>
+        <v>0.4066035190510746</v>
       </c>
       <c r="N17">
-        <v>0.05500023919489294</v>
+        <v>0.05181964476936685</v>
       </c>
       <c r="O17">
-        <v>0.1828497010691983</v>
+        <v>1.377911420983878</v>
       </c>
       <c r="P17">
-        <v>0</v>
+        <v>0.07839432446970562</v>
       </c>
       <c r="Q17">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="1:17">
+        <v>0.1900493134256784</v>
+      </c>
+      <c r="R17">
+        <v>0</v>
+      </c>
+      <c r="S17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:19">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.13672990659046</v>
+        <v>1.105422203298701</v>
       </c>
       <c r="C18">
-        <v>0.2222276316822587</v>
+        <v>0.2706068074156747</v>
       </c>
       <c r="D18">
-        <v>0.003362099943350572</v>
+        <v>0.004297041467225426</v>
       </c>
       <c r="E18">
-        <v>0.008720299257705566</v>
+        <v>0.009803064654703153</v>
       </c>
       <c r="F18">
-        <v>2.6230359121422</v>
+        <v>1.893923958738867</v>
       </c>
       <c r="G18">
         <v>0</v>
       </c>
       <c r="H18">
-        <v>0.1156103105328015</v>
+        <v>0.1069804557687419</v>
       </c>
       <c r="I18">
-        <v>0.05266047783608663</v>
+        <v>0.03906356018791701</v>
       </c>
       <c r="J18">
-        <v>0.02672462365057982</v>
+        <v>0.07595859146309314</v>
       </c>
       <c r="K18">
-        <v>1.668134905377045</v>
+        <v>1.115706506178668</v>
       </c>
       <c r="L18">
-        <v>0.04186082060008189</v>
+        <v>0.3812203511993175</v>
       </c>
       <c r="M18">
-        <v>1.298563683655658</v>
+        <v>0.4518874876175119</v>
       </c>
       <c r="N18">
-        <v>0.07333819452654211</v>
+        <v>0.04329870709942618</v>
       </c>
       <c r="O18">
-        <v>0.1919551745615315</v>
+        <v>1.34210603973321</v>
       </c>
       <c r="P18">
-        <v>0</v>
+        <v>0.1016915675766654</v>
       </c>
       <c r="Q18">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="1:17">
+        <v>0.2000854113623127</v>
+      </c>
+      <c r="R18">
+        <v>0</v>
+      </c>
+      <c r="S18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:19">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.118587606506253</v>
+        <v>1.083489207808299</v>
       </c>
       <c r="C19">
-        <v>0.2208978370286161</v>
+        <v>0.2757511900670409</v>
       </c>
       <c r="D19">
-        <v>0.004526971504035693</v>
+        <v>0.003926176022199357</v>
       </c>
       <c r="E19">
-        <v>0.008482305052540884</v>
+        <v>0.009773408696275965</v>
       </c>
       <c r="F19">
-        <v>3.058417203156438</v>
+        <v>2.167262546613742</v>
       </c>
       <c r="G19">
         <v>0</v>
       </c>
       <c r="H19">
-        <v>0.06851376751478</v>
+        <v>0.06034873910940775</v>
       </c>
       <c r="I19">
-        <v>0.0514085179503736</v>
+        <v>0.03835646017184313</v>
       </c>
       <c r="J19">
-        <v>0.02672462365057982</v>
+        <v>0.07592634768449891</v>
       </c>
       <c r="K19">
-        <v>1.961987615363896</v>
+        <v>1.28171141245361</v>
       </c>
       <c r="L19">
-        <v>0.04413245559243695</v>
+        <v>0.4414153404272625</v>
       </c>
       <c r="M19">
-        <v>1.28116084116823</v>
+        <v>0.5155559892201182</v>
       </c>
       <c r="N19">
-        <v>0.1033647325786191</v>
+        <v>0.03957511137159964</v>
       </c>
       <c r="O19">
-        <v>0.2083710246703916</v>
+        <v>1.329039008769485</v>
       </c>
       <c r="P19">
-        <v>0</v>
+        <v>0.1392829801850226</v>
       </c>
       <c r="Q19">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" spans="1:17">
+        <v>0.2179682863198522</v>
+      </c>
+      <c r="R19">
+        <v>0</v>
+      </c>
+      <c r="S19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:19">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.149241889859354</v>
+        <v>1.10692262445815</v>
       </c>
       <c r="C20">
-        <v>0.2307689550057148</v>
+        <v>0.2984317348266075</v>
       </c>
       <c r="D20">
-        <v>0.007251529401388623</v>
+        <v>0.003637092771311856</v>
       </c>
       <c r="E20">
-        <v>0.0119148399441098</v>
+        <v>0.0136122436403685</v>
       </c>
       <c r="F20">
-        <v>3.888357234034402</v>
+        <v>2.671613001803962</v>
       </c>
       <c r="G20">
         <v>0</v>
       </c>
       <c r="H20">
-        <v>0.03486924500239397</v>
+        <v>0.02822111447758102</v>
       </c>
       <c r="I20">
-        <v>0.04499197256650334</v>
+        <v>0.03388178504642791</v>
       </c>
       <c r="J20">
-        <v>0.02672462365057982</v>
+        <v>0.07642603823846983</v>
       </c>
       <c r="K20">
-        <v>2.522641291575411</v>
+        <v>1.586289935904475</v>
       </c>
       <c r="L20">
-        <v>0.06466379471195438</v>
+        <v>0.5476485687350277</v>
       </c>
       <c r="M20">
-        <v>1.321464880016009</v>
+        <v>0.6369278222674808</v>
       </c>
       <c r="N20">
-        <v>0.1640359361515209</v>
+        <v>0.04802257663109444</v>
       </c>
       <c r="O20">
-        <v>0.2446288137456101</v>
+        <v>1.378729173794142</v>
       </c>
       <c r="P20">
-        <v>0</v>
+        <v>0.2146968487071916</v>
       </c>
       <c r="Q20">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="1:17">
+        <v>0.2572128919350654</v>
+      </c>
+      <c r="R20">
+        <v>0</v>
+      </c>
+      <c r="S20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:19">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.292149311829263</v>
+        <v>1.244087199710179</v>
       </c>
       <c r="C21">
-        <v>0.2619953273037652</v>
+        <v>0.339364159748186</v>
       </c>
       <c r="D21">
-        <v>0.007658480011286883</v>
+        <v>0.003849099518939525</v>
       </c>
       <c r="E21">
-        <v>0.01389785707420188</v>
+        <v>0.01566929653623372</v>
       </c>
       <c r="F21">
-        <v>4.264798819514169</v>
+        <v>2.872584386043229</v>
       </c>
       <c r="G21">
         <v>0</v>
       </c>
       <c r="H21">
-        <v>0.0266758759808301</v>
+        <v>0.02158395767068799</v>
       </c>
       <c r="I21">
-        <v>0.03555363520805344</v>
+        <v>0.02691997807937696</v>
       </c>
       <c r="J21">
-        <v>0.02672462365057982</v>
+        <v>0.1039450029752018</v>
       </c>
       <c r="K21">
-        <v>2.757376768374257</v>
+        <v>1.689698365352825</v>
       </c>
       <c r="L21">
-        <v>0.07369526778245827</v>
+        <v>0.5716413739107082</v>
       </c>
       <c r="M21">
-        <v>1.487956954826188</v>
+        <v>0.6916182287661456</v>
       </c>
       <c r="N21">
-        <v>0.1873698629230844</v>
+        <v>0.05339767441669707</v>
       </c>
       <c r="O21">
-        <v>0.2766211453478249</v>
+        <v>1.55374253347486</v>
       </c>
       <c r="P21">
-        <v>0</v>
+        <v>0.2444801786909778</v>
       </c>
       <c r="Q21">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22" spans="1:17">
+        <v>0.2912244621898665</v>
+      </c>
+      <c r="R21">
+        <v>0</v>
+      </c>
+      <c r="S21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:19">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.387366742407352</v>
+        <v>1.335452872742707</v>
       </c>
       <c r="C22">
-        <v>0.2819755457176996</v>
+        <v>0.365323886995526</v>
       </c>
       <c r="D22">
-        <v>0.007917413778155691</v>
+        <v>0.003916488198383306</v>
       </c>
       <c r="E22">
-        <v>0.01498721629902633</v>
+        <v>0.01677866969187658</v>
       </c>
       <c r="F22">
-        <v>4.491890981277464</v>
+        <v>2.992688836471942</v>
       </c>
       <c r="G22">
         <v>0</v>
       </c>
       <c r="H22">
-        <v>0.02221733363548606</v>
+        <v>0.0179927266193477</v>
       </c>
       <c r="I22">
-        <v>0.02982149701480719</v>
+        <v>0.02254336200644236</v>
       </c>
       <c r="J22">
-        <v>0.02672462365057982</v>
+        <v>0.1466045079828149</v>
       </c>
       <c r="K22">
-        <v>2.898782144826654</v>
+        <v>1.751067870614605</v>
       </c>
       <c r="L22">
-        <v>0.07862502769278379</v>
+        <v>0.5845760482049442</v>
       </c>
       <c r="M22">
-        <v>1.597593430371603</v>
+        <v>0.725994852437033</v>
       </c>
       <c r="N22">
-        <v>0.1992026327603327</v>
+        <v>0.05638518813421101</v>
       </c>
       <c r="O22">
-        <v>0.2961317390008631</v>
+        <v>1.668518399638174</v>
       </c>
       <c r="P22">
-        <v>0</v>
+        <v>0.2599030606386776</v>
       </c>
       <c r="Q22">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="1:17">
+        <v>0.3119396229883762</v>
+      </c>
+      <c r="R22">
+        <v>0</v>
+      </c>
+      <c r="S22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:19">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.337166737804836</v>
+        <v>1.287216323816665</v>
       </c>
       <c r="C23">
-        <v>0.2703850072072385</v>
+        <v>0.350572045535813</v>
       </c>
       <c r="D23">
-        <v>0.007942655974428448</v>
+        <v>0.003786794160935969</v>
       </c>
       <c r="E23">
-        <v>0.01440105646014267</v>
+        <v>0.01618256761892756</v>
       </c>
       <c r="F23">
-        <v>4.388353239046637</v>
+        <v>2.940084887509443</v>
       </c>
       <c r="G23">
         <v>0</v>
       </c>
       <c r="H23">
-        <v>0.02449405460836296</v>
+        <v>0.01983042555340275</v>
       </c>
       <c r="I23">
-        <v>0.03237929403231377</v>
+        <v>0.02435300932679141</v>
       </c>
       <c r="J23">
-        <v>0.02672462365057982</v>
+        <v>0.1149997787805219</v>
       </c>
       <c r="K23">
-        <v>2.836953198344403</v>
+        <v>1.726609706787684</v>
       </c>
       <c r="L23">
-        <v>0.07629790261891145</v>
+        <v>0.5806082529759777</v>
       </c>
       <c r="M23">
-        <v>1.538346701687232</v>
+        <v>0.7108621135004469</v>
       </c>
       <c r="N23">
-        <v>0.1923652590639051</v>
+        <v>0.05495124180522737</v>
       </c>
       <c r="O23">
-        <v>0.2855489965200064</v>
+        <v>1.606652064254178</v>
       </c>
       <c r="P23">
-        <v>0</v>
+        <v>0.2511868554625494</v>
       </c>
       <c r="Q23">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="1:17">
+        <v>0.300740895362388</v>
+      </c>
+      <c r="R23">
+        <v>0</v>
+      </c>
+      <c r="S23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:19">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.147067775960124</v>
+        <v>1.104237001228853</v>
       </c>
       <c r="C24">
-        <v>0.228979143752511</v>
+        <v>0.2973178674085659</v>
       </c>
       <c r="D24">
-        <v>0.007743151534578274</v>
+        <v>0.003479632432638269</v>
       </c>
       <c r="E24">
-        <v>0.012255630057731</v>
+        <v>0.0139856028683143</v>
       </c>
       <c r="F24">
-        <v>3.968821026376276</v>
+        <v>2.722666035121222</v>
       </c>
       <c r="G24">
         <v>0</v>
       </c>
       <c r="H24">
-        <v>0.03438705522752183</v>
+        <v>0.02781784265256926</v>
       </c>
       <c r="I24">
-        <v>0.04415905253225816</v>
+        <v>0.03303578823268705</v>
       </c>
       <c r="J24">
-        <v>0.02672462365057982</v>
+        <v>0.07636882555349711</v>
       </c>
       <c r="K24">
-        <v>2.580709086711821</v>
+        <v>1.620130887295034</v>
       </c>
       <c r="L24">
-        <v>0.06708686860189417</v>
+        <v>0.5600050735648594</v>
       </c>
       <c r="M24">
-        <v>1.317126359156447</v>
+        <v>0.6498274055523368</v>
       </c>
       <c r="N24">
-        <v>0.1675279930062175</v>
+        <v>0.04930567117589213</v>
       </c>
       <c r="O24">
-        <v>0.245988237757043</v>
+        <v>1.374923791573565</v>
       </c>
       <c r="P24">
-        <v>0</v>
+        <v>0.2192280927621937</v>
       </c>
       <c r="Q24">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="25" spans="1:17">
+        <v>0.2587681309950369</v>
+      </c>
+      <c r="R24">
+        <v>0</v>
+      </c>
+      <c r="S24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:19">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="B25">
-        <v>0.9439898882468185</v>
+        <v>0.9078799194719807</v>
       </c>
       <c r="C25">
-        <v>0.1862182153471537</v>
+        <v>0.2421514654144801</v>
       </c>
       <c r="D25">
-        <v>0.007472492510006035</v>
+        <v>0.003201863871048261</v>
       </c>
       <c r="E25">
-        <v>0.0100645989071193</v>
+        <v>0.01171429398530677</v>
       </c>
       <c r="F25">
-        <v>3.519124516303577</v>
+        <v>2.489096226729401</v>
       </c>
       <c r="G25">
         <v>0</v>
       </c>
       <c r="H25">
-        <v>0.04741522270991583</v>
+        <v>0.03836247164442108</v>
       </c>
       <c r="I25">
-        <v>0.05966141126297408</v>
+        <v>0.04456609693701719</v>
       </c>
       <c r="J25">
-        <v>0.02672462365057982</v>
+        <v>0.0759519602266292</v>
       </c>
       <c r="K25">
-        <v>2.304657870290981</v>
+        <v>1.504468711822881</v>
       </c>
       <c r="L25">
-        <v>0.05732150563048677</v>
+        <v>0.5358419589741175</v>
       </c>
       <c r="M25">
-        <v>1.082309244425062</v>
+        <v>0.5875338243859858</v>
       </c>
       <c r="N25">
-        <v>0.1411164235357418</v>
+        <v>0.04328158216167566</v>
       </c>
       <c r="O25">
-        <v>0.2037737035498566</v>
+        <v>1.128013961910057</v>
       </c>
       <c r="P25">
-        <v>0</v>
+        <v>0.1852562646322937</v>
       </c>
       <c r="Q25">
+        <v>0.2138851226584926</v>
+      </c>
+      <c r="R25">
+        <v>0</v>
+      </c>
+      <c r="S25">
         <v>0</v>
       </c>
     </row>
